--- a/clean_data.xlsx
+++ b/clean_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahran\Documents\Punya Zahran\Zahran Unpad\Skripsi New\Code\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C923590-8A80-4921-994E-1A3BCB24BF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE35ADB-BDAF-4D0C-BB13-396468005FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3563" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="1764">
   <si>
     <t>Tweet</t>
   </si>
@@ -5685,10 +5685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1783"/>
+  <dimension ref="A1:B1782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1760" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A983" workbookViewId="0">
+      <selection activeCell="A1002" sqref="A1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13703,13 +13703,16 @@
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1002" t="s">
+        <v>995</v>
+      </c>
       <c r="B1002" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B1003" t="s">
         <v>6</v>
@@ -13717,31 +13720,31 @@
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1004" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B1004" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1005" t="s">
-        <v>997</v>
+        <v>933</v>
       </c>
       <c r="B1005" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1006" t="s">
-        <v>933</v>
+        <v>998</v>
       </c>
       <c r="B1006" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1007" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B1007" t="s">
         <v>3</v>
@@ -13749,39 +13752,39 @@
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1008" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B1008" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1009" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B1009" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1010" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B1010" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1011" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B1011" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1012" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B1012" t="s">
         <v>3</v>
@@ -13789,7 +13792,7 @@
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1013" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B1013" t="s">
         <v>3</v>
@@ -13797,7 +13800,7 @@
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1014" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B1014" t="s">
         <v>3</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1015" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B1015" t="s">
         <v>3</v>
@@ -13813,23 +13816,23 @@
     </row>
     <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1016" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B1016" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1017" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B1017" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1018" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B1018" t="s">
         <v>3</v>
@@ -13837,15 +13840,15 @@
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1019" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B1019" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1020" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B1020" t="s">
         <v>6</v>
@@ -13853,15 +13856,15 @@
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1021" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B1021" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1022" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B1022" t="s">
         <v>3</v>
@@ -13869,7 +13872,7 @@
     </row>
     <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1023" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B1023" t="s">
         <v>3</v>
@@ -13877,7 +13880,7 @@
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1024" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B1024" t="s">
         <v>3</v>
@@ -13885,7 +13888,7 @@
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1025" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B1025" t="s">
         <v>3</v>
@@ -13893,7 +13896,7 @@
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1026" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B1026" t="s">
         <v>3</v>
@@ -13901,15 +13904,15 @@
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1027" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B1027" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1028" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B1028" t="s">
         <v>6</v>
@@ -13917,7 +13920,7 @@
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1029" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B1029" t="s">
         <v>6</v>
@@ -13925,7 +13928,7 @@
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B1030" t="s">
         <v>6</v>
@@ -13933,15 +13936,15 @@
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1031" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B1031" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B1032" t="s">
         <v>3</v>
@@ -13949,47 +13952,47 @@
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1033" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B1033" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1034" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B1034" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1035" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B1035" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1036" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B1036" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1037" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B1037" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B1038" t="s">
         <v>6</v>
@@ -13997,15 +14000,15 @@
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B1039" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B1040" t="s">
         <v>3</v>
@@ -14013,39 +14016,39 @@
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B1041" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1042" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B1042" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1043" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B1043" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1044" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1044" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B1044" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1045" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B1045" t="s">
         <v>3</v>
@@ -14053,7 +14056,7 @@
     </row>
     <row r="1046" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1046" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B1046" t="s">
         <v>3</v>
@@ -14061,7 +14064,7 @@
     </row>
     <row r="1047" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B1047" t="s">
         <v>3</v>
@@ -14069,7 +14072,7 @@
     </row>
     <row r="1048" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B1048" t="s">
         <v>3</v>
@@ -14077,7 +14080,7 @@
     </row>
     <row r="1049" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B1049" t="s">
         <v>3</v>
@@ -14085,7 +14088,7 @@
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B1050" t="s">
         <v>3</v>
@@ -14093,7 +14096,7 @@
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B1051" t="s">
         <v>3</v>
@@ -14101,23 +14104,23 @@
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B1052" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B1053" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B1054" t="s">
         <v>3</v>
@@ -14125,39 +14128,39 @@
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B1055" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B1056" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B1057" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1058" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B1058" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B1059" t="s">
         <v>3</v>
@@ -14165,7 +14168,7 @@
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B1060" t="s">
         <v>3</v>
@@ -14173,7 +14176,7 @@
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B1061" t="s">
         <v>3</v>
@@ -14181,7 +14184,7 @@
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B1062" t="s">
         <v>3</v>
@@ -14189,7 +14192,7 @@
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B1063" t="s">
         <v>3</v>
@@ -14197,7 +14200,7 @@
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B1064" t="s">
         <v>3</v>
@@ -14205,7 +14208,7 @@
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B1065" t="s">
         <v>3</v>
@@ -14213,15 +14216,15 @@
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1066" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B1066" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1067" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B1067" t="s">
         <v>6</v>
@@ -14229,15 +14232,15 @@
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1068" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B1068" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B1069" t="s">
         <v>3</v>
@@ -14245,55 +14248,55 @@
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1070" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B1070" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1071" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B1071" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B1072" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B1073" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B1074" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1075" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B1075" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1076" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B1076" t="s">
         <v>3</v>
@@ -14301,7 +14304,7 @@
     </row>
     <row r="1077" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B1077" t="s">
         <v>3</v>
@@ -14309,7 +14312,7 @@
     </row>
     <row r="1078" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B1078" t="s">
         <v>3</v>
@@ -14317,7 +14320,7 @@
     </row>
     <row r="1079" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B1079" t="s">
         <v>3</v>
@@ -14325,7 +14328,7 @@
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B1080" t="s">
         <v>3</v>
@@ -14333,7 +14336,7 @@
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B1081" t="s">
         <v>3</v>
@@ -14341,23 +14344,23 @@
     </row>
     <row r="1082" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B1082" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1083" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B1083" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B1084" t="s">
         <v>3</v>
@@ -14365,7 +14368,7 @@
     </row>
     <row r="1085" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B1085" t="s">
         <v>3</v>
@@ -14373,7 +14376,7 @@
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B1086" t="s">
         <v>3</v>
@@ -14381,7 +14384,7 @@
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B1087" t="s">
         <v>3</v>
@@ -14389,7 +14392,7 @@
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B1088" t="s">
         <v>3</v>
@@ -14397,15 +14400,15 @@
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B1089" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B1090" t="s">
         <v>6</v>
@@ -14413,7 +14416,7 @@
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B1091" t="s">
         <v>6</v>
@@ -14421,7 +14424,7 @@
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B1092" t="s">
         <v>6</v>
@@ -14429,23 +14432,23 @@
     </row>
     <row r="1093" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B1093" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1094" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B1094" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B1095" t="s">
         <v>6</v>
@@ -14453,7 +14456,7 @@
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B1096" t="s">
         <v>6</v>
@@ -14461,31 +14464,31 @@
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B1097" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B1098" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1099" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B1099" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B1100" t="s">
         <v>3</v>
@@ -14493,7 +14496,7 @@
     </row>
     <row r="1101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B1101" t="s">
         <v>3</v>
@@ -14501,7 +14504,7 @@
     </row>
     <row r="1102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B1102" t="s">
         <v>3</v>
@@ -14509,7 +14512,7 @@
     </row>
     <row r="1103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B1103" t="s">
         <v>3</v>
@@ -14517,7 +14520,7 @@
     </row>
     <row r="1104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B1104" t="s">
         <v>3</v>
@@ -14525,7 +14528,7 @@
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B1105" t="s">
         <v>3</v>
@@ -14533,7 +14536,7 @@
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1106" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B1106" t="s">
         <v>3</v>
@@ -14541,39 +14544,39 @@
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B1107" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B1108" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B1109" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B1110" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B1111" t="s">
         <v>3</v>
@@ -14581,7 +14584,7 @@
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B1112" t="s">
         <v>3</v>
@@ -14589,7 +14592,7 @@
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B1113" t="s">
         <v>3</v>
@@ -14597,23 +14600,23 @@
     </row>
     <row r="1114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B1114" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B1115" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B1116" t="s">
         <v>3</v>
@@ -14621,7 +14624,7 @@
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B1117" t="s">
         <v>3</v>
@@ -14629,23 +14632,23 @@
     </row>
     <row r="1118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B1118" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B1119" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B1120" t="s">
         <v>3</v>
@@ -14653,7 +14656,7 @@
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B1121" t="s">
         <v>3</v>
@@ -14661,39 +14664,39 @@
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B1122" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1123" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B1123" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B1124" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B1125" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B1126" t="s">
         <v>3</v>
@@ -14701,7 +14704,7 @@
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B1127" t="s">
         <v>3</v>
@@ -14709,23 +14712,23 @@
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B1128" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B1129" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B1130" t="s">
         <v>3</v>
@@ -14733,7 +14736,7 @@
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B1131" t="s">
         <v>3</v>
@@ -14741,7 +14744,7 @@
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B1132" t="s">
         <v>3</v>
@@ -14749,7 +14752,7 @@
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B1133" t="s">
         <v>3</v>
@@ -14757,31 +14760,31 @@
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B1134" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B1135" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B1136" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B1137" t="s">
         <v>6</v>
@@ -14789,15 +14792,15 @@
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B1138" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B1139" t="s">
         <v>3</v>
@@ -14805,15 +14808,15 @@
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B1140" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B1141" t="s">
         <v>6</v>
@@ -14821,15 +14824,15 @@
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B1142" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
-        <v>1134</v>
+        <v>208</v>
       </c>
       <c r="B1143" t="s">
         <v>3</v>
@@ -14837,7 +14840,7 @@
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
-        <v>208</v>
+        <v>1135</v>
       </c>
       <c r="B1144" t="s">
         <v>3</v>
@@ -14845,7 +14848,7 @@
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B1145" t="s">
         <v>3</v>
@@ -14853,23 +14856,23 @@
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B1146" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B1147" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B1148" t="s">
         <v>3</v>
@@ -14877,7 +14880,7 @@
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B1149" t="s">
         <v>3</v>
@@ -14885,23 +14888,23 @@
     </row>
     <row r="1150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B1150" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B1151" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B1152" t="s">
         <v>3</v>
@@ -14909,15 +14912,15 @@
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B1153" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B1154" t="s">
         <v>6</v>
@@ -14925,7 +14928,7 @@
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B1155" t="s">
         <v>6</v>
@@ -14933,7 +14936,7 @@
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B1156" t="s">
         <v>6</v>
@@ -14941,15 +14944,15 @@
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B1157" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1158" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B1158" t="s">
         <v>3</v>
@@ -14957,7 +14960,7 @@
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1159" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B1159" t="s">
         <v>3</v>
@@ -14965,7 +14968,7 @@
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1160" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B1160" t="s">
         <v>3</v>
@@ -14973,23 +14976,23 @@
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1161" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B1161" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B1162" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B1163" t="s">
         <v>3</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B1164" t="s">
         <v>3</v>
@@ -15005,15 +15008,15 @@
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B1165" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B1166" t="s">
         <v>6</v>
@@ -15021,47 +15024,47 @@
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B1167" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B1168" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B1169" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
-        <v>1160</v>
+        <v>945</v>
       </c>
       <c r="B1170" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
-        <v>945</v>
+        <v>1161</v>
       </c>
       <c r="B1171" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B1172" t="s">
         <v>3</v>
@@ -15069,7 +15072,7 @@
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B1173" t="s">
         <v>3</v>
@@ -15077,7 +15080,7 @@
     </row>
     <row r="1174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B1174" t="s">
         <v>3</v>
@@ -15085,7 +15088,7 @@
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B1175" t="s">
         <v>3</v>
@@ -15093,7 +15096,7 @@
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B1176" t="s">
         <v>3</v>
@@ -15101,7 +15104,7 @@
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B1177" t="s">
         <v>3</v>
@@ -15109,15 +15112,15 @@
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B1178" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B1179" t="s">
         <v>6</v>
@@ -15125,7 +15128,7 @@
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B1180" t="s">
         <v>6</v>
@@ -15133,23 +15136,23 @@
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B1181" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B1182" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B1183" t="s">
         <v>6</v>
@@ -15157,31 +15160,31 @@
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B1184" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B1185" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B1186" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B1187" t="s">
         <v>3</v>
@@ -15189,23 +15192,23 @@
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B1188" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B1189" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B1190" t="s">
         <v>3</v>
@@ -15213,7 +15216,7 @@
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B1191" t="s">
         <v>3</v>
@@ -15221,7 +15224,7 @@
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B1192" t="s">
         <v>3</v>
@@ -15229,15 +15232,15 @@
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B1193" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B1194" t="s">
         <v>6</v>
@@ -15245,15 +15248,15 @@
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B1195" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B1196" t="s">
         <v>3</v>
@@ -15261,7 +15264,7 @@
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B1197" t="s">
         <v>3</v>
@@ -15269,23 +15272,23 @@
     </row>
     <row r="1198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B1198" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1199" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B1199" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1200" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B1200" t="s">
         <v>3</v>
@@ -15293,15 +15296,15 @@
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1201" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B1201" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1202" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B1202" t="s">
         <v>6</v>
@@ -15309,15 +15312,15 @@
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1203" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B1203" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1204" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B1204" t="s">
         <v>3</v>
@@ -15325,7 +15328,7 @@
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1205" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B1205" t="s">
         <v>3</v>
@@ -15333,7 +15336,7 @@
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1206" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B1206" t="s">
         <v>3</v>
@@ -15341,32 +15344,32 @@
     </row>
     <row r="1207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1207" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B1207" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1208" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B1208" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1209" t="e">
+      <c r="A1208" t="e">
         <f>wine + food + nice people having fun Today at pm at DeliDelux</f>
         <v>#NAME?</v>
       </c>
+      <c r="B1208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1209" t="s">
+        <v>1198</v>
+      </c>
       <c r="B1209" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1210" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B1210" t="s">
         <v>3</v>
@@ -15374,7 +15377,7 @@
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1211" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B1211" t="s">
         <v>3</v>
@@ -15382,23 +15385,23 @@
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1212" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B1212" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1213" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B1213" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1214" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B1214" t="s">
         <v>3</v>
@@ -15406,71 +15409,71 @@
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1215" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B1215" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1216" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B1216" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1217" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B1217" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1218" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B1218" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1219" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B1219" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1220" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B1220" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1221" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B1221" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1222" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B1222" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1223" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B1223" t="s">
         <v>3</v>
@@ -15478,7 +15481,7 @@
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1224" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B1224" t="s">
         <v>3</v>
@@ -15486,7 +15489,7 @@
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1225" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B1225" t="s">
         <v>3</v>
@@ -15494,23 +15497,23 @@
     </row>
     <row r="1226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1226" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B1226" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1227" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B1227" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1228" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B1228" t="s">
         <v>3</v>
@@ -15518,7 +15521,7 @@
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1229" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B1229" t="s">
         <v>3</v>
@@ -15526,7 +15529,7 @@
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1230" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B1230" t="s">
         <v>3</v>
@@ -15534,7 +15537,7 @@
     </row>
     <row r="1231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1231" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B1231" t="s">
         <v>3</v>
@@ -15542,7 +15545,7 @@
     </row>
     <row r="1232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1232" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B1232" t="s">
         <v>3</v>
@@ -15550,7 +15553,7 @@
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B1233" t="s">
         <v>3</v>
@@ -15558,7 +15561,7 @@
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B1234" t="s">
         <v>3</v>
@@ -15566,31 +15569,31 @@
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1235" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B1235" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1236" t="s">
-        <v>1224</v>
+        <v>335</v>
       </c>
       <c r="B1236" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1237" t="s">
-        <v>335</v>
+        <v>1225</v>
       </c>
       <c r="B1237" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1238" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B1238" t="s">
         <v>6</v>
@@ -15598,7 +15601,7 @@
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1239" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B1239" t="s">
         <v>6</v>
@@ -15606,47 +15609,47 @@
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1240" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B1240" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1241" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B1241" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1242" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B1242" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1243" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B1243" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1244" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B1244" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1245" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B1245" t="s">
         <v>3</v>
@@ -15654,7 +15657,7 @@
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1246" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B1246" t="s">
         <v>3</v>
@@ -15662,23 +15665,23 @@
     </row>
     <row r="1247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1247" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B1247" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1248" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B1248" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1249" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B1249" t="s">
         <v>3</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1250" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B1250" t="s">
         <v>3</v>
@@ -15694,7 +15697,7 @@
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1251" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B1251" t="s">
         <v>3</v>
@@ -15702,7 +15705,7 @@
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1252" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B1252" t="s">
         <v>3</v>
@@ -15710,23 +15713,23 @@
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1253" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B1253" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1254" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B1254" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1255" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B1255" t="s">
         <v>3</v>
@@ -15734,7 +15737,7 @@
     </row>
     <row r="1256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1256" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B1256" t="s">
         <v>3</v>
@@ -15742,7 +15745,7 @@
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1257" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B1257" t="s">
         <v>3</v>
@@ -15750,7 +15753,7 @@
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1258" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B1258" t="s">
         <v>3</v>
@@ -15758,39 +15761,39 @@
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1259" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B1259" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1260" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B1260" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1261" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B1261" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1262" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B1262" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1263" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B1263" t="s">
         <v>3</v>
@@ -15798,7 +15801,7 @@
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1264" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B1264" t="s">
         <v>3</v>
@@ -15806,15 +15809,15 @@
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1265" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B1265" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1266" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B1266" t="s">
         <v>6</v>
@@ -15822,7 +15825,7 @@
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1267" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B1267" t="s">
         <v>6</v>
@@ -15830,15 +15833,15 @@
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1268" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B1268" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1269" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B1269" t="s">
         <v>3</v>
@@ -15846,23 +15849,23 @@
     </row>
     <row r="1270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1270" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B1270" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1271" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B1271" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1272" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B1272" t="s">
         <v>3</v>
@@ -15870,7 +15873,7 @@
     </row>
     <row r="1273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1273" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B1273" t="s">
         <v>3</v>
@@ -15878,7 +15881,7 @@
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1274" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B1274" t="s">
         <v>3</v>
@@ -15886,7 +15889,7 @@
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1275" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B1275" t="s">
         <v>3</v>
@@ -15894,23 +15897,23 @@
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1276" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B1276" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1277" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B1277" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1278" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B1278" t="s">
         <v>3</v>
@@ -15918,63 +15921,63 @@
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1279" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B1279" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1280" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B1280" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1281" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B1281" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1282" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B1282" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1283" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B1283" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1284" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B1284" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1285" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B1285" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1286" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B1286" t="s">
         <v>6</v>
@@ -15982,7 +15985,7 @@
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1287" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B1287" t="s">
         <v>6</v>
@@ -15990,23 +15993,23 @@
     </row>
     <row r="1288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1288" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B1288" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1289" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B1289" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1290" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B1290" t="s">
         <v>6</v>
@@ -16014,55 +16017,55 @@
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1291" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B1291" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1292" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B1292" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1293" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B1293" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1294" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B1294" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1295" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B1295" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1296" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B1296" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1297" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B1297" t="s">
         <v>6</v>
@@ -16070,23 +16073,23 @@
     </row>
     <row r="1298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1298" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B1298" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1299" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B1299" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1300" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B1300" t="s">
         <v>6</v>
@@ -16094,15 +16097,15 @@
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1301" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B1301" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1302" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B1302" t="s">
         <v>3</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="1303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1303" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B1303" t="s">
         <v>3</v>
@@ -16118,7 +16121,7 @@
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1304" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B1304" t="s">
         <v>3</v>
@@ -16126,7 +16129,7 @@
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1305" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B1305" t="s">
         <v>3</v>
@@ -16134,15 +16137,15 @@
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1306" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B1306" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1307" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B1307" t="s">
         <v>6</v>
@@ -16150,15 +16153,15 @@
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1308" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B1308" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1309" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B1309" t="s">
         <v>3</v>
@@ -16166,7 +16169,7 @@
     </row>
     <row r="1310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1310" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B1310" t="s">
         <v>3</v>
@@ -16174,7 +16177,7 @@
     </row>
     <row r="1311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1311" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B1311" t="s">
         <v>3</v>
@@ -16182,7 +16185,7 @@
     </row>
     <row r="1312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1312" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B1312" t="s">
         <v>3</v>
@@ -16190,7 +16193,7 @@
     </row>
     <row r="1313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1313" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B1313" t="s">
         <v>3</v>
@@ -16198,7 +16201,7 @@
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1314" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B1314" t="s">
         <v>3</v>
@@ -16206,7 +16209,7 @@
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1315" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B1315" t="s">
         <v>3</v>
@@ -16214,31 +16217,31 @@
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1316" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B1316" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1317" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B1317" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1318" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B1318" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1319" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B1319" t="s">
         <v>6</v>
@@ -16246,55 +16249,55 @@
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1320" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B1320" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1321" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B1321" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B1322" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1323" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B1323" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1324" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B1324" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B1325" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B1326" t="s">
         <v>6</v>
@@ -16302,7 +16305,7 @@
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B1327" t="s">
         <v>6</v>
@@ -16310,15 +16313,15 @@
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B1328" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B1329" t="s">
         <v>3</v>
@@ -16326,7 +16329,7 @@
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1330" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B1330" t="s">
         <v>3</v>
@@ -16334,39 +16337,39 @@
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1331" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B1331" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1332" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B1332" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1333" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B1333" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1334" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B1334" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1335" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B1335" t="s">
         <v>3</v>
@@ -16374,23 +16377,23 @@
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1336" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B1336" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1337" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B1337" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1338" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B1338" t="s">
         <v>3</v>
@@ -16398,7 +16401,7 @@
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1339" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B1339" t="s">
         <v>3</v>
@@ -16406,7 +16409,7 @@
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1340" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B1340" t="s">
         <v>3</v>
@@ -16414,7 +16417,7 @@
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1341" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B1341" t="s">
         <v>3</v>
@@ -16422,7 +16425,7 @@
     </row>
     <row r="1342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1342" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B1342" t="s">
         <v>3</v>
@@ -16430,7 +16433,7 @@
     </row>
     <row r="1343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1343" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B1343" t="s">
         <v>3</v>
@@ -16438,7 +16441,7 @@
     </row>
     <row r="1344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1344" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B1344" t="s">
         <v>3</v>
@@ -16446,7 +16449,7 @@
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1345" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B1345" t="s">
         <v>3</v>
@@ -16454,7 +16457,7 @@
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1346" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B1346" t="s">
         <v>3</v>
@@ -16462,23 +16465,23 @@
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1347" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B1347" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1348" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B1348" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1349" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B1349" t="s">
         <v>3</v>
@@ -16486,23 +16489,23 @@
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1350" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B1350" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1351" t="s">
-        <v>1338</v>
+        <v>1054</v>
       </c>
       <c r="B1351" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1352" t="s">
-        <v>1054</v>
+        <v>1339</v>
       </c>
       <c r="B1352" t="s">
         <v>3</v>
@@ -16510,7 +16513,7 @@
     </row>
     <row r="1353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1353" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B1353" t="s">
         <v>3</v>
@@ -16518,7 +16521,7 @@
     </row>
     <row r="1354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1354" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B1354" t="s">
         <v>3</v>
@@ -16526,7 +16529,7 @@
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B1355" t="s">
         <v>3</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B1356" t="s">
         <v>3</v>
@@ -16542,7 +16545,7 @@
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B1357" t="s">
         <v>3</v>
@@ -16550,7 +16553,7 @@
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1358" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B1358" t="s">
         <v>3</v>
@@ -16558,23 +16561,23 @@
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
-        <v>1345</v>
+        <v>658</v>
       </c>
       <c r="B1359" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1360" t="s">
-        <v>658</v>
+        <v>1346</v>
       </c>
       <c r="B1360" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1361" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B1361" t="s">
         <v>3</v>
@@ -16582,7 +16585,7 @@
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1362" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B1362" t="s">
         <v>3</v>
@@ -16590,7 +16593,7 @@
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1363" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B1363" t="s">
         <v>3</v>
@@ -16598,15 +16601,15 @@
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1364" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B1364" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1365" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B1365" t="s">
         <v>6</v>
@@ -16614,7 +16617,7 @@
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1366" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B1366" t="s">
         <v>6</v>
@@ -16622,31 +16625,31 @@
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1367" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B1367" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1368" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B1368" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1369" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B1369" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1370" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B1370" t="s">
         <v>3</v>
@@ -16654,7 +16657,7 @@
     </row>
     <row r="1371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1371" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B1371" t="s">
         <v>3</v>
@@ -16662,7 +16665,7 @@
     </row>
     <row r="1372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1372" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B1372" t="s">
         <v>3</v>
@@ -16670,7 +16673,7 @@
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1373" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B1373" t="s">
         <v>3</v>
@@ -16678,7 +16681,7 @@
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1374" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B1374" t="s">
         <v>3</v>
@@ -16686,15 +16689,15 @@
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1375" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B1375" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1376" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B1376" t="s">
         <v>6</v>
@@ -16702,23 +16705,23 @@
     </row>
     <row r="1377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1377" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B1377" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1378" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B1378" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1379" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B1379" t="s">
         <v>6</v>
@@ -16726,15 +16729,15 @@
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1380" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B1380" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1381" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B1381" t="s">
         <v>3</v>
@@ -16742,15 +16745,15 @@
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1382" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B1382" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1383" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B1383" t="s">
         <v>6</v>
@@ -16758,23 +16761,23 @@
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1384" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B1384" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1385" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B1385" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1386" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B1386" t="s">
         <v>6</v>
@@ -16782,23 +16785,23 @@
     </row>
     <row r="1387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1387" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B1387" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1388" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B1388" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1389" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B1389" t="s">
         <v>6</v>
@@ -16806,15 +16809,15 @@
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1390" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B1390" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1391" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B1391" t="s">
         <v>3</v>
@@ -16822,7 +16825,7 @@
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1392" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B1392" t="s">
         <v>3</v>
@@ -16830,71 +16833,71 @@
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1393" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B1393" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1394" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B1394" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1395" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B1395" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1396" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B1396" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1397" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B1397" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1398" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B1398" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1399" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B1399" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1400" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B1400" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1401" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B1401" t="s">
         <v>3</v>
@@ -16902,23 +16905,23 @@
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1402" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B1402" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1403" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B1403" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1404" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B1404" t="s">
         <v>3</v>
@@ -16926,7 +16929,7 @@
     </row>
     <row r="1405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1405" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B1405" t="s">
         <v>3</v>
@@ -16934,7 +16937,7 @@
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1406" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B1406" t="s">
         <v>3</v>
@@ -16942,7 +16945,7 @@
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1407" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B1407" t="s">
         <v>3</v>
@@ -16950,31 +16953,31 @@
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1408" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B1408" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1409" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B1409" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1410" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B1410" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1411" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B1411" t="s">
         <v>6</v>
@@ -16982,15 +16985,15 @@
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1412" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B1412" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1413" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B1413" t="s">
         <v>3</v>
@@ -16998,7 +17001,7 @@
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1414" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B1414" t="s">
         <v>3</v>
@@ -17006,7 +17009,7 @@
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1415" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B1415" t="s">
         <v>3</v>
@@ -17014,7 +17017,7 @@
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1416" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B1416" t="s">
         <v>3</v>
@@ -17022,7 +17025,7 @@
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1417" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B1417" t="s">
         <v>3</v>
@@ -17030,7 +17033,7 @@
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1418" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B1418" t="s">
         <v>3</v>
@@ -17038,55 +17041,55 @@
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1419" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B1419" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1420" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B1420" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1421" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B1421" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1422" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B1422" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1423" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B1423" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1424" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B1424" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1425" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B1425" t="s">
         <v>3</v>
@@ -17094,15 +17097,15 @@
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1426" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B1426" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1427" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B1427" t="s">
         <v>6</v>
@@ -17110,7 +17113,7 @@
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1428" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B1428" t="s">
         <v>6</v>
@@ -17118,47 +17121,47 @@
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1429" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B1429" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1430" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B1430" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1431" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B1431" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1432" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B1432" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1433" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B1433" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1434" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B1434" t="s">
         <v>3</v>
@@ -17166,7 +17169,7 @@
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1435" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B1435" t="s">
         <v>3</v>
@@ -17174,15 +17177,15 @@
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1436" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B1436" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1437" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B1437" t="s">
         <v>6</v>
@@ -17190,7 +17193,7 @@
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1438" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B1438" t="s">
         <v>6</v>
@@ -17198,31 +17201,31 @@
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1439" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B1439" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1440" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B1440" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1441" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B1441" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1442" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B1442" t="s">
         <v>3</v>
@@ -17230,7 +17233,7 @@
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1443" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B1443" t="s">
         <v>3</v>
@@ -17238,23 +17241,23 @@
     </row>
     <row r="1444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1444" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B1444" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1445" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B1445" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1446" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B1446" t="s">
         <v>3</v>
@@ -17262,7 +17265,7 @@
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1447" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B1447" t="s">
         <v>3</v>
@@ -17270,7 +17273,7 @@
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1448" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B1448" t="s">
         <v>3</v>
@@ -17278,7 +17281,7 @@
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1449" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B1449" t="s">
         <v>3</v>
@@ -17286,15 +17289,15 @@
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1450" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B1450" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1451" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B1451" t="s">
         <v>6</v>
@@ -17302,15 +17305,15 @@
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1452" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B1452" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1453" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B1453" t="s">
         <v>3</v>
@@ -17318,15 +17321,15 @@
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1454" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B1454" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1455" t="s">
-        <v>1440</v>
+        <v>1030</v>
       </c>
       <c r="B1455" t="s">
         <v>6</v>
@@ -17334,31 +17337,31 @@
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1456" t="s">
-        <v>1030</v>
+        <v>1441</v>
       </c>
       <c r="B1456" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1457" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B1457" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1458" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B1458" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1459" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B1459" t="s">
         <v>3</v>
@@ -17366,7 +17369,7 @@
     </row>
     <row r="1460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1460" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B1460" t="s">
         <v>3</v>
@@ -17374,7 +17377,7 @@
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1461" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B1461" t="s">
         <v>3</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1462" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B1462" t="s">
         <v>3</v>
@@ -17390,15 +17393,15 @@
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1463" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B1463" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1464" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B1464" t="s">
         <v>6</v>
@@ -17406,31 +17409,31 @@
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1465" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B1465" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1466" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B1466" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1467" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B1467" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1468" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B1468" t="s">
         <v>3</v>
@@ -17438,7 +17441,7 @@
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1469" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B1469" t="s">
         <v>3</v>
@@ -17446,23 +17449,23 @@
     </row>
     <row r="1470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1470" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B1470" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1471" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B1471" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1472" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B1472" t="s">
         <v>3</v>
@@ -17470,23 +17473,23 @@
     </row>
     <row r="1473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1473" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B1473" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1474" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B1474" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1475" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B1475" t="s">
         <v>3</v>
@@ -17494,31 +17497,31 @@
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1476" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B1476" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1477" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B1477" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1478" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B1478" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1479" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B1479" t="s">
         <v>6</v>
@@ -17526,15 +17529,15 @@
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1480" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B1480" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1481" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B1481" t="s">
         <v>3</v>
@@ -17542,7 +17545,7 @@
     </row>
     <row r="1482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1482" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B1482" t="s">
         <v>3</v>
@@ -17550,7 +17553,7 @@
     </row>
     <row r="1483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1483" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B1483" t="s">
         <v>3</v>
@@ -17558,7 +17561,7 @@
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1484" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B1484" t="s">
         <v>3</v>
@@ -17566,7 +17569,7 @@
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1485" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B1485" t="s">
         <v>3</v>
@@ -17574,15 +17577,15 @@
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1486" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B1486" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1487" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B1487" t="s">
         <v>6</v>
@@ -17590,15 +17593,15 @@
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1488" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B1488" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1489" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B1489" t="s">
         <v>3</v>
@@ -17606,7 +17609,7 @@
     </row>
     <row r="1490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1490" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B1490" t="s">
         <v>3</v>
@@ -17614,7 +17617,7 @@
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1491" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B1491" t="s">
         <v>3</v>
@@ -17622,7 +17625,7 @@
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1492" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B1492" t="s">
         <v>3</v>
@@ -17630,39 +17633,39 @@
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1493" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B1493" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1494" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B1494" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1495" t="s">
-        <v>1479</v>
+        <v>525</v>
       </c>
       <c r="B1495" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1496" t="s">
-        <v>525</v>
+        <v>1480</v>
       </c>
       <c r="B1496" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1497" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B1497" t="s">
         <v>3</v>
@@ -17670,7 +17673,7 @@
     </row>
     <row r="1498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1498" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B1498" t="s">
         <v>3</v>
@@ -17678,7 +17681,7 @@
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1499" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B1499" t="s">
         <v>3</v>
@@ -17686,7 +17689,7 @@
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1500" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B1500" t="s">
         <v>3</v>
@@ -17694,23 +17697,23 @@
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1501" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B1501" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1502" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B1502" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1503" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B1503" t="s">
         <v>3</v>
@@ -17718,7 +17721,7 @@
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1504" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B1504" t="s">
         <v>3</v>
@@ -17726,7 +17729,7 @@
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1505" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B1505" t="s">
         <v>3</v>
@@ -17734,15 +17737,15 @@
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1506" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B1506" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1507" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B1507" t="s">
         <v>6</v>
@@ -17750,15 +17753,15 @@
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1508" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B1508" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1509" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B1509" t="s">
         <v>3</v>
@@ -17766,7 +17769,7 @@
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1510" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B1510" t="s">
         <v>3</v>
@@ -17774,39 +17777,39 @@
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1511" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B1511" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1512" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B1512" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1513" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B1513" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1514" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B1514" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1515" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B1515" t="s">
         <v>3</v>
@@ -17814,7 +17817,7 @@
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1516" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B1516" t="s">
         <v>3</v>
@@ -17822,7 +17825,7 @@
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1517" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B1517" t="s">
         <v>3</v>
@@ -17830,31 +17833,31 @@
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1518" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B1518" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1519" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B1519" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1520" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B1520" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1521" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B1521" t="s">
         <v>6</v>
@@ -17862,7 +17865,7 @@
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1522" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B1522" t="s">
         <v>6</v>
@@ -17870,7 +17873,7 @@
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1523" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B1523" t="s">
         <v>6</v>
@@ -17878,7 +17881,7 @@
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1524" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B1524" t="s">
         <v>6</v>
@@ -17886,15 +17889,15 @@
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1525" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B1525" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1526" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B1526" t="s">
         <v>3</v>
@@ -17902,7 +17905,7 @@
     </row>
     <row r="1527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1527" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B1527" t="s">
         <v>3</v>
@@ -17910,7 +17913,7 @@
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1528" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B1528" t="s">
         <v>3</v>
@@ -17918,7 +17921,7 @@
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1529" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B1529" t="s">
         <v>3</v>
@@ -17926,7 +17929,7 @@
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1530" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B1530" t="s">
         <v>3</v>
@@ -17934,31 +17937,31 @@
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1531" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B1531" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1532" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B1532" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1533" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B1533" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1534" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B1534" t="s">
         <v>6</v>
@@ -17966,7 +17969,7 @@
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1535" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B1535" t="s">
         <v>6</v>
@@ -17974,15 +17977,15 @@
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1536" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B1536" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1537" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B1537" t="s">
         <v>3</v>
@@ -17990,7 +17993,7 @@
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1538" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B1538" t="s">
         <v>3</v>
@@ -17998,7 +18001,7 @@
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1539" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B1539" t="s">
         <v>3</v>
@@ -18006,31 +18009,31 @@
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1540" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B1540" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1541" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B1541" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1542" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B1542" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1543" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B1543" t="s">
         <v>6</v>
@@ -18038,15 +18041,15 @@
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1544" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B1544" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1545" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B1545" t="s">
         <v>3</v>
@@ -18054,7 +18057,7 @@
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1546" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B1546" t="s">
         <v>3</v>
@@ -18062,23 +18065,23 @@
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1547" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B1547" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1548" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B1548" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1549" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B1549" t="s">
         <v>3</v>
@@ -18086,15 +18089,15 @@
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1550" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B1550" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1551" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B1551" t="s">
         <v>6</v>
@@ -18102,7 +18105,7 @@
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1552" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B1552" t="s">
         <v>6</v>
@@ -18110,15 +18113,15 @@
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1553" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B1553" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1554" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B1554" t="s">
         <v>3</v>
@@ -18126,7 +18129,7 @@
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1555" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B1555" t="s">
         <v>3</v>
@@ -18134,15 +18137,15 @@
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1556" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B1556" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1557" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B1557" t="s">
         <v>6</v>
@@ -18150,15 +18153,15 @@
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1558" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B1558" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1559" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B1559" t="s">
         <v>3</v>
@@ -18166,31 +18169,31 @@
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1560" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B1560" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1561" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B1561" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1562" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B1562" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1563" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B1563" t="s">
         <v>6</v>
@@ -18198,31 +18201,31 @@
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1564" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B1564" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1565" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B1565" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1566" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B1566" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1567" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B1567" t="s">
         <v>3</v>
@@ -18230,15 +18233,15 @@
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1568" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B1568" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1569" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B1569" t="s">
         <v>6</v>
@@ -18246,7 +18249,7 @@
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1570" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B1570" t="s">
         <v>6</v>
@@ -18254,15 +18257,15 @@
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1571" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B1571" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1572" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B1572" t="s">
         <v>3</v>
@@ -18270,23 +18273,23 @@
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1573" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B1573" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1574" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B1574" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1575" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B1575" t="s">
         <v>3</v>
@@ -18294,39 +18297,39 @@
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1576" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B1576" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1577" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B1577" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1578" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B1578" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1579" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B1579" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1580" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B1580" t="s">
         <v>3</v>
@@ -18334,31 +18337,31 @@
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1581" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B1581" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1582" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B1582" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1583" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B1583" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1584" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B1584" t="s">
         <v>6</v>
@@ -18366,15 +18369,15 @@
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1585" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B1585" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1586" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B1586" t="s">
         <v>3</v>
@@ -18382,7 +18385,7 @@
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1587" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B1587" t="s">
         <v>3</v>
@@ -18390,7 +18393,7 @@
     </row>
     <row r="1588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1588" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B1588" t="s">
         <v>3</v>
@@ -18398,7 +18401,7 @@
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1589" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B1589" t="s">
         <v>3</v>
@@ -18406,7 +18409,7 @@
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1590" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B1590" t="s">
         <v>3</v>
@@ -18414,23 +18417,23 @@
     </row>
     <row r="1591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1591" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B1591" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1592" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B1592" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1593" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B1593" t="s">
         <v>3</v>
@@ -18438,7 +18441,7 @@
     </row>
     <row r="1594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1594" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B1594" t="s">
         <v>3</v>
@@ -18446,7 +18449,7 @@
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1595" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B1595" t="s">
         <v>3</v>
@@ -18454,15 +18457,15 @@
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1596" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B1596" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1597" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B1597" t="s">
         <v>6</v>
@@ -18470,15 +18473,15 @@
     </row>
     <row r="1598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1598" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B1598" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1599" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B1599" t="s">
         <v>3</v>
@@ -18486,7 +18489,7 @@
     </row>
     <row r="1600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1600" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B1600" t="s">
         <v>3</v>
@@ -18494,7 +18497,7 @@
     </row>
     <row r="1601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1601" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B1601" t="s">
         <v>3</v>
@@ -18502,7 +18505,7 @@
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1602" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B1602" t="s">
         <v>3</v>
@@ -18510,7 +18513,7 @@
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1603" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B1603" t="s">
         <v>3</v>
@@ -18518,7 +18521,7 @@
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1604" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B1604" t="s">
         <v>3</v>
@@ -18526,23 +18529,23 @@
     </row>
     <row r="1605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1605" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B1605" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1606" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B1606" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1607" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B1607" t="s">
         <v>3</v>
@@ -18550,7 +18553,7 @@
     </row>
     <row r="1608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1608" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B1608" t="s">
         <v>3</v>
@@ -18558,15 +18561,15 @@
     </row>
     <row r="1609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1609" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B1609" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1610" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1610" t="s">
         <v>6</v>
@@ -18574,7 +18577,7 @@
     </row>
     <row r="1611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1611" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1611" t="s">
         <v>6</v>
@@ -18582,15 +18585,15 @@
     </row>
     <row r="1612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1612" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B1612" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1613" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B1613" t="s">
         <v>3</v>
@@ -18598,7 +18601,7 @@
     </row>
     <row r="1614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1614" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B1614" t="s">
         <v>3</v>
@@ -18606,7 +18609,7 @@
     </row>
     <row r="1615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1615" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B1615" t="s">
         <v>3</v>
@@ -18614,7 +18617,7 @@
     </row>
     <row r="1616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1616" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1616" t="s">
         <v>3</v>
@@ -18622,7 +18625,7 @@
     </row>
     <row r="1617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1617" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B1617" t="s">
         <v>3</v>
@@ -18630,7 +18633,7 @@
     </row>
     <row r="1618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1618" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1618" t="s">
         <v>3</v>
@@ -18638,23 +18641,23 @@
     </row>
     <row r="1619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1619" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B1619" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1620" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B1620" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1621" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1621" t="s">
         <v>3</v>
@@ -18662,7 +18665,7 @@
     </row>
     <row r="1622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1622" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B1622" t="s">
         <v>3</v>
@@ -18670,7 +18673,7 @@
     </row>
     <row r="1623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1623" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1623" t="s">
         <v>3</v>
@@ -18678,7 +18681,7 @@
     </row>
     <row r="1624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1624" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1624" t="s">
         <v>3</v>
@@ -18686,15 +18689,15 @@
     </row>
     <row r="1625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1625" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1625" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1626" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1626" t="s">
         <v>6</v>
@@ -18702,7 +18705,7 @@
     </row>
     <row r="1627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1627" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1627" t="s">
         <v>6</v>
@@ -18710,7 +18713,7 @@
     </row>
     <row r="1628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1628" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1628" t="s">
         <v>6</v>
@@ -18718,31 +18721,31 @@
     </row>
     <row r="1629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1629" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1629" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1630" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1630" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1631" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1631" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1632" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1632" t="s">
         <v>3</v>
@@ -18750,7 +18753,7 @@
     </row>
     <row r="1633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1633" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1633" t="s">
         <v>3</v>
@@ -18758,7 +18761,7 @@
     </row>
     <row r="1634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1634" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1634" t="s">
         <v>3</v>
@@ -18766,7 +18769,7 @@
     </row>
     <row r="1635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1635" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B1635" t="s">
         <v>3</v>
@@ -18774,7 +18777,7 @@
     </row>
     <row r="1636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1636" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B1636" t="s">
         <v>3</v>
@@ -18782,7 +18785,7 @@
     </row>
     <row r="1637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1637" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1637" t="s">
         <v>3</v>
@@ -18790,7 +18793,7 @@
     </row>
     <row r="1638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1638" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B1638" t="s">
         <v>3</v>
@@ -18798,15 +18801,15 @@
     </row>
     <row r="1639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1639" t="s">
-        <v>1622</v>
+        <v>926</v>
       </c>
       <c r="B1639" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1640" t="s">
-        <v>926</v>
+        <v>1623</v>
       </c>
       <c r="B1640" t="s">
         <v>6</v>
@@ -18814,23 +18817,23 @@
     </row>
     <row r="1641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1641" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B1641" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1642" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B1642" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1643" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1643" t="s">
         <v>6</v>
@@ -18838,15 +18841,15 @@
     </row>
     <row r="1644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1644" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B1644" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1645" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1645" t="s">
         <v>3</v>
@@ -18854,15 +18857,15 @@
     </row>
     <row r="1646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1646" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1646" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1647" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1647" t="s">
         <v>6</v>
@@ -18870,7 +18873,7 @@
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1648" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1648" t="s">
         <v>6</v>
@@ -18878,15 +18881,15 @@
     </row>
     <row r="1649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1649" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1649" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1650" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1650" t="s">
         <v>3</v>
@@ -18894,7 +18897,7 @@
     </row>
     <row r="1651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1651" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1651" t="s">
         <v>3</v>
@@ -18902,7 +18905,7 @@
     </row>
     <row r="1652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1652" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1652" t="s">
         <v>3</v>
@@ -18910,15 +18913,15 @@
     </row>
     <row r="1653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1653" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1653" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1654" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1654" t="s">
         <v>6</v>
@@ -18926,7 +18929,7 @@
     </row>
     <row r="1655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1655" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1655" t="s">
         <v>6</v>
@@ -18934,7 +18937,7 @@
     </row>
     <row r="1656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1656" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B1656" t="s">
         <v>6</v>
@@ -18942,15 +18945,15 @@
     </row>
     <row r="1657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1657" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1657" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1658" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B1658" t="s">
         <v>3</v>
@@ -18958,7 +18961,7 @@
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1659" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B1659" t="s">
         <v>3</v>
@@ -18966,7 +18969,7 @@
     </row>
     <row r="1660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1660" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B1660" t="s">
         <v>3</v>
@@ -18974,15 +18977,15 @@
     </row>
     <row r="1661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1661" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B1661" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1662" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1662" t="s">
         <v>6</v>
@@ -18990,15 +18993,15 @@
     </row>
     <row r="1663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1663" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1663" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1664" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1664" t="s">
         <v>3</v>
@@ -19006,7 +19009,7 @@
     </row>
     <row r="1665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1665" t="s">
-        <v>1647</v>
+        <v>335</v>
       </c>
       <c r="B1665" t="s">
         <v>3</v>
@@ -19014,7 +19017,7 @@
     </row>
     <row r="1666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1666" t="s">
-        <v>335</v>
+        <v>1648</v>
       </c>
       <c r="B1666" t="s">
         <v>3</v>
@@ -19022,7 +19025,7 @@
     </row>
     <row r="1667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1667" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1667" t="s">
         <v>3</v>
@@ -19030,7 +19033,7 @@
     </row>
     <row r="1668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1668" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1668" t="s">
         <v>3</v>
@@ -19038,7 +19041,7 @@
     </row>
     <row r="1669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1669" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1669" t="s">
         <v>3</v>
@@ -19046,23 +19049,23 @@
     </row>
     <row r="1670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1670" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1670" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1671" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1671" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1672" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1672" t="s">
         <v>3</v>
@@ -19070,7 +19073,7 @@
     </row>
     <row r="1673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1673" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1673" t="s">
         <v>3</v>
@@ -19078,7 +19081,7 @@
     </row>
     <row r="1674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1674" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1674" t="s">
         <v>3</v>
@@ -19086,31 +19089,31 @@
     </row>
     <row r="1675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1675" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1675" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1676" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B1676" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1677" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1677" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1678" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B1678" t="s">
         <v>6</v>
@@ -19118,15 +19121,15 @@
     </row>
     <row r="1679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1679" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B1679" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1680" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B1680" t="s">
         <v>3</v>
@@ -19134,7 +19137,7 @@
     </row>
     <row r="1681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1681" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B1681" t="s">
         <v>3</v>
@@ -19142,7 +19145,7 @@
     </row>
     <row r="1682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1682" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B1682" t="s">
         <v>3</v>
@@ -19150,7 +19153,7 @@
     </row>
     <row r="1683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1683" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B1683" t="s">
         <v>3</v>
@@ -19158,23 +19161,23 @@
     </row>
     <row r="1684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1684" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B1684" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1685" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B1685" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1686" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B1686" t="s">
         <v>3</v>
@@ -19182,15 +19185,15 @@
     </row>
     <row r="1687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1687" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B1687" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1688" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B1688" t="s">
         <v>6</v>
@@ -19198,15 +19201,15 @@
     </row>
     <row r="1689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1689" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B1689" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1690" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B1690" t="s">
         <v>3</v>
@@ -19214,7 +19217,7 @@
     </row>
     <row r="1691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1691" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1691" t="s">
         <v>3</v>
@@ -19222,7 +19225,7 @@
     </row>
     <row r="1692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1692" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B1692" t="s">
         <v>3</v>
@@ -19230,23 +19233,23 @@
     </row>
     <row r="1693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1693" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B1693" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1694" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B1694" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1695" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B1695" t="s">
         <v>3</v>
@@ -19254,15 +19257,15 @@
     </row>
     <row r="1696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1696" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B1696" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1697" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1697" t="s">
         <v>6</v>
@@ -19270,7 +19273,7 @@
     </row>
     <row r="1698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1698" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B1698" t="s">
         <v>6</v>
@@ -19278,15 +19281,15 @@
     </row>
     <row r="1699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1699" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B1699" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1700" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B1700" t="s">
         <v>3</v>
@@ -19294,7 +19297,7 @@
     </row>
     <row r="1701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1701" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1701" t="s">
         <v>3</v>
@@ -19302,31 +19305,31 @@
     </row>
     <row r="1702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1702" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1702" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1703" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B1703" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1704" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B1704" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1705" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B1705" t="s">
         <v>6</v>
@@ -19334,15 +19337,15 @@
     </row>
     <row r="1706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1706" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B1706" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1707" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B1707" t="s">
         <v>3</v>
@@ -19350,7 +19353,7 @@
     </row>
     <row r="1708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1708" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B1708" t="s">
         <v>3</v>
@@ -19358,7 +19361,7 @@
     </row>
     <row r="1709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1709" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1709" t="s">
         <v>3</v>
@@ -19366,7 +19369,7 @@
     </row>
     <row r="1710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1710" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B1710" t="s">
         <v>3</v>
@@ -19374,7 +19377,7 @@
     </row>
     <row r="1711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1711" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1711" t="s">
         <v>3</v>
@@ -19382,7 +19385,7 @@
     </row>
     <row r="1712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1712" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1712" t="s">
         <v>3</v>
@@ -19390,7 +19393,7 @@
     </row>
     <row r="1713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1713" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1713" t="s">
         <v>3</v>
@@ -19398,15 +19401,15 @@
     </row>
     <row r="1714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1714" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1714" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1715" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1715" t="s">
         <v>6</v>
@@ -19414,7 +19417,7 @@
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1716" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1716" t="s">
         <v>6</v>
@@ -19422,15 +19425,15 @@
     </row>
     <row r="1717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1717" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1717" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1718" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1718" t="s">
         <v>3</v>
@@ -19438,7 +19441,7 @@
     </row>
     <row r="1719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1719" t="s">
-        <v>1700</v>
+        <v>335</v>
       </c>
       <c r="B1719" t="s">
         <v>3</v>
@@ -19446,7 +19449,7 @@
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1720" t="s">
-        <v>335</v>
+        <v>1701</v>
       </c>
       <c r="B1720" t="s">
         <v>3</v>
@@ -19454,23 +19457,23 @@
     </row>
     <row r="1721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1721" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1721" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1722" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1722" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1723" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1723" t="s">
         <v>3</v>
@@ -19478,7 +19481,7 @@
     </row>
     <row r="1724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1724" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1724" t="s">
         <v>3</v>
@@ -19486,7 +19489,7 @@
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1725" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1725" t="s">
         <v>3</v>
@@ -19494,7 +19497,7 @@
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1726" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1726" t="s">
         <v>3</v>
@@ -19502,23 +19505,23 @@
     </row>
     <row r="1727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1727" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1727" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1728" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1728" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1729" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1729" t="s">
         <v>3</v>
@@ -19526,15 +19529,15 @@
     </row>
     <row r="1730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1730" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1730" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1731" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1731" t="s">
         <v>6</v>
@@ -19542,15 +19545,15 @@
     </row>
     <row r="1732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1732" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1732" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1733" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1733" t="s">
         <v>3</v>
@@ -19558,7 +19561,7 @@
     </row>
     <row r="1734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1734" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1734" t="s">
         <v>3</v>
@@ -19566,15 +19569,15 @@
     </row>
     <row r="1735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1735" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1735" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1736" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1736" t="s">
         <v>6</v>
@@ -19582,7 +19585,7 @@
     </row>
     <row r="1737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1737" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1737" t="s">
         <v>6</v>
@@ -19590,7 +19593,7 @@
     </row>
     <row r="1738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1738" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1738" t="s">
         <v>6</v>
@@ -19598,7 +19601,7 @@
     </row>
     <row r="1739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1739" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1739" t="s">
         <v>6</v>
@@ -19606,15 +19609,15 @@
     </row>
     <row r="1740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1740" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1740" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1741" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1741" t="s">
         <v>3</v>
@@ -19622,7 +19625,7 @@
     </row>
     <row r="1742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1742" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="B1742" t="s">
         <v>3</v>
@@ -19630,7 +19633,7 @@
     </row>
     <row r="1743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1743" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1743" t="s">
         <v>3</v>
@@ -19638,7 +19641,7 @@
     </row>
     <row r="1744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1744" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1744" t="s">
         <v>3</v>
@@ -19646,55 +19649,55 @@
     </row>
     <row r="1745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1745" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1745" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1746" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1746" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1747" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1747" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1748" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1748" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1749" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1749" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1750" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1750" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1751" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1751" t="s">
         <v>3</v>
@@ -19702,7 +19705,7 @@
     </row>
     <row r="1752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1752" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1752" t="s">
         <v>3</v>
@@ -19710,7 +19713,7 @@
     </row>
     <row r="1753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1753" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1753" t="s">
         <v>3</v>
@@ -19718,7 +19721,7 @@
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1754" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1754" t="s">
         <v>3</v>
@@ -19726,23 +19729,23 @@
     </row>
     <row r="1755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1755" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1755" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1756" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
       <c r="B1756" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1757" t="s">
-        <v>1729</v>
+        <v>1737</v>
       </c>
       <c r="B1757" t="s">
         <v>3</v>
@@ -19750,15 +19753,15 @@
     </row>
     <row r="1758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1758" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1758" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1759" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1759" t="s">
         <v>6</v>
@@ -19766,15 +19769,15 @@
     </row>
     <row r="1760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1760" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1760" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1761" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1761" t="s">
         <v>3</v>
@@ -19782,7 +19785,7 @@
     </row>
     <row r="1762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1762" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1762" t="s">
         <v>3</v>
@@ -19790,7 +19793,7 @@
     </row>
     <row r="1763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1763" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1763" t="s">
         <v>3</v>
@@ -19798,7 +19801,7 @@
     </row>
     <row r="1764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1764" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1764" t="s">
         <v>3</v>
@@ -19806,7 +19809,7 @@
     </row>
     <row r="1765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1765" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1765" t="s">
         <v>3</v>
@@ -19814,7 +19817,7 @@
     </row>
     <row r="1766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1766" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1766" t="s">
         <v>3</v>
@@ -19822,23 +19825,23 @@
     </row>
     <row r="1767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1767" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1767" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1768" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="B1768" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1769" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B1769" t="s">
         <v>3</v>
@@ -19846,7 +19849,7 @@
     </row>
     <row r="1770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1770" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B1770" t="s">
         <v>3</v>
@@ -19854,15 +19857,15 @@
     </row>
     <row r="1771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1771" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1771" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1772" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B1772" t="s">
         <v>6</v>
@@ -19870,23 +19873,23 @@
     </row>
     <row r="1773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1773" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B1773" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1774" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1774" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1775" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1775" t="s">
         <v>6</v>
@@ -19894,31 +19897,31 @@
     </row>
     <row r="1776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1776" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="B1776" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1777" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="B1777" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1778" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1778" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1779" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1779" t="s">
         <v>3</v>
@@ -19926,7 +19929,7 @@
     </row>
     <row r="1780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1780" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1780" t="s">
         <v>3</v>
@@ -19934,7 +19937,7 @@
     </row>
     <row r="1781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1781" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1781" t="s">
         <v>3</v>
@@ -19942,17 +19945,9 @@
     </row>
     <row r="1782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1782" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1782" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1783" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B1783" t="s">
         <v>3</v>
       </c>
     </row>

--- a/clean_data.xlsx
+++ b/clean_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahran\Documents\Punya Zahran\Zahran Unpad\Skripsi New\Code\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680D6CD7-8B26-451F-8C09-76D05E1925FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3461288-887F-4331-BAF3-D9FB1B633AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3563" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3560" uniqueCount="1741">
   <si>
     <t>Tweet</t>
   </si>
@@ -5605,16 +5605,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1783"/>
+  <dimension ref="A1:B1780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="A317" sqref="A317"/>
+    <sheetView tabSelected="1" topLeftCell="A1757" workbookViewId="0">
+      <selection activeCell="C751" sqref="C751"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="139.109375" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" customWidth="1"/>
+    <col min="1" max="1" width="137.44140625" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -8158,7 +8158,7 @@
         <v>319</v>
       </c>
       <c r="B318" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -8206,7 +8206,7 @@
         <v>325</v>
       </c>
       <c r="B324" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -8214,7 +8214,7 @@
         <v>326</v>
       </c>
       <c r="B325" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -8238,7 +8238,7 @@
         <v>329</v>
       </c>
       <c r="B328" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -8254,7 +8254,7 @@
         <v>331</v>
       </c>
       <c r="B330" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -8262,7 +8262,7 @@
         <v>332</v>
       </c>
       <c r="B331" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -8270,7 +8270,7 @@
         <v>333</v>
       </c>
       <c r="B332" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -8278,7 +8278,7 @@
         <v>334</v>
       </c>
       <c r="B333" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -8286,7 +8286,7 @@
         <v>335</v>
       </c>
       <c r="B334" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -8302,7 +8302,7 @@
         <v>337</v>
       </c>
       <c r="B336" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -8310,7 +8310,7 @@
         <v>338</v>
       </c>
       <c r="B337" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -8318,7 +8318,7 @@
         <v>339</v>
       </c>
       <c r="B338" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -8326,7 +8326,7 @@
         <v>340</v>
       </c>
       <c r="B339" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -8334,7 +8334,7 @@
         <v>341</v>
       </c>
       <c r="B340" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -8342,7 +8342,7 @@
         <v>342</v>
       </c>
       <c r="B341" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -8350,7 +8350,7 @@
         <v>41</v>
       </c>
       <c r="B342" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -8358,7 +8358,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -8542,7 +8542,7 @@
         <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -8566,7 +8566,7 @@
         <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -8574,7 +8574,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -8582,7 +8582,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -8590,7 +8590,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -8606,7 +8606,7 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -8670,7 +8670,7 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -8694,7 +8694,7 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -8718,7 +8718,7 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -8734,7 +8734,7 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -8742,7 +8742,7 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -8758,7 +8758,7 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -8766,7 +8766,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -8782,7 +8782,7 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -8814,7 +8814,7 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -8822,7 +8822,7 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -8838,7 +8838,7 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -8846,7 +8846,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -8902,7 +8902,7 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -8942,7 +8942,7 @@
         <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -8958,7 +8958,7 @@
         <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -8966,7 +8966,7 @@
         <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -8982,7 +8982,7 @@
         <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -8990,7 +8990,7 @@
         <v>422</v>
       </c>
       <c r="B422" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -8998,7 +8998,7 @@
         <v>423</v>
       </c>
       <c r="B423" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -9006,7 +9006,7 @@
         <v>424</v>
       </c>
       <c r="B424" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -9022,7 +9022,7 @@
         <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -9030,7 +9030,7 @@
         <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -9070,7 +9070,7 @@
         <v>226</v>
       </c>
       <c r="B432" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -9118,7 +9118,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -9126,7 +9126,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -9142,7 +9142,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -9158,7 +9158,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -9206,7 +9206,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -9238,7 +9238,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
@@ -9270,7 +9270,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -9294,7 +9294,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -9310,7 +9310,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -9366,7 +9366,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -9398,7 +9398,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -9406,7 +9406,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -9422,7 +9422,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -9430,7 +9430,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -9438,7 +9438,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -9446,7 +9446,7 @@
         <v>477</v>
       </c>
       <c r="B479" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -9454,7 +9454,7 @@
         <v>478</v>
       </c>
       <c r="B480" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -9518,7 +9518,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
@@ -9534,7 +9534,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
@@ -9542,7 +9542,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
@@ -9550,7 +9550,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
@@ -9558,7 +9558,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
@@ -9574,7 +9574,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
@@ -9590,7 +9590,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -9614,7 +9614,7 @@
         <v>497</v>
       </c>
       <c r="B500" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -9638,7 +9638,7 @@
         <v>500</v>
       </c>
       <c r="B503" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
@@ -9662,7 +9662,7 @@
         <v>106</v>
       </c>
       <c r="B506" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -9670,7 +9670,7 @@
         <v>503</v>
       </c>
       <c r="B507" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -9678,7 +9678,7 @@
         <v>504</v>
       </c>
       <c r="B508" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -9686,7 +9686,7 @@
         <v>505</v>
       </c>
       <c r="B509" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
@@ -9702,7 +9702,7 @@
         <v>507</v>
       </c>
       <c r="B511" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
@@ -9718,7 +9718,7 @@
         <v>509</v>
       </c>
       <c r="B513" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
@@ -9750,7 +9750,7 @@
         <v>513</v>
       </c>
       <c r="B517" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -9758,7 +9758,7 @@
         <v>514</v>
       </c>
       <c r="B518" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -9766,7 +9766,7 @@
         <v>515</v>
       </c>
       <c r="B519" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -9774,7 +9774,7 @@
         <v>516</v>
       </c>
       <c r="B520" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -9782,7 +9782,7 @@
         <v>517</v>
       </c>
       <c r="B521" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -9790,7 +9790,7 @@
         <v>518</v>
       </c>
       <c r="B522" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -9798,7 +9798,7 @@
         <v>519</v>
       </c>
       <c r="B523" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
@@ -9806,7 +9806,7 @@
         <v>520</v>
       </c>
       <c r="B524" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
@@ -9846,7 +9846,7 @@
         <v>525</v>
       </c>
       <c r="B529" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -9854,7 +9854,7 @@
         <v>526</v>
       </c>
       <c r="B530" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
@@ -9862,7 +9862,7 @@
         <v>527</v>
       </c>
       <c r="B531" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -9870,7 +9870,7 @@
         <v>528</v>
       </c>
       <c r="B532" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
@@ -9878,7 +9878,7 @@
         <v>529</v>
       </c>
       <c r="B533" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
@@ -9958,7 +9958,7 @@
         <v>539</v>
       </c>
       <c r="B543" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -9966,7 +9966,7 @@
         <v>540</v>
       </c>
       <c r="B544" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
@@ -9974,7 +9974,7 @@
         <v>541</v>
       </c>
       <c r="B545" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
@@ -9982,7 +9982,7 @@
         <v>542</v>
       </c>
       <c r="B546" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
@@ -9990,7 +9990,7 @@
         <v>543</v>
       </c>
       <c r="B547" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.3">
@@ -10022,7 +10022,7 @@
         <v>547</v>
       </c>
       <c r="B551" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.3">
@@ -10038,7 +10038,7 @@
         <v>549</v>
       </c>
       <c r="B553" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.3">
@@ -10070,7 +10070,7 @@
         <v>553</v>
       </c>
       <c r="B557" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.3">
@@ -10086,7 +10086,7 @@
         <v>555</v>
       </c>
       <c r="B559" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
@@ -10094,7 +10094,7 @@
         <v>556</v>
       </c>
       <c r="B560" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
@@ -10102,7 +10102,7 @@
         <v>557</v>
       </c>
       <c r="B561" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.3">
@@ -10118,7 +10118,7 @@
         <v>559</v>
       </c>
       <c r="B563" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
@@ -10126,7 +10126,7 @@
         <v>560</v>
       </c>
       <c r="B564" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.3">
@@ -10158,7 +10158,7 @@
         <v>564</v>
       </c>
       <c r="B568" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.3">
@@ -10174,7 +10174,7 @@
         <v>566</v>
       </c>
       <c r="B570" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
@@ -10182,7 +10182,7 @@
         <v>567</v>
       </c>
       <c r="B571" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.3">
@@ -10206,7 +10206,7 @@
         <v>570</v>
       </c>
       <c r="B574" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
@@ -10214,7 +10214,7 @@
         <v>571</v>
       </c>
       <c r="B575" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.3">
@@ -10246,7 +10246,7 @@
         <v>575</v>
       </c>
       <c r="B579" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
@@ -10262,7 +10262,7 @@
         <v>577</v>
       </c>
       <c r="B581" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
@@ -10278,7 +10278,7 @@
         <v>579</v>
       </c>
       <c r="B583" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
@@ -10286,7 +10286,7 @@
         <v>450</v>
       </c>
       <c r="B584" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
@@ -10294,7 +10294,7 @@
         <v>580</v>
       </c>
       <c r="B585" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
@@ -10310,7 +10310,7 @@
         <v>582</v>
       </c>
       <c r="B587" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
@@ -10326,7 +10326,7 @@
         <v>584</v>
       </c>
       <c r="B589" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
@@ -10342,7 +10342,7 @@
         <v>586</v>
       </c>
       <c r="B591" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
@@ -10382,7 +10382,7 @@
         <v>591</v>
       </c>
       <c r="B596" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
@@ -10390,7 +10390,7 @@
         <v>592</v>
       </c>
       <c r="B597" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
@@ -10398,7 +10398,7 @@
         <v>593</v>
       </c>
       <c r="B598" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
@@ -10406,7 +10406,7 @@
         <v>594</v>
       </c>
       <c r="B599" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
@@ -10430,7 +10430,7 @@
         <v>597</v>
       </c>
       <c r="B602" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
@@ -10470,7 +10470,7 @@
         <v>602</v>
       </c>
       <c r="B607" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
@@ -10494,7 +10494,7 @@
         <v>605</v>
       </c>
       <c r="B610" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
@@ -10502,7 +10502,7 @@
         <v>606</v>
       </c>
       <c r="B611" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
@@ -10526,7 +10526,7 @@
         <v>609</v>
       </c>
       <c r="B614" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
@@ -10542,7 +10542,7 @@
         <v>611</v>
       </c>
       <c r="B616" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
@@ -10582,7 +10582,7 @@
         <v>616</v>
       </c>
       <c r="B621" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
@@ -10606,7 +10606,7 @@
         <v>619</v>
       </c>
       <c r="B624" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.3">
@@ -10622,7 +10622,7 @@
         <v>621</v>
       </c>
       <c r="B626" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
@@ -10630,7 +10630,7 @@
         <v>622</v>
       </c>
       <c r="B627" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.3">
@@ -10662,7 +10662,7 @@
         <v>626</v>
       </c>
       <c r="B631" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
@@ -10670,7 +10670,7 @@
         <v>627</v>
       </c>
       <c r="B632" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.3">
@@ -10686,7 +10686,7 @@
         <v>629</v>
       </c>
       <c r="B634" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
@@ -10694,7 +10694,7 @@
         <v>630</v>
       </c>
       <c r="B635" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
@@ -10742,7 +10742,7 @@
         <v>635</v>
       </c>
       <c r="B641" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.3">
@@ -10758,7 +10758,7 @@
         <v>637</v>
       </c>
       <c r="B643" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
@@ -10766,7 +10766,7 @@
         <v>638</v>
       </c>
       <c r="B644" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.3">
@@ -10782,7 +10782,7 @@
         <v>640</v>
       </c>
       <c r="B646" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
@@ -10790,7 +10790,7 @@
         <v>641</v>
       </c>
       <c r="B647" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.3">
@@ -10806,7 +10806,7 @@
         <v>643</v>
       </c>
       <c r="B649" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
@@ -10814,7 +10814,7 @@
         <v>644</v>
       </c>
       <c r="B650" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
@@ -10822,7 +10822,7 @@
         <v>645</v>
       </c>
       <c r="B651" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.3">
@@ -10870,7 +10870,7 @@
         <v>651</v>
       </c>
       <c r="B657" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
@@ -10878,7 +10878,7 @@
         <v>652</v>
       </c>
       <c r="B658" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.3">
@@ -10902,7 +10902,7 @@
         <v>655</v>
       </c>
       <c r="B661" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
@@ -10910,7 +10910,7 @@
         <v>656</v>
       </c>
       <c r="B662" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.3">
@@ -10950,7 +10950,7 @@
         <v>661</v>
       </c>
       <c r="B667" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.3">
@@ -10966,7 +10966,7 @@
         <v>663</v>
       </c>
       <c r="B669" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.3">
@@ -10998,7 +10998,7 @@
         <v>667</v>
       </c>
       <c r="B673" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
@@ -11006,7 +11006,7 @@
         <v>668</v>
       </c>
       <c r="B674" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.3">
@@ -11070,7 +11070,7 @@
         <v>676</v>
       </c>
       <c r="B682" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
@@ -11078,7 +11078,7 @@
         <v>677</v>
       </c>
       <c r="B683" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.3">
@@ -11158,7 +11158,7 @@
         <v>687</v>
       </c>
       <c r="B693" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
@@ -11166,7 +11166,7 @@
         <v>688</v>
       </c>
       <c r="B694" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.3">
@@ -11182,7 +11182,7 @@
         <v>690</v>
       </c>
       <c r="B696" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.3">
@@ -11230,7 +11230,7 @@
         <v>696</v>
       </c>
       <c r="B702" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.3">
@@ -11246,7 +11246,7 @@
         <v>698</v>
       </c>
       <c r="B704" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
@@ -11254,7 +11254,7 @@
         <v>699</v>
       </c>
       <c r="B705" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.3">
@@ -11270,7 +11270,7 @@
         <v>701</v>
       </c>
       <c r="B707" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
@@ -11278,7 +11278,7 @@
         <v>386</v>
       </c>
       <c r="B708" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
@@ -11286,7 +11286,7 @@
         <v>702</v>
       </c>
       <c r="B709" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.3">
@@ -11302,7 +11302,7 @@
         <v>704</v>
       </c>
       <c r="B711" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.3">
@@ -11374,7 +11374,7 @@
         <v>713</v>
       </c>
       <c r="B720" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
@@ -11382,7 +11382,7 @@
         <v>714</v>
       </c>
       <c r="B721" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.3">
@@ -11398,7 +11398,7 @@
         <v>716</v>
       </c>
       <c r="B723" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
@@ -11406,7 +11406,7 @@
         <v>717</v>
       </c>
       <c r="B724" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
@@ -11414,7 +11414,7 @@
         <v>718</v>
       </c>
       <c r="B725" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
@@ -11422,7 +11422,7 @@
         <v>719</v>
       </c>
       <c r="B726" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.3">
@@ -11486,7 +11486,7 @@
         <v>727</v>
       </c>
       <c r="B734" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
@@ -11494,7 +11494,7 @@
         <v>728</v>
       </c>
       <c r="B735" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
@@ -11502,7 +11502,7 @@
         <v>729</v>
       </c>
       <c r="B736" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
@@ -11510,7 +11510,7 @@
         <v>730</v>
       </c>
       <c r="B737" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
@@ -11518,7 +11518,7 @@
         <v>731</v>
       </c>
       <c r="B738" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
@@ -11526,7 +11526,7 @@
         <v>732</v>
       </c>
       <c r="B739" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.3">
@@ -11550,7 +11550,7 @@
         <v>735</v>
       </c>
       <c r="B742" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.3">
@@ -11566,7 +11566,7 @@
         <v>737</v>
       </c>
       <c r="B744" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.3">
@@ -11686,7 +11686,7 @@
         <v>751</v>
       </c>
       <c r="B759" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.3">
@@ -11702,7 +11702,7 @@
         <v>753</v>
       </c>
       <c r="B761" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.3">
@@ -11718,7 +11718,7 @@
         <v>755</v>
       </c>
       <c r="B763" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
@@ -11750,7 +11750,7 @@
         <v>759</v>
       </c>
       <c r="B767" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
@@ -11758,7 +11758,7 @@
         <v>760</v>
       </c>
       <c r="B768" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
@@ -11814,7 +11814,7 @@
         <v>767</v>
       </c>
       <c r="B775" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
@@ -11822,7 +11822,7 @@
         <v>768</v>
       </c>
       <c r="B776" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
@@ -11838,7 +11838,7 @@
         <v>770</v>
       </c>
       <c r="B778" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
@@ -11846,7 +11846,7 @@
         <v>771</v>
       </c>
       <c r="B779" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
@@ -11862,7 +11862,7 @@
         <v>773</v>
       </c>
       <c r="B781" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.3">
@@ -11878,7 +11878,7 @@
         <v>775</v>
       </c>
       <c r="B783" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.3">
@@ -11886,7 +11886,7 @@
         <v>776</v>
       </c>
       <c r="B784" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
@@ -11894,7 +11894,7 @@
         <v>777</v>
       </c>
       <c r="B785" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.3">
@@ -11902,7 +11902,7 @@
         <v>778</v>
       </c>
       <c r="B786" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.3">
@@ -11918,7 +11918,7 @@
         <v>780</v>
       </c>
       <c r="B788" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.3">
@@ -11926,7 +11926,7 @@
         <v>781</v>
       </c>
       <c r="B789" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
@@ -11934,7 +11934,7 @@
         <v>782</v>
       </c>
       <c r="B790" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.3">
@@ -11942,7 +11942,7 @@
         <v>783</v>
       </c>
       <c r="B791" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.3">
@@ -11958,7 +11958,7 @@
         <v>785</v>
       </c>
       <c r="B793" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
@@ -11982,7 +11982,7 @@
         <v>788</v>
       </c>
       <c r="B796" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
@@ -11990,7 +11990,7 @@
         <v>789</v>
       </c>
       <c r="B797" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.3">
@@ -11998,7 +11998,7 @@
         <v>790</v>
       </c>
       <c r="B798" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.3">
@@ -12014,7 +12014,7 @@
         <v>792</v>
       </c>
       <c r="B800" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
@@ -12030,7 +12030,7 @@
         <v>794</v>
       </c>
       <c r="B802" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
@@ -12038,7 +12038,7 @@
         <v>795</v>
       </c>
       <c r="B803" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
@@ -12054,7 +12054,7 @@
         <v>797</v>
       </c>
       <c r="B805" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.3">
@@ -12086,7 +12086,7 @@
         <v>801</v>
       </c>
       <c r="B809" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.3">
@@ -12094,7 +12094,7 @@
         <v>802</v>
       </c>
       <c r="B810" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
@@ -12102,7 +12102,7 @@
         <v>803</v>
       </c>
       <c r="B811" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.3">
@@ -12110,7 +12110,7 @@
         <v>804</v>
       </c>
       <c r="B812" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
@@ -12118,7 +12118,7 @@
         <v>805</v>
       </c>
       <c r="B813" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.3">
@@ -12126,7 +12126,7 @@
         <v>806</v>
       </c>
       <c r="B814" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
@@ -12134,7 +12134,7 @@
         <v>807</v>
       </c>
       <c r="B815" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
@@ -12150,7 +12150,7 @@
         <v>809</v>
       </c>
       <c r="B817" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
@@ -12158,7 +12158,7 @@
         <v>810</v>
       </c>
       <c r="B818" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.3">
@@ -12166,7 +12166,7 @@
         <v>811</v>
       </c>
       <c r="B819" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.3">
@@ -12190,7 +12190,7 @@
         <v>814</v>
       </c>
       <c r="B822" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.3">
@@ -12198,7 +12198,7 @@
         <v>815</v>
       </c>
       <c r="B823" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
@@ -12206,7 +12206,7 @@
         <v>816</v>
       </c>
       <c r="B824" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.3">
@@ -12214,7 +12214,7 @@
         <v>817</v>
       </c>
       <c r="B825" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
@@ -12222,7 +12222,7 @@
         <v>818</v>
       </c>
       <c r="B826" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.3">
@@ -12254,7 +12254,7 @@
         <v>822</v>
       </c>
       <c r="B830" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.3">
@@ -12262,7 +12262,7 @@
         <v>823</v>
       </c>
       <c r="B831" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.3">
@@ -12270,7 +12270,7 @@
         <v>824</v>
       </c>
       <c r="B832" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
@@ -12278,7 +12278,7 @@
         <v>825</v>
       </c>
       <c r="B833" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.3">
@@ -12286,7 +12286,7 @@
         <v>826</v>
       </c>
       <c r="B834" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.3">
@@ -12294,7 +12294,7 @@
         <v>827</v>
       </c>
       <c r="B835" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
@@ -12310,7 +12310,7 @@
         <v>829</v>
       </c>
       <c r="B837" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.3">
@@ -12326,7 +12326,7 @@
         <v>831</v>
       </c>
       <c r="B839" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.3">
@@ -12334,7 +12334,7 @@
         <v>832</v>
       </c>
       <c r="B840" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.3">
@@ -12350,7 +12350,7 @@
         <v>834</v>
       </c>
       <c r="B842" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.3">
@@ -12358,7 +12358,7 @@
         <v>835</v>
       </c>
       <c r="B843" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.3">
@@ -12382,7 +12382,7 @@
         <v>838</v>
       </c>
       <c r="B846" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
@@ -12398,7 +12398,7 @@
         <v>840</v>
       </c>
       <c r="B848" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.3">
@@ -12414,7 +12414,7 @@
         <v>842</v>
       </c>
       <c r="B850" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
@@ -12430,7 +12430,7 @@
         <v>844</v>
       </c>
       <c r="B852" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.3">
@@ -12462,7 +12462,7 @@
         <v>848</v>
       </c>
       <c r="B856" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.3">
@@ -12470,7 +12470,7 @@
         <v>849</v>
       </c>
       <c r="B857" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
@@ -12478,7 +12478,7 @@
         <v>850</v>
       </c>
       <c r="B858" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
@@ -12494,7 +12494,7 @@
         <v>852</v>
       </c>
       <c r="B860" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
@@ -12502,7 +12502,7 @@
         <v>853</v>
       </c>
       <c r="B861" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
@@ -12550,7 +12550,7 @@
         <v>859</v>
       </c>
       <c r="B867" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
@@ -12558,7 +12558,7 @@
         <v>860</v>
       </c>
       <c r="B868" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.3">
@@ -12566,7 +12566,7 @@
         <v>861</v>
       </c>
       <c r="B869" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.3">
@@ -12590,7 +12590,7 @@
         <v>864</v>
       </c>
       <c r="B872" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.3">
@@ -12598,7 +12598,7 @@
         <v>865</v>
       </c>
       <c r="B873" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
@@ -12606,7 +12606,7 @@
         <v>866</v>
       </c>
       <c r="B874" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.3">
@@ -12614,7 +12614,7 @@
         <v>867</v>
       </c>
       <c r="B875" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.3">
@@ -12638,7 +12638,7 @@
         <v>870</v>
       </c>
       <c r="B878" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
@@ -12670,7 +12670,7 @@
         <v>874</v>
       </c>
       <c r="B882" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
@@ -12678,7 +12678,7 @@
         <v>875</v>
       </c>
       <c r="B883" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
@@ -12710,7 +12710,7 @@
         <v>879</v>
       </c>
       <c r="B887" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.3">
@@ -12750,7 +12750,7 @@
         <v>884</v>
       </c>
       <c r="B892" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.3">
@@ -12766,7 +12766,7 @@
         <v>886</v>
       </c>
       <c r="B894" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.3">
@@ -12774,7 +12774,7 @@
         <v>887</v>
       </c>
       <c r="B895" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.3">
@@ -12806,7 +12806,7 @@
         <v>891</v>
       </c>
       <c r="B899" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.3">
@@ -12822,7 +12822,7 @@
         <v>254</v>
       </c>
       <c r="B901" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.3">
@@ -12838,7 +12838,7 @@
         <v>894</v>
       </c>
       <c r="B903" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.3">
@@ -12846,7 +12846,7 @@
         <v>895</v>
       </c>
       <c r="B904" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.3">
@@ -12854,7 +12854,7 @@
         <v>896</v>
       </c>
       <c r="B905" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.3">
@@ -12886,7 +12886,7 @@
         <v>900</v>
       </c>
       <c r="B909" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.3">
@@ -12894,7 +12894,7 @@
         <v>901</v>
       </c>
       <c r="B910" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.3">
@@ -12902,7 +12902,7 @@
         <v>902</v>
       </c>
       <c r="B911" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.3">
@@ -12942,7 +12942,7 @@
         <v>907</v>
       </c>
       <c r="B916" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.3">
@@ -12950,7 +12950,7 @@
         <v>908</v>
       </c>
       <c r="B917" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.3">
@@ -12958,7 +12958,7 @@
         <v>909</v>
       </c>
       <c r="B918" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.3">
@@ -12966,7 +12966,7 @@
         <v>910</v>
       </c>
       <c r="B919" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.3">
@@ -13006,7 +13006,7 @@
         <v>915</v>
       </c>
       <c r="B924" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.3">
@@ -13014,7 +13014,7 @@
         <v>916</v>
       </c>
       <c r="B925" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.3">
@@ -13022,7 +13022,7 @@
         <v>917</v>
       </c>
       <c r="B926" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.3">
@@ -13046,7 +13046,7 @@
         <v>920</v>
       </c>
       <c r="B929" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.3">
@@ -13062,7 +13062,7 @@
         <v>922</v>
       </c>
       <c r="B931" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.3">
@@ -13094,7 +13094,7 @@
         <v>926</v>
       </c>
       <c r="B935" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.3">
@@ -13102,7 +13102,7 @@
         <v>506</v>
       </c>
       <c r="B936" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.3">
@@ -13118,7 +13118,7 @@
         <v>928</v>
       </c>
       <c r="B938" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.3">
@@ -13126,7 +13126,7 @@
         <v>929</v>
       </c>
       <c r="B939" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.3">
@@ -13142,7 +13142,7 @@
         <v>931</v>
       </c>
       <c r="B941" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.3">
@@ -13150,7 +13150,7 @@
         <v>932</v>
       </c>
       <c r="B942" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.3">
@@ -13182,7 +13182,7 @@
         <v>935</v>
       </c>
       <c r="B946" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.3">
@@ -13190,7 +13190,7 @@
         <v>936</v>
       </c>
       <c r="B947" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.3">
@@ -13206,7 +13206,7 @@
         <v>938</v>
       </c>
       <c r="B949" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.3">
@@ -13222,7 +13222,7 @@
         <v>940</v>
       </c>
       <c r="B951" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.3">
@@ -13230,7 +13230,7 @@
         <v>941</v>
       </c>
       <c r="B952" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.3">
@@ -13238,7 +13238,7 @@
         <v>942</v>
       </c>
       <c r="B953" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.3">
@@ -13246,7 +13246,7 @@
         <v>943</v>
       </c>
       <c r="B954" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.3">
@@ -13262,7 +13262,7 @@
         <v>945</v>
       </c>
       <c r="B956" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.3">
@@ -13270,7 +13270,7 @@
         <v>946</v>
       </c>
       <c r="B957" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.3">
@@ -13278,7 +13278,7 @@
         <v>947</v>
       </c>
       <c r="B958" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.3">
@@ -13302,7 +13302,7 @@
         <v>950</v>
       </c>
       <c r="B961" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.3">
@@ -13318,7 +13318,7 @@
         <v>952</v>
       </c>
       <c r="B963" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.3">
@@ -13326,7 +13326,7 @@
         <v>953</v>
       </c>
       <c r="B964" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.3">
@@ -13342,7 +13342,7 @@
         <v>955</v>
       </c>
       <c r="B966" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.3">
@@ -13390,7 +13390,7 @@
         <v>961</v>
       </c>
       <c r="B972" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.3">
@@ -13398,7 +13398,7 @@
         <v>962</v>
       </c>
       <c r="B973" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.3">
@@ -13406,7 +13406,7 @@
         <v>963</v>
       </c>
       <c r="B974" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.3">
@@ -13414,7 +13414,7 @@
         <v>964</v>
       </c>
       <c r="B975" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.3">
@@ -13422,7 +13422,7 @@
         <v>965</v>
       </c>
       <c r="B976" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.3">
@@ -13438,7 +13438,7 @@
         <v>967</v>
       </c>
       <c r="B978" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.3">
@@ -13462,7 +13462,7 @@
         <v>970</v>
       </c>
       <c r="B981" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.3">
@@ -13470,7 +13470,7 @@
         <v>971</v>
       </c>
       <c r="B982" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.3">
@@ -13478,7 +13478,7 @@
         <v>335</v>
       </c>
       <c r="B983" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.3">
@@ -13486,7 +13486,7 @@
         <v>972</v>
       </c>
       <c r="B984" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.3">
@@ -13510,7 +13510,7 @@
         <v>975</v>
       </c>
       <c r="B987" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.3">
@@ -13534,7 +13534,7 @@
         <v>978</v>
       </c>
       <c r="B990" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.3">
@@ -13542,7 +13542,7 @@
         <v>979</v>
       </c>
       <c r="B991" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.3">
@@ -13550,7 +13550,7 @@
         <v>980</v>
       </c>
       <c r="B992" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.3">
@@ -13566,7 +13566,7 @@
         <v>982</v>
       </c>
       <c r="B994" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.3">
@@ -13622,7 +13622,7 @@
         <v>989</v>
       </c>
       <c r="B1001" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
@@ -13630,7 +13630,7 @@
         <v>990</v>
       </c>
       <c r="B1002" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
@@ -13646,7 +13646,7 @@
         <v>991</v>
       </c>
       <c r="B1004" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
@@ -13678,7 +13678,7 @@
         <v>995</v>
       </c>
       <c r="B1008" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
@@ -13686,7 +13686,7 @@
         <v>996</v>
       </c>
       <c r="B1009" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
@@ -13702,7 +13702,7 @@
         <v>998</v>
       </c>
       <c r="B1011" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
@@ -13726,7 +13726,7 @@
         <v>1001</v>
       </c>
       <c r="B1014" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
@@ -13758,7 +13758,7 @@
         <v>1005</v>
       </c>
       <c r="B1018" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
@@ -13774,7 +13774,7 @@
         <v>1007</v>
       </c>
       <c r="B1020" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
@@ -13782,7 +13782,7 @@
         <v>1008</v>
       </c>
       <c r="B1021" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
@@ -13814,7 +13814,7 @@
         <v>1012</v>
       </c>
       <c r="B1025" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
@@ -13822,7 +13822,7 @@
         <v>1013</v>
       </c>
       <c r="B1026" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
@@ -13830,7 +13830,7 @@
         <v>1014</v>
       </c>
       <c r="B1027" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
@@ -13846,7 +13846,7 @@
         <v>1016</v>
       </c>
       <c r="B1029" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.3">
@@ -13854,7 +13854,7 @@
         <v>1017</v>
       </c>
       <c r="B1030" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.3">
@@ -13878,7 +13878,7 @@
         <v>1020</v>
       </c>
       <c r="B1033" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
@@ -13886,7 +13886,7 @@
         <v>1021</v>
       </c>
       <c r="B1034" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.3">
@@ -13894,7 +13894,7 @@
         <v>1022</v>
       </c>
       <c r="B1035" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1036" spans="1:2" x14ac:dyDescent="0.3">
@@ -13918,7 +13918,7 @@
         <v>1025</v>
       </c>
       <c r="B1038" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.3">
@@ -13942,7 +13942,7 @@
         <v>395</v>
       </c>
       <c r="B1041" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.3">
@@ -13950,7 +13950,7 @@
         <v>1027</v>
       </c>
       <c r="B1042" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.3">
@@ -13966,7 +13966,7 @@
         <v>1029</v>
       </c>
       <c r="B1044" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1045" spans="1:2" x14ac:dyDescent="0.3">
@@ -14014,7 +14014,7 @@
         <v>1035</v>
       </c>
       <c r="B1050" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.3">
@@ -14054,7 +14054,7 @@
         <v>1040</v>
       </c>
       <c r="B1055" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.3">
@@ -14062,7 +14062,7 @@
         <v>1041</v>
       </c>
       <c r="B1056" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1057" spans="1:2" x14ac:dyDescent="0.3">
@@ -14078,7 +14078,7 @@
         <v>1043</v>
       </c>
       <c r="B1058" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.3">
@@ -14126,7 +14126,7 @@
         <v>1049</v>
       </c>
       <c r="B1064" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1065" spans="1:2" x14ac:dyDescent="0.3">
@@ -14134,7 +14134,7 @@
         <v>1050</v>
       </c>
       <c r="B1065" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.3">
@@ -14150,7 +14150,7 @@
         <v>1052</v>
       </c>
       <c r="B1067" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.3">
@@ -14174,7 +14174,7 @@
         <v>1055</v>
       </c>
       <c r="B1070" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.3">
@@ -14182,7 +14182,7 @@
         <v>1056</v>
       </c>
       <c r="B1071" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.3">
@@ -14190,7 +14190,7 @@
         <v>1057</v>
       </c>
       <c r="B1072" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.3">
@@ -14198,7 +14198,7 @@
         <v>1058</v>
       </c>
       <c r="B1073" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1074" spans="1:2" x14ac:dyDescent="0.3">
@@ -14214,7 +14214,7 @@
         <v>1060</v>
       </c>
       <c r="B1075" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1076" spans="1:2" x14ac:dyDescent="0.3">
@@ -14254,7 +14254,7 @@
         <v>1065</v>
       </c>
       <c r="B1080" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.3">
@@ -14278,7 +14278,7 @@
         <v>1068</v>
       </c>
       <c r="B1083" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1084" spans="1:2" x14ac:dyDescent="0.3">
@@ -14310,7 +14310,7 @@
         <v>1072</v>
       </c>
       <c r="B1087" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1088" spans="1:2" x14ac:dyDescent="0.3">
@@ -14318,7 +14318,7 @@
         <v>1073</v>
       </c>
       <c r="B1088" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1089" spans="1:2" x14ac:dyDescent="0.3">
@@ -14326,7 +14326,7 @@
         <v>1074</v>
       </c>
       <c r="B1089" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1090" spans="1:2" x14ac:dyDescent="0.3">
@@ -14342,7 +14342,7 @@
         <v>1076</v>
       </c>
       <c r="B1091" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.3">
@@ -14366,7 +14366,7 @@
         <v>1079</v>
       </c>
       <c r="B1094" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.3">
@@ -14374,7 +14374,7 @@
         <v>1080</v>
       </c>
       <c r="B1095" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.3">
@@ -14390,7 +14390,7 @@
         <v>1082</v>
       </c>
       <c r="B1097" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1098" spans="1:2" x14ac:dyDescent="0.3">
@@ -14406,7 +14406,7 @@
         <v>1084</v>
       </c>
       <c r="B1099" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1100" spans="1:2" x14ac:dyDescent="0.3">
@@ -14454,7 +14454,7 @@
         <v>1090</v>
       </c>
       <c r="B1105" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.3">
@@ -14470,7 +14470,7 @@
         <v>1092</v>
       </c>
       <c r="B1107" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.3">
@@ -14478,7 +14478,7 @@
         <v>1093</v>
       </c>
       <c r="B1108" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1109" spans="1:2" x14ac:dyDescent="0.3">
@@ -14494,7 +14494,7 @@
         <v>1095</v>
       </c>
       <c r="B1110" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1111" spans="1:2" x14ac:dyDescent="0.3">
@@ -14510,7 +14510,7 @@
         <v>1097</v>
       </c>
       <c r="B1112" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.3">
@@ -14534,7 +14534,7 @@
         <v>1100</v>
       </c>
       <c r="B1115" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.3">
@@ -14542,7 +14542,7 @@
         <v>1101</v>
       </c>
       <c r="B1116" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.3">
@@ -14566,7 +14566,7 @@
         <v>1104</v>
       </c>
       <c r="B1119" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.3">
@@ -14574,7 +14574,7 @@
         <v>1105</v>
       </c>
       <c r="B1120" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.3">
@@ -14590,7 +14590,7 @@
         <v>1107</v>
       </c>
       <c r="B1122" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.3">
@@ -14598,7 +14598,7 @@
         <v>1108</v>
       </c>
       <c r="B1123" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1124" spans="1:2" x14ac:dyDescent="0.3">
@@ -14614,7 +14614,7 @@
         <v>1110</v>
       </c>
       <c r="B1125" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.3">
@@ -14622,7 +14622,7 @@
         <v>1111</v>
       </c>
       <c r="B1126" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.3">
@@ -14646,7 +14646,7 @@
         <v>1114</v>
       </c>
       <c r="B1129" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.3">
@@ -14670,7 +14670,7 @@
         <v>1117</v>
       </c>
       <c r="B1132" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.3">
@@ -14686,7 +14686,7 @@
         <v>1119</v>
       </c>
       <c r="B1134" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.3">
@@ -14710,7 +14710,7 @@
         <v>1122</v>
       </c>
       <c r="B1137" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.3">
@@ -14726,7 +14726,7 @@
         <v>1124</v>
       </c>
       <c r="B1139" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.3">
@@ -14742,7 +14742,7 @@
         <v>1126</v>
       </c>
       <c r="B1141" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.3">
@@ -14750,7 +14750,7 @@
         <v>1127</v>
       </c>
       <c r="B1142" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.3">
@@ -14766,7 +14766,7 @@
         <v>1129</v>
       </c>
       <c r="B1144" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.3">
@@ -14790,7 +14790,7 @@
         <v>1132</v>
       </c>
       <c r="B1147" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.3">
@@ -14798,7 +14798,7 @@
         <v>1133</v>
       </c>
       <c r="B1148" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.3">
@@ -14830,7 +14830,7 @@
         <v>1137</v>
       </c>
       <c r="B1152" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.3">
@@ -14838,7 +14838,7 @@
         <v>1138</v>
       </c>
       <c r="B1153" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.3">
@@ -14854,7 +14854,7 @@
         <v>1140</v>
       </c>
       <c r="B1155" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.3">
@@ -14862,7 +14862,7 @@
         <v>1141</v>
       </c>
       <c r="B1156" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.3">
@@ -14870,7 +14870,7 @@
         <v>1142</v>
       </c>
       <c r="B1157" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.3">
@@ -14886,7 +14886,7 @@
         <v>1144</v>
       </c>
       <c r="B1159" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.3">
@@ -14910,7 +14910,7 @@
         <v>1147</v>
       </c>
       <c r="B1162" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.3">
@@ -14918,7 +14918,7 @@
         <v>1148</v>
       </c>
       <c r="B1163" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.3">
@@ -14926,7 +14926,7 @@
         <v>1149</v>
       </c>
       <c r="B1164" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.3">
@@ -14950,7 +14950,7 @@
         <v>1152</v>
       </c>
       <c r="B1167" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.3">
@@ -14958,7 +14958,7 @@
         <v>938</v>
       </c>
       <c r="B1168" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.3">
@@ -14966,7 +14966,7 @@
         <v>1153</v>
       </c>
       <c r="B1169" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.3">
@@ -14982,7 +14982,7 @@
         <v>1155</v>
       </c>
       <c r="B1171" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.3">
@@ -15022,7 +15022,7 @@
         <v>1160</v>
       </c>
       <c r="B1176" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.3">
@@ -15030,7 +15030,7 @@
         <v>1161</v>
       </c>
       <c r="B1177" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.3">
@@ -15038,7 +15038,7 @@
         <v>1162</v>
       </c>
       <c r="B1178" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.3">
@@ -15046,7 +15046,7 @@
         <v>1163</v>
       </c>
       <c r="B1179" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.3">
@@ -15086,7 +15086,7 @@
         <v>1167</v>
       </c>
       <c r="B1184" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.3">
@@ -15126,7 +15126,7 @@
         <v>1172</v>
       </c>
       <c r="B1189" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.3">
@@ -15142,7 +15142,7 @@
         <v>1174</v>
       </c>
       <c r="B1191" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1192" spans="1:2" x14ac:dyDescent="0.3">
@@ -15150,7 +15150,7 @@
         <v>1175</v>
       </c>
       <c r="B1192" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.3">
@@ -15166,7 +15166,7 @@
         <v>1177</v>
       </c>
       <c r="B1194" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.3">
@@ -15174,7 +15174,7 @@
         <v>1178</v>
       </c>
       <c r="B1195" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.3">
@@ -15182,7 +15182,7 @@
         <v>1179</v>
       </c>
       <c r="B1196" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.3">
@@ -15214,7 +15214,7 @@
         <v>1183</v>
       </c>
       <c r="B1200" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.3">
@@ -15230,7 +15230,7 @@
         <v>1185</v>
       </c>
       <c r="B1202" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.3">
@@ -15238,7 +15238,7 @@
         <v>1186</v>
       </c>
       <c r="B1203" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.3">
@@ -15294,7 +15294,7 @@
         <v>1193</v>
       </c>
       <c r="B1210" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.3">
@@ -15334,7 +15334,7 @@
         <v>1198</v>
       </c>
       <c r="B1215" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.3">
@@ -15342,7 +15342,7 @@
         <v>1199</v>
       </c>
       <c r="B1216" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.3">
@@ -15350,7 +15350,7 @@
         <v>1200</v>
       </c>
       <c r="B1217" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.3">
@@ -15358,7 +15358,7 @@
         <v>1201</v>
       </c>
       <c r="B1218" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.3">
@@ -15366,7 +15366,7 @@
         <v>1202</v>
       </c>
       <c r="B1219" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.3">
@@ -15374,7 +15374,7 @@
         <v>1203</v>
       </c>
       <c r="B1220" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.3">
@@ -15390,7 +15390,7 @@
         <v>1205</v>
       </c>
       <c r="B1222" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1223" spans="1:2" x14ac:dyDescent="0.3">
@@ -15406,7 +15406,7 @@
         <v>1207</v>
       </c>
       <c r="B1224" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.3">
@@ -15430,7 +15430,7 @@
         <v>1210</v>
       </c>
       <c r="B1227" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.3">
@@ -15478,7 +15478,7 @@
         <v>1216</v>
       </c>
       <c r="B1233" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.3">
@@ -15494,7 +15494,7 @@
         <v>1217</v>
       </c>
       <c r="B1235" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1236" spans="1:2" x14ac:dyDescent="0.3">
@@ -15510,7 +15510,7 @@
         <v>1219</v>
       </c>
       <c r="B1237" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.3">
@@ -15518,7 +15518,7 @@
         <v>1220</v>
       </c>
       <c r="B1238" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.3">
@@ -15534,7 +15534,7 @@
         <v>1222</v>
       </c>
       <c r="B1240" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.3">
@@ -15542,7 +15542,7 @@
         <v>1223</v>
       </c>
       <c r="B1241" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.3">
@@ -15550,7 +15550,7 @@
         <v>1224</v>
       </c>
       <c r="B1242" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1243" spans="1:2" x14ac:dyDescent="0.3">
@@ -15566,7 +15566,7 @@
         <v>1226</v>
       </c>
       <c r="B1244" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.3">
@@ -15574,7 +15574,7 @@
         <v>1227</v>
       </c>
       <c r="B1245" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.3">
@@ -15598,7 +15598,7 @@
         <v>1230</v>
       </c>
       <c r="B1248" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.3">
@@ -15622,7 +15622,7 @@
         <v>1233</v>
       </c>
       <c r="B1251" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.3">
@@ -15646,7 +15646,7 @@
         <v>1236</v>
       </c>
       <c r="B1254" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1255" spans="1:2" x14ac:dyDescent="0.3">
@@ -15670,7 +15670,7 @@
         <v>1239</v>
       </c>
       <c r="B1257" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.3">
@@ -15686,7 +15686,7 @@
         <v>1241</v>
       </c>
       <c r="B1259" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.3">
@@ -15694,7 +15694,7 @@
         <v>1242</v>
       </c>
       <c r="B1260" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.3">
@@ -15710,7 +15710,7 @@
         <v>1244</v>
       </c>
       <c r="B1262" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.3">
@@ -15718,7 +15718,7 @@
         <v>1245</v>
       </c>
       <c r="B1263" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.3">
@@ -15726,7 +15726,7 @@
         <v>1246</v>
       </c>
       <c r="B1264" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1265" spans="1:2" x14ac:dyDescent="0.3">
@@ -15734,7 +15734,7 @@
         <v>1247</v>
       </c>
       <c r="B1265" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.3">
@@ -15742,7 +15742,7 @@
         <v>1248</v>
       </c>
       <c r="B1266" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1267" spans="1:2" x14ac:dyDescent="0.3">
@@ -15750,7 +15750,7 @@
         <v>1249</v>
       </c>
       <c r="B1267" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.3">
@@ -15782,7 +15782,7 @@
         <v>1253</v>
       </c>
       <c r="B1271" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.3">
@@ -15806,7 +15806,7 @@
         <v>1256</v>
       </c>
       <c r="B1274" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.3">
@@ -15846,7 +15846,7 @@
         <v>1261</v>
       </c>
       <c r="B1279" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.3">
@@ -15854,7 +15854,7 @@
         <v>1262</v>
       </c>
       <c r="B1280" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.3">
@@ -15862,7 +15862,7 @@
         <v>1263</v>
       </c>
       <c r="B1281" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.3">
@@ -15870,7 +15870,7 @@
         <v>1264</v>
       </c>
       <c r="B1282" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.3">
@@ -15878,7 +15878,7 @@
         <v>90</v>
       </c>
       <c r="B1283" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1284" spans="1:2" x14ac:dyDescent="0.3">
@@ -15894,7 +15894,7 @@
         <v>1266</v>
       </c>
       <c r="B1285" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.3">
@@ -15902,7 +15902,7 @@
         <v>1267</v>
       </c>
       <c r="B1286" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.3">
@@ -15942,7 +15942,7 @@
         <v>1272</v>
       </c>
       <c r="B1291" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.3">
@@ -15950,7 +15950,7 @@
         <v>1273</v>
       </c>
       <c r="B1292" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.3">
@@ -15958,7 +15958,7 @@
         <v>1274</v>
       </c>
       <c r="B1293" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.3">
@@ -15966,7 +15966,7 @@
         <v>1275</v>
       </c>
       <c r="B1294" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1295" spans="1:2" x14ac:dyDescent="0.3">
@@ -16014,7 +16014,7 @@
         <v>1281</v>
       </c>
       <c r="B1300" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1301" spans="1:2" x14ac:dyDescent="0.3">
@@ -16022,7 +16022,7 @@
         <v>1282</v>
       </c>
       <c r="B1301" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1302" spans="1:2" x14ac:dyDescent="0.3">
@@ -16046,7 +16046,7 @@
         <v>1285</v>
       </c>
       <c r="B1304" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1305" spans="1:2" x14ac:dyDescent="0.3">
@@ -16054,7 +16054,7 @@
         <v>1286</v>
       </c>
       <c r="B1305" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.3">
@@ -16070,7 +16070,7 @@
         <v>1288</v>
       </c>
       <c r="B1307" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1308" spans="1:2" x14ac:dyDescent="0.3">
@@ -16078,7 +16078,7 @@
         <v>1289</v>
       </c>
       <c r="B1308" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1309" spans="1:2" x14ac:dyDescent="0.3">
@@ -16126,7 +16126,7 @@
         <v>1295</v>
       </c>
       <c r="B1314" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.3">
@@ -16142,7 +16142,7 @@
         <v>1297</v>
       </c>
       <c r="B1316" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1317" spans="1:2" x14ac:dyDescent="0.3">
@@ -16174,7 +16174,7 @@
         <v>1301</v>
       </c>
       <c r="B1320" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.3">
@@ -16182,7 +16182,7 @@
         <v>1302</v>
       </c>
       <c r="B1321" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.3">
@@ -16190,7 +16190,7 @@
         <v>1303</v>
       </c>
       <c r="B1322" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.3">
@@ -16198,7 +16198,7 @@
         <v>1304</v>
       </c>
       <c r="B1323" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1324" spans="1:2" x14ac:dyDescent="0.3">
@@ -16214,7 +16214,7 @@
         <v>1306</v>
       </c>
       <c r="B1325" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.3">
@@ -16222,7 +16222,7 @@
         <v>1307</v>
       </c>
       <c r="B1326" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.3">
@@ -16230,7 +16230,7 @@
         <v>1308</v>
       </c>
       <c r="B1327" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.3">
@@ -16238,7 +16238,7 @@
         <v>1309</v>
       </c>
       <c r="B1328" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.3">
@@ -16246,7 +16246,7 @@
         <v>1310</v>
       </c>
       <c r="B1329" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.3">
@@ -16262,7 +16262,7 @@
         <v>1312</v>
       </c>
       <c r="B1331" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.3">
@@ -16270,7 +16270,7 @@
         <v>1313</v>
       </c>
       <c r="B1332" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.3">
@@ -16310,7 +16310,7 @@
         <v>1317</v>
       </c>
       <c r="B1337" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.3">
@@ -16374,7 +16374,7 @@
         <v>1325</v>
       </c>
       <c r="B1345" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.3">
@@ -16422,7 +16422,7 @@
         <v>1330</v>
       </c>
       <c r="B1351" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1352" spans="1:2" x14ac:dyDescent="0.3">
@@ -16470,7 +16470,7 @@
         <v>655</v>
       </c>
       <c r="B1357" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.3">
@@ -16494,7 +16494,7 @@
         <v>1338</v>
       </c>
       <c r="B1360" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1361" spans="1:2" x14ac:dyDescent="0.3">
@@ -16510,7 +16510,7 @@
         <v>1340</v>
       </c>
       <c r="B1362" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.3">
@@ -16518,7 +16518,7 @@
         <v>1341</v>
       </c>
       <c r="B1363" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.3">
@@ -16526,7 +16526,7 @@
         <v>1342</v>
       </c>
       <c r="B1364" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.3">
@@ -16534,7 +16534,7 @@
         <v>1343</v>
       </c>
       <c r="B1365" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.3">
@@ -16550,7 +16550,7 @@
         <v>1345</v>
       </c>
       <c r="B1367" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1368" spans="1:2" x14ac:dyDescent="0.3">
@@ -16566,7 +16566,7 @@
         <v>1347</v>
       </c>
       <c r="B1369" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.3">
@@ -16598,7 +16598,7 @@
         <v>1351</v>
       </c>
       <c r="B1373" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1374" spans="1:2" x14ac:dyDescent="0.3">
@@ -16606,7 +16606,7 @@
         <v>1352</v>
       </c>
       <c r="B1374" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.3">
@@ -16646,7 +16646,7 @@
         <v>1357</v>
       </c>
       <c r="B1379" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.3">
@@ -16662,7 +16662,7 @@
         <v>1359</v>
       </c>
       <c r="B1381" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.3">
@@ -16726,7 +16726,7 @@
         <v>1367</v>
       </c>
       <c r="B1389" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1390" spans="1:2" x14ac:dyDescent="0.3">
@@ -16734,7 +16734,7 @@
         <v>1368</v>
       </c>
       <c r="B1390" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.3">
@@ -16742,7 +16742,7 @@
         <v>1369</v>
       </c>
       <c r="B1391" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.3">
@@ -16758,7 +16758,7 @@
         <v>1371</v>
       </c>
       <c r="B1393" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.3">
@@ -16766,7 +16766,7 @@
         <v>1372</v>
       </c>
       <c r="B1394" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.3">
@@ -16774,7 +16774,7 @@
         <v>1373</v>
       </c>
       <c r="B1395" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.3">
@@ -16782,7 +16782,7 @@
         <v>1374</v>
       </c>
       <c r="B1396" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.3">
@@ -16790,7 +16790,7 @@
         <v>1375</v>
       </c>
       <c r="B1397" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.3">
@@ -16798,7 +16798,7 @@
         <v>1376</v>
       </c>
       <c r="B1398" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1399" spans="1:2" x14ac:dyDescent="0.3">
@@ -16838,7 +16838,7 @@
         <v>1381</v>
       </c>
       <c r="B1403" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1404" spans="1:2" x14ac:dyDescent="0.3">
@@ -16862,7 +16862,7 @@
         <v>1384</v>
       </c>
       <c r="B1406" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.3">
@@ -16878,7 +16878,7 @@
         <v>1386</v>
       </c>
       <c r="B1408" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.3">
@@ -16902,7 +16902,7 @@
         <v>1389</v>
       </c>
       <c r="B1411" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.3">
@@ -16910,7 +16910,7 @@
         <v>1390</v>
       </c>
       <c r="B1412" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.3">
@@ -16950,7 +16950,7 @@
         <v>1395</v>
       </c>
       <c r="B1417" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.3">
@@ -16966,7 +16966,7 @@
         <v>1397</v>
       </c>
       <c r="B1419" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.3">
@@ -16974,7 +16974,7 @@
         <v>1398</v>
       </c>
       <c r="B1420" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.3">
@@ -16982,7 +16982,7 @@
         <v>23</v>
       </c>
       <c r="B1421" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.3">
@@ -16990,7 +16990,7 @@
         <v>1399</v>
       </c>
       <c r="B1422" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.3">
@@ -17014,7 +17014,7 @@
         <v>1402</v>
       </c>
       <c r="B1425" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1426" spans="1:2" x14ac:dyDescent="0.3">
@@ -17022,7 +17022,7 @@
         <v>1403</v>
       </c>
       <c r="B1426" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.3">
@@ -17030,7 +17030,7 @@
         <v>1404</v>
       </c>
       <c r="B1427" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.3">
@@ -17046,7 +17046,7 @@
         <v>1406</v>
       </c>
       <c r="B1429" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.3">
@@ -17054,7 +17054,7 @@
         <v>1407</v>
       </c>
       <c r="B1430" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.3">
@@ -17062,7 +17062,7 @@
         <v>1408</v>
       </c>
       <c r="B1431" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1432" spans="1:2" x14ac:dyDescent="0.3">
@@ -17078,7 +17078,7 @@
         <v>1410</v>
       </c>
       <c r="B1433" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.3">
@@ -17086,7 +17086,7 @@
         <v>1411</v>
       </c>
       <c r="B1434" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1435" spans="1:2" x14ac:dyDescent="0.3">
@@ -17094,7 +17094,7 @@
         <v>1412</v>
       </c>
       <c r="B1435" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1436" spans="1:2" x14ac:dyDescent="0.3">
@@ -17102,7 +17102,7 @@
         <v>1413</v>
       </c>
       <c r="B1436" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.3">
@@ -17110,7 +17110,7 @@
         <v>1414</v>
       </c>
       <c r="B1437" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.3">
@@ -17126,7 +17126,7 @@
         <v>1416</v>
       </c>
       <c r="B1439" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1440" spans="1:2" x14ac:dyDescent="0.3">
@@ -17142,7 +17142,7 @@
         <v>1418</v>
       </c>
       <c r="B1441" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.3">
@@ -17150,7 +17150,7 @@
         <v>1419</v>
       </c>
       <c r="B1442" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.3">
@@ -17174,7 +17174,7 @@
         <v>1422</v>
       </c>
       <c r="B1445" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.3">
@@ -17198,7 +17198,7 @@
         <v>1424</v>
       </c>
       <c r="B1448" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1449" spans="1:2" x14ac:dyDescent="0.3">
@@ -17206,7 +17206,7 @@
         <v>1425</v>
       </c>
       <c r="B1449" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.3">
@@ -17222,7 +17222,7 @@
         <v>1427</v>
       </c>
       <c r="B1451" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.3">
@@ -17238,7 +17238,7 @@
         <v>1023</v>
       </c>
       <c r="B1453" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.3">
@@ -17262,7 +17262,7 @@
         <v>1431</v>
       </c>
       <c r="B1456" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.3">
@@ -17278,7 +17278,7 @@
         <v>1433</v>
       </c>
       <c r="B1458" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1459" spans="1:2" x14ac:dyDescent="0.3">
@@ -17302,7 +17302,7 @@
         <v>1436</v>
       </c>
       <c r="B1461" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1462" spans="1:2" x14ac:dyDescent="0.3">
@@ -17310,7 +17310,7 @@
         <v>1437</v>
       </c>
       <c r="B1462" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.3">
@@ -17334,7 +17334,7 @@
         <v>1439</v>
       </c>
       <c r="B1465" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1466" spans="1:2" x14ac:dyDescent="0.3">
@@ -17350,7 +17350,7 @@
         <v>1441</v>
       </c>
       <c r="B1467" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.3">
@@ -17358,7 +17358,7 @@
         <v>1442</v>
       </c>
       <c r="B1468" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.3">
@@ -17422,7 +17422,7 @@
         <v>1450</v>
       </c>
       <c r="B1476" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1477" spans="1:2" x14ac:dyDescent="0.3">
@@ -17446,7 +17446,7 @@
         <v>1453</v>
       </c>
       <c r="B1479" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.3">
@@ -17454,7 +17454,7 @@
         <v>1454</v>
       </c>
       <c r="B1480" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1481" spans="1:2" x14ac:dyDescent="0.3">
@@ -17486,7 +17486,7 @@
         <v>1458</v>
       </c>
       <c r="B1484" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1485" spans="1:2" x14ac:dyDescent="0.3">
@@ -17494,7 +17494,7 @@
         <v>1459</v>
       </c>
       <c r="B1485" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.3">
@@ -17510,7 +17510,7 @@
         <v>1461</v>
       </c>
       <c r="B1487" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.3">
@@ -17518,7 +17518,7 @@
         <v>1462</v>
       </c>
       <c r="B1488" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1489" spans="1:2" x14ac:dyDescent="0.3">
@@ -17542,7 +17542,7 @@
         <v>1465</v>
       </c>
       <c r="B1491" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.3">
@@ -17558,7 +17558,7 @@
         <v>524</v>
       </c>
       <c r="B1493" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.3">
@@ -17566,7 +17566,7 @@
         <v>1467</v>
       </c>
       <c r="B1494" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1495" spans="1:2" x14ac:dyDescent="0.3">
@@ -17582,7 +17582,7 @@
         <v>1469</v>
       </c>
       <c r="B1496" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1497" spans="1:2" x14ac:dyDescent="0.3">
@@ -17606,7 +17606,7 @@
         <v>1472</v>
       </c>
       <c r="B1499" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.3">
@@ -17630,7 +17630,7 @@
         <v>1475</v>
       </c>
       <c r="B1502" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1503" spans="1:2" x14ac:dyDescent="0.3">
@@ -17646,7 +17646,7 @@
         <v>1477</v>
       </c>
       <c r="B1504" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1505" spans="1:2" x14ac:dyDescent="0.3">
@@ -17654,7 +17654,7 @@
         <v>1478</v>
       </c>
       <c r="B1505" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.3">
@@ -17670,7 +17670,7 @@
         <v>1480</v>
       </c>
       <c r="B1507" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1508" spans="1:2" x14ac:dyDescent="0.3">
@@ -17678,7 +17678,7 @@
         <v>1481</v>
       </c>
       <c r="B1508" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.3">
@@ -17686,7 +17686,7 @@
         <v>1482</v>
       </c>
       <c r="B1509" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.3">
@@ -17702,7 +17702,7 @@
         <v>1484</v>
       </c>
       <c r="B1511" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.3">
@@ -17710,7 +17710,7 @@
         <v>1485</v>
       </c>
       <c r="B1512" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1513" spans="1:2" x14ac:dyDescent="0.3">
@@ -17726,7 +17726,7 @@
         <v>1487</v>
       </c>
       <c r="B1514" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.3">
@@ -17742,7 +17742,7 @@
         <v>1489</v>
       </c>
       <c r="B1516" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.3">
@@ -17758,7 +17758,7 @@
         <v>1491</v>
       </c>
       <c r="B1518" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.3">
@@ -17774,7 +17774,7 @@
         <v>1493</v>
       </c>
       <c r="B1520" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.3">
@@ -17798,7 +17798,7 @@
         <v>1495</v>
       </c>
       <c r="B1523" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1524" spans="1:2" x14ac:dyDescent="0.3">
@@ -17806,7 +17806,7 @@
         <v>1496</v>
       </c>
       <c r="B1524" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1525" spans="1:2" x14ac:dyDescent="0.3">
@@ -17814,7 +17814,7 @@
         <v>1497</v>
       </c>
       <c r="B1525" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1526" spans="1:2" x14ac:dyDescent="0.3">
@@ -17846,7 +17846,7 @@
         <v>1501</v>
       </c>
       <c r="B1529" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.3">
@@ -17862,7 +17862,7 @@
         <v>1503</v>
       </c>
       <c r="B1531" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.3">
@@ -17878,7 +17878,7 @@
         <v>1504</v>
       </c>
       <c r="B1533" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.3">
@@ -17886,7 +17886,7 @@
         <v>1505</v>
       </c>
       <c r="B1534" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.3">
@@ -17894,7 +17894,7 @@
         <v>1506</v>
       </c>
       <c r="B1535" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.3">
@@ -17902,7 +17902,7 @@
         <v>1507</v>
       </c>
       <c r="B1536" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1537" spans="1:2" x14ac:dyDescent="0.3">
@@ -17918,7 +17918,7 @@
         <v>1509</v>
       </c>
       <c r="B1538" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.3">
@@ -17934,7 +17934,7 @@
         <v>1511</v>
       </c>
       <c r="B1540" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.3">
@@ -17958,7 +17958,7 @@
         <v>1514</v>
       </c>
       <c r="B1543" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.3">
@@ -17966,7 +17966,7 @@
         <v>1515</v>
       </c>
       <c r="B1544" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.3">
@@ -17974,7 +17974,7 @@
         <v>1516</v>
       </c>
       <c r="B1545" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.3">
@@ -18006,7 +18006,7 @@
         <v>818</v>
       </c>
       <c r="B1549" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1550" spans="1:2" x14ac:dyDescent="0.3">
@@ -18014,7 +18014,7 @@
         <v>1520</v>
       </c>
       <c r="B1550" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.3">
@@ -18022,7 +18022,7 @@
         <v>1521</v>
       </c>
       <c r="B1551" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.3">
@@ -18030,7 +18030,7 @@
         <v>1522</v>
       </c>
       <c r="B1552" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.3">
@@ -18038,7 +18038,7 @@
         <v>1523</v>
       </c>
       <c r="B1553" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.3">
@@ -18046,7 +18046,7 @@
         <v>1524</v>
       </c>
       <c r="B1554" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1555" spans="1:2" x14ac:dyDescent="0.3">
@@ -18054,7 +18054,7 @@
         <v>1525</v>
       </c>
       <c r="B1555" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.3">
@@ -18070,7 +18070,7 @@
         <v>1527</v>
       </c>
       <c r="B1557" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.3">
@@ -18094,7 +18094,7 @@
         <v>437</v>
       </c>
       <c r="B1560" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1561" spans="1:2" x14ac:dyDescent="0.3">
@@ -18126,7 +18126,7 @@
         <v>1533</v>
       </c>
       <c r="B1564" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.3">
@@ -18150,7 +18150,7 @@
         <v>1445</v>
       </c>
       <c r="B1567" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.3">
@@ -18158,7 +18158,7 @@
         <v>1536</v>
       </c>
       <c r="B1568" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.3">
@@ -18166,7 +18166,7 @@
         <v>1537</v>
       </c>
       <c r="B1569" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1570" spans="1:2" x14ac:dyDescent="0.3">
@@ -18174,7 +18174,7 @@
         <v>1538</v>
       </c>
       <c r="B1570" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.3">
@@ -18222,7 +18222,7 @@
         <v>1543</v>
       </c>
       <c r="B1576" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.3">
@@ -18230,7 +18230,7 @@
         <v>1544</v>
       </c>
       <c r="B1577" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1578" spans="1:2" x14ac:dyDescent="0.3">
@@ -18262,7 +18262,7 @@
         <v>1548</v>
       </c>
       <c r="B1581" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.3">
@@ -18286,7 +18286,7 @@
         <v>1551</v>
       </c>
       <c r="B1584" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1585" spans="1:2" x14ac:dyDescent="0.3">
@@ -18294,7 +18294,7 @@
         <v>1552</v>
       </c>
       <c r="B1585" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.3">
@@ -18326,7 +18326,7 @@
         <v>1556</v>
       </c>
       <c r="B1589" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.3">
@@ -18350,7 +18350,7 @@
         <v>1559</v>
       </c>
       <c r="B1592" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1593" spans="1:2" x14ac:dyDescent="0.3">
@@ -18366,7 +18366,7 @@
         <v>1561</v>
       </c>
       <c r="B1594" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.3">
@@ -18374,7 +18374,7 @@
         <v>1562</v>
       </c>
       <c r="B1595" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.3">
@@ -18390,7 +18390,7 @@
         <v>1564</v>
       </c>
       <c r="B1597" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1598" spans="1:2" x14ac:dyDescent="0.3">
@@ -18398,7 +18398,7 @@
         <v>1565</v>
       </c>
       <c r="B1598" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1599" spans="1:2" x14ac:dyDescent="0.3">
@@ -18438,7 +18438,7 @@
         <v>1570</v>
       </c>
       <c r="B1603" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.3">
@@ -18462,7 +18462,7 @@
         <v>1573</v>
       </c>
       <c r="B1606" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.3">
@@ -18470,7 +18470,7 @@
         <v>1574</v>
       </c>
       <c r="B1607" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1608" spans="1:2" x14ac:dyDescent="0.3">
@@ -18478,7 +18478,7 @@
         <v>1575</v>
       </c>
       <c r="B1608" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1609" spans="1:2" x14ac:dyDescent="0.3">
@@ -18486,7 +18486,7 @@
         <v>1576</v>
       </c>
       <c r="B1609" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1610" spans="1:2" x14ac:dyDescent="0.3">
@@ -18494,7 +18494,7 @@
         <v>1577</v>
       </c>
       <c r="B1610" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1611" spans="1:2" x14ac:dyDescent="0.3">
@@ -18502,7 +18502,7 @@
         <v>1578</v>
       </c>
       <c r="B1611" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1612" spans="1:2" x14ac:dyDescent="0.3">
@@ -18510,7 +18510,7 @@
         <v>1579</v>
       </c>
       <c r="B1612" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1613" spans="1:2" x14ac:dyDescent="0.3">
@@ -18550,7 +18550,7 @@
         <v>1583</v>
       </c>
       <c r="B1617" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1618" spans="1:2" x14ac:dyDescent="0.3">
@@ -18574,7 +18574,7 @@
         <v>1586</v>
       </c>
       <c r="B1620" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1621" spans="1:2" x14ac:dyDescent="0.3">
@@ -18598,7 +18598,7 @@
         <v>1589</v>
       </c>
       <c r="B1623" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1624" spans="1:2" x14ac:dyDescent="0.3">
@@ -18606,7 +18606,7 @@
         <v>1590</v>
       </c>
       <c r="B1624" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1625" spans="1:2" x14ac:dyDescent="0.3">
@@ -18614,7 +18614,7 @@
         <v>1591</v>
       </c>
       <c r="B1625" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.3">
@@ -18630,7 +18630,7 @@
         <v>1593</v>
       </c>
       <c r="B1627" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1628" spans="1:2" x14ac:dyDescent="0.3">
@@ -18646,7 +18646,7 @@
         <v>1595</v>
       </c>
       <c r="B1629" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1630" spans="1:2" x14ac:dyDescent="0.3">
@@ -18662,7 +18662,7 @@
         <v>1597</v>
       </c>
       <c r="B1631" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1632" spans="1:2" x14ac:dyDescent="0.3">
@@ -18710,7 +18710,7 @@
         <v>920</v>
       </c>
       <c r="B1637" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1638" spans="1:2" x14ac:dyDescent="0.3">
@@ -18718,7 +18718,7 @@
         <v>1603</v>
       </c>
       <c r="B1638" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1639" spans="1:2" x14ac:dyDescent="0.3">
@@ -18758,7 +18758,7 @@
         <v>1608</v>
       </c>
       <c r="B1643" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1644" spans="1:2" x14ac:dyDescent="0.3">
@@ -18774,7 +18774,7 @@
         <v>1610</v>
       </c>
       <c r="B1645" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1646" spans="1:2" x14ac:dyDescent="0.3">
@@ -18782,7 +18782,7 @@
         <v>1611</v>
       </c>
       <c r="B1646" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.3">
@@ -18790,7 +18790,7 @@
         <v>1612</v>
       </c>
       <c r="B1647" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.3">
@@ -18798,7 +18798,7 @@
         <v>1613</v>
       </c>
       <c r="B1648" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1649" spans="1:2" x14ac:dyDescent="0.3">
@@ -18806,7 +18806,7 @@
         <v>1614</v>
       </c>
       <c r="B1649" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1650" spans="1:2" x14ac:dyDescent="0.3">
@@ -18822,7 +18822,7 @@
         <v>1616</v>
       </c>
       <c r="B1651" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1652" spans="1:2" x14ac:dyDescent="0.3">
@@ -18830,7 +18830,7 @@
         <v>1617</v>
       </c>
       <c r="B1652" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1653" spans="1:2" x14ac:dyDescent="0.3">
@@ -18838,7 +18838,7 @@
         <v>1618</v>
       </c>
       <c r="B1653" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1654" spans="1:2" x14ac:dyDescent="0.3">
@@ -18854,7 +18854,7 @@
         <v>1620</v>
       </c>
       <c r="B1655" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1656" spans="1:2" x14ac:dyDescent="0.3">
@@ -18862,7 +18862,7 @@
         <v>1621</v>
       </c>
       <c r="B1656" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1657" spans="1:2" x14ac:dyDescent="0.3">
@@ -18870,7 +18870,7 @@
         <v>1622</v>
       </c>
       <c r="B1657" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1658" spans="1:2" x14ac:dyDescent="0.3">
@@ -18886,7 +18886,7 @@
         <v>1624</v>
       </c>
       <c r="B1659" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1660" spans="1:2" x14ac:dyDescent="0.3">
@@ -18894,7 +18894,7 @@
         <v>1625</v>
       </c>
       <c r="B1660" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1661" spans="1:2" x14ac:dyDescent="0.3">
@@ -18910,7 +18910,7 @@
         <v>1627</v>
       </c>
       <c r="B1662" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1663" spans="1:2" x14ac:dyDescent="0.3">
@@ -18918,7 +18918,7 @@
         <v>335</v>
       </c>
       <c r="B1663" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1664" spans="1:2" x14ac:dyDescent="0.3">
@@ -18958,7 +18958,7 @@
         <v>1632</v>
       </c>
       <c r="B1668" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1669" spans="1:2" x14ac:dyDescent="0.3">
@@ -18982,7 +18982,7 @@
         <v>1635</v>
       </c>
       <c r="B1671" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1672" spans="1:2" x14ac:dyDescent="0.3">
@@ -18998,7 +18998,7 @@
         <v>1637</v>
       </c>
       <c r="B1673" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1674" spans="1:2" x14ac:dyDescent="0.3">
@@ -19014,7 +19014,7 @@
         <v>1639</v>
       </c>
       <c r="B1675" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1676" spans="1:2" x14ac:dyDescent="0.3">
@@ -19038,7 +19038,7 @@
         <v>1642</v>
       </c>
       <c r="B1678" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1679" spans="1:2" x14ac:dyDescent="0.3">
@@ -19046,7 +19046,7 @@
         <v>1643</v>
       </c>
       <c r="B1679" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1680" spans="1:2" x14ac:dyDescent="0.3">
@@ -19070,7 +19070,7 @@
         <v>1646</v>
       </c>
       <c r="B1682" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1683" spans="1:2" x14ac:dyDescent="0.3">
@@ -19102,7 +19102,7 @@
         <v>1650</v>
       </c>
       <c r="B1686" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1687" spans="1:2" x14ac:dyDescent="0.3">
@@ -19118,7 +19118,7 @@
         <v>1652</v>
       </c>
       <c r="B1688" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1689" spans="1:2" x14ac:dyDescent="0.3">
@@ -19126,7 +19126,7 @@
         <v>1653</v>
       </c>
       <c r="B1689" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1690" spans="1:2" x14ac:dyDescent="0.3">
@@ -19142,7 +19142,7 @@
         <v>1655</v>
       </c>
       <c r="B1691" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1692" spans="1:2" x14ac:dyDescent="0.3">
@@ -19174,7 +19174,7 @@
         <v>1659</v>
       </c>
       <c r="B1695" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1696" spans="1:2" x14ac:dyDescent="0.3">
@@ -19182,7 +19182,7 @@
         <v>1660</v>
       </c>
       <c r="B1696" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1697" spans="1:2" x14ac:dyDescent="0.3">
@@ -19190,7 +19190,7 @@
         <v>1661</v>
       </c>
       <c r="B1697" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1698" spans="1:2" x14ac:dyDescent="0.3">
@@ -19198,7 +19198,7 @@
         <v>1662</v>
       </c>
       <c r="B1698" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1699" spans="1:2" x14ac:dyDescent="0.3">
@@ -19206,7 +19206,7 @@
         <v>1663</v>
       </c>
       <c r="B1699" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1700" spans="1:2" x14ac:dyDescent="0.3">
@@ -19214,7 +19214,7 @@
         <v>1664</v>
       </c>
       <c r="B1700" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1701" spans="1:2" x14ac:dyDescent="0.3">
@@ -19230,7 +19230,7 @@
         <v>1666</v>
       </c>
       <c r="B1702" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1703" spans="1:2" x14ac:dyDescent="0.3">
@@ -19254,7 +19254,7 @@
         <v>1669</v>
       </c>
       <c r="B1705" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1706" spans="1:2" x14ac:dyDescent="0.3">
@@ -19262,7 +19262,7 @@
         <v>1670</v>
       </c>
       <c r="B1706" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1707" spans="1:2" x14ac:dyDescent="0.3">
@@ -19310,7 +19310,7 @@
         <v>1676</v>
       </c>
       <c r="B1712" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1713" spans="1:2" x14ac:dyDescent="0.3">
@@ -19318,7 +19318,7 @@
         <v>1677</v>
       </c>
       <c r="B1713" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1714" spans="1:2" x14ac:dyDescent="0.3">
@@ -19326,7 +19326,7 @@
         <v>1678</v>
       </c>
       <c r="B1714" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.3">
@@ -19334,7 +19334,7 @@
         <v>1679</v>
       </c>
       <c r="B1715" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.3">
@@ -19342,7 +19342,7 @@
         <v>1680</v>
       </c>
       <c r="B1716" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1717" spans="1:2" x14ac:dyDescent="0.3">
@@ -19350,7 +19350,7 @@
         <v>335</v>
       </c>
       <c r="B1717" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1718" spans="1:2" x14ac:dyDescent="0.3">
@@ -19366,7 +19366,7 @@
         <v>1682</v>
       </c>
       <c r="B1719" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.3">
@@ -19390,7 +19390,7 @@
         <v>1685</v>
       </c>
       <c r="B1722" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1723" spans="1:2" x14ac:dyDescent="0.3">
@@ -19414,7 +19414,7 @@
         <v>1688</v>
       </c>
       <c r="B1725" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.3">
@@ -19446,7 +19446,7 @@
         <v>1692</v>
       </c>
       <c r="B1729" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1730" spans="1:2" x14ac:dyDescent="0.3">
@@ -19462,7 +19462,7 @@
         <v>1694</v>
       </c>
       <c r="B1731" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1732" spans="1:2" x14ac:dyDescent="0.3">
@@ -19470,7 +19470,7 @@
         <v>1695</v>
       </c>
       <c r="B1732" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1733" spans="1:2" x14ac:dyDescent="0.3">
@@ -19478,7 +19478,7 @@
         <v>1696</v>
       </c>
       <c r="B1733" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1734" spans="1:2" x14ac:dyDescent="0.3">
@@ -19486,7 +19486,7 @@
         <v>1697</v>
       </c>
       <c r="B1734" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1735" spans="1:2" x14ac:dyDescent="0.3">
@@ -19494,7 +19494,7 @@
         <v>1698</v>
       </c>
       <c r="B1735" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1736" spans="1:2" x14ac:dyDescent="0.3">
@@ -19518,7 +19518,7 @@
         <v>1700</v>
       </c>
       <c r="B1738" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1739" spans="1:2" x14ac:dyDescent="0.3">
@@ -19526,7 +19526,7 @@
         <v>1701</v>
       </c>
       <c r="B1739" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1740" spans="1:2" x14ac:dyDescent="0.3">
@@ -19534,7 +19534,7 @@
         <v>1702</v>
       </c>
       <c r="B1740" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1741" spans="1:2" x14ac:dyDescent="0.3">
@@ -19558,7 +19558,7 @@
         <v>1705</v>
       </c>
       <c r="B1743" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1744" spans="1:2" x14ac:dyDescent="0.3">
@@ -19574,7 +19574,7 @@
         <v>1707</v>
       </c>
       <c r="B1745" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1746" spans="1:2" x14ac:dyDescent="0.3">
@@ -19582,7 +19582,7 @@
         <v>1708</v>
       </c>
       <c r="B1746" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1747" spans="1:2" x14ac:dyDescent="0.3">
@@ -19590,7 +19590,7 @@
         <v>1709</v>
       </c>
       <c r="B1747" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1748" spans="1:2" x14ac:dyDescent="0.3">
@@ -19598,7 +19598,7 @@
         <v>1710</v>
       </c>
       <c r="B1748" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1749" spans="1:2" x14ac:dyDescent="0.3">
@@ -19614,7 +19614,7 @@
         <v>1712</v>
       </c>
       <c r="B1750" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1751" spans="1:2" x14ac:dyDescent="0.3">
@@ -19638,7 +19638,7 @@
         <v>1715</v>
       </c>
       <c r="B1753" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.3">
@@ -19670,7 +19670,7 @@
         <v>1718</v>
       </c>
       <c r="B1757" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1758" spans="1:2" x14ac:dyDescent="0.3">
@@ -19686,7 +19686,7 @@
         <v>1720</v>
       </c>
       <c r="B1759" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1760" spans="1:2" x14ac:dyDescent="0.3">
@@ -19694,7 +19694,7 @@
         <v>1721</v>
       </c>
       <c r="B1760" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1761" spans="1:2" x14ac:dyDescent="0.3">
@@ -19734,7 +19734,7 @@
         <v>1726</v>
       </c>
       <c r="B1765" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1766" spans="1:2" x14ac:dyDescent="0.3">
@@ -19758,7 +19758,7 @@
         <v>1729</v>
       </c>
       <c r="B1768" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1769" spans="1:2" x14ac:dyDescent="0.3">
@@ -19766,7 +19766,7 @@
         <v>1730</v>
       </c>
       <c r="B1769" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1770" spans="1:2" x14ac:dyDescent="0.3">
@@ -19774,7 +19774,7 @@
         <v>246</v>
       </c>
       <c r="B1770" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1771" spans="1:2" x14ac:dyDescent="0.3">
@@ -19822,7 +19822,7 @@
         <v>1736</v>
       </c>
       <c r="B1776" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1777" spans="1:2" x14ac:dyDescent="0.3">
@@ -19838,7 +19838,7 @@
         <v>1738</v>
       </c>
       <c r="B1778" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1779" spans="1:2" x14ac:dyDescent="0.3">
@@ -19854,21 +19854,6 @@
         <v>1740</v>
       </c>
       <c r="B1780" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1781" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1781" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1782" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1782" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1783" t="s">
         <v>3</v>
       </c>
     </row>

--- a/clean_data.xlsx
+++ b/clean_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahran\Documents\Punya Zahran\Zahran Unpad\Skripsi New\Code\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3461288-887F-4331-BAF3-D9FB1B633AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746C54B6-8429-4B1D-AAB8-EFC786050395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3560" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3558" uniqueCount="1741">
   <si>
     <t>Tweet</t>
   </si>
@@ -1507,9 +1507,6 @@
     <t>enough of the shameless book plug</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
     <t>why do I get attach so easily this is the one thing I hate about myself the most I end up being my own worst enemy all the damn time</t>
   </si>
   <si>
@@ -5243,6 +5240,9 @@
   </si>
   <si>
     <t>I friggin love you ron burgundy ride a unicorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential Suicide post </t>
   </si>
 </sst>
 </file>
@@ -5605,10 +5605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1780"/>
+  <dimension ref="A1:B1779"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1757" workbookViewId="0">
-      <selection activeCell="C751" sqref="C751"/>
+    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="B497" sqref="B497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9590,12 +9590,12 @@
         <v>495</v>
       </c>
       <c r="B497" t="s">
-        <v>6</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>496</v>
+        <v>334</v>
       </c>
       <c r="B498" t="s">
         <v>6</v>
@@ -9603,10 +9603,10 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>334</v>
+        <v>496</v>
       </c>
       <c r="B499" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -9630,7 +9630,7 @@
         <v>499</v>
       </c>
       <c r="B502" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
@@ -9651,18 +9651,18 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>502</v>
+        <v>106</v>
       </c>
       <c r="B505" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>106</v>
+        <v>502</v>
       </c>
       <c r="B506" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
@@ -9670,7 +9670,7 @@
         <v>503</v>
       </c>
       <c r="B507" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
@@ -9678,7 +9678,7 @@
         <v>504</v>
       </c>
       <c r="B508" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
@@ -9694,7 +9694,7 @@
         <v>506</v>
       </c>
       <c r="B510" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
@@ -9710,7 +9710,7 @@
         <v>508</v>
       </c>
       <c r="B512" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
@@ -9742,7 +9742,7 @@
         <v>512</v>
       </c>
       <c r="B516" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
@@ -9750,7 +9750,7 @@
         <v>513</v>
       </c>
       <c r="B517" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
@@ -9758,7 +9758,7 @@
         <v>514</v>
       </c>
       <c r="B518" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
@@ -9766,7 +9766,7 @@
         <v>515</v>
       </c>
       <c r="B519" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
@@ -9774,7 +9774,7 @@
         <v>516</v>
       </c>
       <c r="B520" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
@@ -9782,7 +9782,7 @@
         <v>517</v>
       </c>
       <c r="B521" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
@@ -9790,7 +9790,7 @@
         <v>518</v>
       </c>
       <c r="B522" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
@@ -9798,7 +9798,7 @@
         <v>519</v>
       </c>
       <c r="B523" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
@@ -9838,7 +9838,7 @@
         <v>524</v>
       </c>
       <c r="B528" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
@@ -9846,7 +9846,7 @@
         <v>525</v>
       </c>
       <c r="B529" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
@@ -9854,7 +9854,7 @@
         <v>526</v>
       </c>
       <c r="B530" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
@@ -9862,7 +9862,7 @@
         <v>527</v>
       </c>
       <c r="B531" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
@@ -9870,7 +9870,7 @@
         <v>528</v>
       </c>
       <c r="B532" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
@@ -9950,7 +9950,7 @@
         <v>538</v>
       </c>
       <c r="B542" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
@@ -9958,7 +9958,7 @@
         <v>539</v>
       </c>
       <c r="B543" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
@@ -9966,7 +9966,7 @@
         <v>540</v>
       </c>
       <c r="B544" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
@@ -9974,7 +9974,7 @@
         <v>541</v>
       </c>
       <c r="B545" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
@@ -9982,7 +9982,7 @@
         <v>542</v>
       </c>
       <c r="B546" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.3">
@@ -10014,7 +10014,7 @@
         <v>546</v>
       </c>
       <c r="B550" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.3">
@@ -10030,7 +10030,7 @@
         <v>548</v>
       </c>
       <c r="B552" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.3">
@@ -10062,7 +10062,7 @@
         <v>552</v>
       </c>
       <c r="B556" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.3">
@@ -10078,7 +10078,7 @@
         <v>554</v>
       </c>
       <c r="B558" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.3">
@@ -10086,7 +10086,7 @@
         <v>555</v>
       </c>
       <c r="B559" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.3">
@@ -10094,7 +10094,7 @@
         <v>556</v>
       </c>
       <c r="B560" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.3">
@@ -10110,7 +10110,7 @@
         <v>558</v>
       </c>
       <c r="B562" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.3">
@@ -10118,7 +10118,7 @@
         <v>559</v>
       </c>
       <c r="B563" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.3">
@@ -10150,7 +10150,7 @@
         <v>563</v>
       </c>
       <c r="B567" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.3">
@@ -10166,7 +10166,7 @@
         <v>565</v>
       </c>
       <c r="B569" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.3">
@@ -10174,7 +10174,7 @@
         <v>566</v>
       </c>
       <c r="B570" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.3">
@@ -10198,7 +10198,7 @@
         <v>569</v>
       </c>
       <c r="B573" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.3">
@@ -10206,7 +10206,7 @@
         <v>570</v>
       </c>
       <c r="B574" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.3">
@@ -10238,7 +10238,7 @@
         <v>574</v>
       </c>
       <c r="B578" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
@@ -10254,7 +10254,7 @@
         <v>576</v>
       </c>
       <c r="B580" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
@@ -10270,23 +10270,23 @@
         <v>578</v>
       </c>
       <c r="B582" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>579</v>
+        <v>450</v>
       </c>
       <c r="B583" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>450</v>
+        <v>579</v>
       </c>
       <c r="B584" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
@@ -10302,7 +10302,7 @@
         <v>581</v>
       </c>
       <c r="B586" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
@@ -10318,7 +10318,7 @@
         <v>583</v>
       </c>
       <c r="B588" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
@@ -10334,7 +10334,7 @@
         <v>585</v>
       </c>
       <c r="B590" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
@@ -10374,7 +10374,7 @@
         <v>590</v>
       </c>
       <c r="B595" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
@@ -10382,7 +10382,7 @@
         <v>591</v>
       </c>
       <c r="B596" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
@@ -10390,7 +10390,7 @@
         <v>592</v>
       </c>
       <c r="B597" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
@@ -10398,7 +10398,7 @@
         <v>593</v>
       </c>
       <c r="B598" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
@@ -10422,7 +10422,7 @@
         <v>596</v>
       </c>
       <c r="B601" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
@@ -10462,7 +10462,7 @@
         <v>601</v>
       </c>
       <c r="B606" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
@@ -10486,7 +10486,7 @@
         <v>604</v>
       </c>
       <c r="B609" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
@@ -10494,7 +10494,7 @@
         <v>605</v>
       </c>
       <c r="B610" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
@@ -10518,7 +10518,7 @@
         <v>608</v>
       </c>
       <c r="B613" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
@@ -10534,7 +10534,7 @@
         <v>610</v>
       </c>
       <c r="B615" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
@@ -10574,7 +10574,7 @@
         <v>615</v>
       </c>
       <c r="B620" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
@@ -10598,7 +10598,7 @@
         <v>618</v>
       </c>
       <c r="B623" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.3">
@@ -10614,7 +10614,7 @@
         <v>620</v>
       </c>
       <c r="B625" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.3">
@@ -10622,7 +10622,7 @@
         <v>621</v>
       </c>
       <c r="B626" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.3">
@@ -10654,7 +10654,7 @@
         <v>625</v>
       </c>
       <c r="B630" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.3">
@@ -10662,7 +10662,7 @@
         <v>626</v>
       </c>
       <c r="B631" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.3">
@@ -10678,7 +10678,7 @@
         <v>628</v>
       </c>
       <c r="B633" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.3">
@@ -10686,7 +10686,7 @@
         <v>629</v>
       </c>
       <c r="B634" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
@@ -10699,7 +10699,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>631</v>
+        <v>386</v>
       </c>
       <c r="B636" t="s">
         <v>3</v>
@@ -10707,7 +10707,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>386</v>
+        <v>631</v>
       </c>
       <c r="B637" t="s">
         <v>3</v>
@@ -10734,7 +10734,7 @@
         <v>634</v>
       </c>
       <c r="B640" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">
@@ -10750,7 +10750,7 @@
         <v>636</v>
       </c>
       <c r="B642" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.3">
@@ -10758,7 +10758,7 @@
         <v>637</v>
       </c>
       <c r="B643" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.3">
@@ -10774,7 +10774,7 @@
         <v>639</v>
       </c>
       <c r="B645" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.3">
@@ -10782,7 +10782,7 @@
         <v>640</v>
       </c>
       <c r="B646" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.3">
@@ -10798,7 +10798,7 @@
         <v>642</v>
       </c>
       <c r="B648" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.3">
@@ -10806,7 +10806,7 @@
         <v>643</v>
       </c>
       <c r="B649" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.3">
@@ -10814,7 +10814,7 @@
         <v>644</v>
       </c>
       <c r="B650" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.3">
@@ -10862,7 +10862,7 @@
         <v>650</v>
       </c>
       <c r="B656" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.3">
@@ -10870,7 +10870,7 @@
         <v>651</v>
       </c>
       <c r="B657" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.3">
@@ -10894,7 +10894,7 @@
         <v>654</v>
       </c>
       <c r="B660" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.3">
@@ -10902,7 +10902,7 @@
         <v>655</v>
       </c>
       <c r="B661" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.3">
@@ -10942,7 +10942,7 @@
         <v>660</v>
       </c>
       <c r="B666" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.3">
@@ -10958,7 +10958,7 @@
         <v>662</v>
       </c>
       <c r="B668" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.3">
@@ -10990,7 +10990,7 @@
         <v>666</v>
       </c>
       <c r="B672" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.3">
@@ -10998,7 +10998,7 @@
         <v>667</v>
       </c>
       <c r="B673" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.3">
@@ -11062,7 +11062,7 @@
         <v>675</v>
       </c>
       <c r="B681" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.3">
@@ -11070,7 +11070,7 @@
         <v>676</v>
       </c>
       <c r="B682" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.3">
@@ -11150,7 +11150,7 @@
         <v>686</v>
       </c>
       <c r="B692" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.3">
@@ -11158,7 +11158,7 @@
         <v>687</v>
       </c>
       <c r="B693" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.3">
@@ -11174,7 +11174,7 @@
         <v>689</v>
       </c>
       <c r="B695" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.3">
@@ -11222,7 +11222,7 @@
         <v>695</v>
       </c>
       <c r="B701" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.3">
@@ -11238,7 +11238,7 @@
         <v>697</v>
       </c>
       <c r="B703" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.3">
@@ -11246,7 +11246,7 @@
         <v>698</v>
       </c>
       <c r="B704" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.3">
@@ -11262,23 +11262,23 @@
         <v>700</v>
       </c>
       <c r="B706" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>701</v>
+        <v>386</v>
       </c>
       <c r="B707" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>386</v>
+        <v>701</v>
       </c>
       <c r="B708" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.3">
@@ -11294,7 +11294,7 @@
         <v>703</v>
       </c>
       <c r="B710" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.3">
@@ -11366,7 +11366,7 @@
         <v>712</v>
       </c>
       <c r="B719" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.3">
@@ -11374,7 +11374,7 @@
         <v>713</v>
       </c>
       <c r="B720" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.3">
@@ -11390,7 +11390,7 @@
         <v>715</v>
       </c>
       <c r="B722" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.3">
@@ -11398,7 +11398,7 @@
         <v>716</v>
       </c>
       <c r="B723" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.3">
@@ -11406,7 +11406,7 @@
         <v>717</v>
       </c>
       <c r="B724" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.3">
@@ -11414,7 +11414,7 @@
         <v>718</v>
       </c>
       <c r="B725" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.3">
@@ -11478,7 +11478,7 @@
         <v>726</v>
       </c>
       <c r="B733" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.3">
@@ -11486,7 +11486,7 @@
         <v>727</v>
       </c>
       <c r="B734" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.3">
@@ -11494,7 +11494,7 @@
         <v>728</v>
       </c>
       <c r="B735" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.3">
@@ -11502,7 +11502,7 @@
         <v>729</v>
       </c>
       <c r="B736" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.3">
@@ -11510,7 +11510,7 @@
         <v>730</v>
       </c>
       <c r="B737" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.3">
@@ -11518,7 +11518,7 @@
         <v>731</v>
       </c>
       <c r="B738" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.3">
@@ -11542,7 +11542,7 @@
         <v>734</v>
       </c>
       <c r="B741" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.3">
@@ -11558,7 +11558,7 @@
         <v>736</v>
       </c>
       <c r="B743" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.3">
@@ -11587,7 +11587,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
-        <v>740</v>
+        <v>238</v>
       </c>
       <c r="B747" t="s">
         <v>3</v>
@@ -11595,7 +11595,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
-        <v>238</v>
+        <v>740</v>
       </c>
       <c r="B748" t="s">
         <v>3</v>
@@ -11678,7 +11678,7 @@
         <v>750</v>
       </c>
       <c r="B758" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.3">
@@ -11710,7 +11710,7 @@
         <v>754</v>
       </c>
       <c r="B762" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.3">
@@ -11718,7 +11718,7 @@
         <v>755</v>
       </c>
       <c r="B763" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.3">
@@ -11726,7 +11726,7 @@
         <v>756</v>
       </c>
       <c r="B764" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.3">
@@ -11734,7 +11734,7 @@
         <v>757</v>
       </c>
       <c r="B765" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.3">
@@ -11750,7 +11750,7 @@
         <v>759</v>
       </c>
       <c r="B767" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.3">
@@ -11758,7 +11758,7 @@
         <v>760</v>
       </c>
       <c r="B768" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.3">
@@ -11766,7 +11766,7 @@
         <v>761</v>
       </c>
       <c r="B769" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.3">
@@ -11774,7 +11774,7 @@
         <v>762</v>
       </c>
       <c r="B770" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.3">
@@ -11782,7 +11782,7 @@
         <v>763</v>
       </c>
       <c r="B771" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.3">
@@ -11790,7 +11790,7 @@
         <v>764</v>
       </c>
       <c r="B772" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.3">
@@ -11798,7 +11798,7 @@
         <v>765</v>
       </c>
       <c r="B773" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.3">
@@ -11814,7 +11814,7 @@
         <v>767</v>
       </c>
       <c r="B775" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.3">
@@ -11822,7 +11822,7 @@
         <v>768</v>
       </c>
       <c r="B776" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.3">
@@ -11838,7 +11838,7 @@
         <v>770</v>
       </c>
       <c r="B778" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.3">
@@ -11846,7 +11846,7 @@
         <v>771</v>
       </c>
       <c r="B779" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.3">
@@ -11870,7 +11870,7 @@
         <v>774</v>
       </c>
       <c r="B782" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.3">
@@ -11886,7 +11886,7 @@
         <v>776</v>
       </c>
       <c r="B784" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.3">
@@ -11910,7 +11910,7 @@
         <v>779</v>
       </c>
       <c r="B787" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.3">
@@ -11926,7 +11926,7 @@
         <v>781</v>
       </c>
       <c r="B789" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.3">
@@ -11950,7 +11950,7 @@
         <v>784</v>
       </c>
       <c r="B792" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.3">
@@ -11958,7 +11958,7 @@
         <v>785</v>
       </c>
       <c r="B793" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.3">
@@ -11966,7 +11966,7 @@
         <v>786</v>
       </c>
       <c r="B794" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.3">
@@ -11982,7 +11982,7 @@
         <v>788</v>
       </c>
       <c r="B796" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.3">
@@ -12006,7 +12006,7 @@
         <v>791</v>
       </c>
       <c r="B799" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.3">
@@ -12014,7 +12014,7 @@
         <v>792</v>
       </c>
       <c r="B800" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.3">
@@ -12030,7 +12030,7 @@
         <v>794</v>
       </c>
       <c r="B802" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.3">
@@ -12038,7 +12038,7 @@
         <v>795</v>
       </c>
       <c r="B803" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.3">
@@ -12078,7 +12078,7 @@
         <v>800</v>
       </c>
       <c r="B808" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.3">
@@ -12094,7 +12094,7 @@
         <v>802</v>
       </c>
       <c r="B810" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.3">
@@ -12110,7 +12110,7 @@
         <v>804</v>
       </c>
       <c r="B812" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.3">
@@ -12126,7 +12126,7 @@
         <v>806</v>
       </c>
       <c r="B814" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.3">
@@ -12134,7 +12134,7 @@
         <v>807</v>
       </c>
       <c r="B815" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.3">
@@ -12150,7 +12150,7 @@
         <v>809</v>
       </c>
       <c r="B817" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.3">
@@ -12182,7 +12182,7 @@
         <v>813</v>
       </c>
       <c r="B821" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.3">
@@ -12198,7 +12198,7 @@
         <v>815</v>
       </c>
       <c r="B823" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.3">
@@ -12214,7 +12214,7 @@
         <v>817</v>
       </c>
       <c r="B825" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">
@@ -12222,7 +12222,7 @@
         <v>818</v>
       </c>
       <c r="B826" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.3">
@@ -12230,7 +12230,7 @@
         <v>819</v>
       </c>
       <c r="B827" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.3">
@@ -12238,7 +12238,7 @@
         <v>820</v>
       </c>
       <c r="B828" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.3">
@@ -12254,7 +12254,7 @@
         <v>822</v>
       </c>
       <c r="B830" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.3">
@@ -12270,7 +12270,7 @@
         <v>824</v>
       </c>
       <c r="B832" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.3">
@@ -12286,7 +12286,7 @@
         <v>826</v>
       </c>
       <c r="B834" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.3">
@@ -12294,7 +12294,7 @@
         <v>827</v>
       </c>
       <c r="B835" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.3">
@@ -12318,7 +12318,7 @@
         <v>830</v>
       </c>
       <c r="B838" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.3">
@@ -12342,7 +12342,7 @@
         <v>833</v>
       </c>
       <c r="B841" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.3">
@@ -12374,7 +12374,7 @@
         <v>837</v>
       </c>
       <c r="B845" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.3">
@@ -12382,7 +12382,7 @@
         <v>838</v>
       </c>
       <c r="B846" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.3">
@@ -12406,7 +12406,7 @@
         <v>841</v>
       </c>
       <c r="B849" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.3">
@@ -12414,7 +12414,7 @@
         <v>842</v>
       </c>
       <c r="B850" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.3">
@@ -12454,7 +12454,7 @@
         <v>847</v>
       </c>
       <c r="B855" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.3">
@@ -12470,7 +12470,7 @@
         <v>849</v>
       </c>
       <c r="B857" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.3">
@@ -12478,7 +12478,7 @@
         <v>850</v>
       </c>
       <c r="B858" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.3">
@@ -12494,7 +12494,7 @@
         <v>852</v>
       </c>
       <c r="B860" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.3">
@@ -12502,7 +12502,7 @@
         <v>853</v>
       </c>
       <c r="B861" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.3">
@@ -12510,7 +12510,7 @@
         <v>854</v>
       </c>
       <c r="B862" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.3">
@@ -12518,7 +12518,7 @@
         <v>855</v>
       </c>
       <c r="B863" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.3">
@@ -12526,7 +12526,7 @@
         <v>856</v>
       </c>
       <c r="B864" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.3">
@@ -12534,7 +12534,7 @@
         <v>857</v>
       </c>
       <c r="B865" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.3">
@@ -12550,7 +12550,7 @@
         <v>859</v>
       </c>
       <c r="B867" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.3">
@@ -12582,7 +12582,7 @@
         <v>863</v>
       </c>
       <c r="B871" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.3">
@@ -12598,7 +12598,7 @@
         <v>865</v>
       </c>
       <c r="B873" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.3">
@@ -12630,7 +12630,7 @@
         <v>869</v>
       </c>
       <c r="B877" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.3">
@@ -12638,7 +12638,7 @@
         <v>870</v>
       </c>
       <c r="B878" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.3">
@@ -12646,7 +12646,7 @@
         <v>871</v>
       </c>
       <c r="B879" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.3">
@@ -12654,7 +12654,7 @@
         <v>872</v>
       </c>
       <c r="B880" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.3">
@@ -12670,7 +12670,7 @@
         <v>874</v>
       </c>
       <c r="B882" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.3">
@@ -12678,7 +12678,7 @@
         <v>875</v>
       </c>
       <c r="B883" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.3">
@@ -12686,7 +12686,7 @@
         <v>876</v>
       </c>
       <c r="B884" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.3">
@@ -12694,7 +12694,7 @@
         <v>877</v>
       </c>
       <c r="B885" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.3">
@@ -12742,7 +12742,7 @@
         <v>883</v>
       </c>
       <c r="B891" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.3">
@@ -12750,7 +12750,7 @@
         <v>884</v>
       </c>
       <c r="B892" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.3">
@@ -12766,7 +12766,7 @@
         <v>886</v>
       </c>
       <c r="B894" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.3">
@@ -12774,7 +12774,7 @@
         <v>887</v>
       </c>
       <c r="B895" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.3">
@@ -12782,7 +12782,7 @@
         <v>888</v>
       </c>
       <c r="B896" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.3">
@@ -12790,7 +12790,7 @@
         <v>889</v>
       </c>
       <c r="B897" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.3">
@@ -12811,18 +12811,18 @@
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
-        <v>892</v>
+        <v>254</v>
       </c>
       <c r="B900" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
-        <v>254</v>
+        <v>892</v>
       </c>
       <c r="B901" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.3">
@@ -12838,7 +12838,7 @@
         <v>894</v>
       </c>
       <c r="B903" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.3">
@@ -12878,7 +12878,7 @@
         <v>899</v>
       </c>
       <c r="B908" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.3">
@@ -12894,7 +12894,7 @@
         <v>901</v>
       </c>
       <c r="B910" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.3">
@@ -12902,7 +12902,7 @@
         <v>902</v>
       </c>
       <c r="B911" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.3">
@@ -12910,7 +12910,7 @@
         <v>903</v>
       </c>
       <c r="B912" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.3">
@@ -12918,7 +12918,7 @@
         <v>904</v>
       </c>
       <c r="B913" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.3">
@@ -12926,7 +12926,7 @@
         <v>905</v>
       </c>
       <c r="B914" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.3">
@@ -12942,7 +12942,7 @@
         <v>907</v>
       </c>
       <c r="B916" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.3">
@@ -12958,7 +12958,7 @@
         <v>909</v>
       </c>
       <c r="B918" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.3">
@@ -12966,7 +12966,7 @@
         <v>910</v>
       </c>
       <c r="B919" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.3">
@@ -12974,7 +12974,7 @@
         <v>911</v>
       </c>
       <c r="B920" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.3">
@@ -12982,7 +12982,7 @@
         <v>912</v>
       </c>
       <c r="B921" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.3">
@@ -12990,7 +12990,7 @@
         <v>913</v>
       </c>
       <c r="B922" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.3">
@@ -13006,7 +13006,7 @@
         <v>915</v>
       </c>
       <c r="B924" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.3">
@@ -13038,7 +13038,7 @@
         <v>919</v>
       </c>
       <c r="B928" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.3">
@@ -13046,7 +13046,7 @@
         <v>920</v>
       </c>
       <c r="B929" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.3">
@@ -13086,12 +13086,12 @@
         <v>925</v>
       </c>
       <c r="B934" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
-        <v>926</v>
+        <v>505</v>
       </c>
       <c r="B935" t="s">
         <v>6</v>
@@ -13099,7 +13099,7 @@
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
-        <v>506</v>
+        <v>926</v>
       </c>
       <c r="B936" t="s">
         <v>6</v>
@@ -13110,7 +13110,7 @@
         <v>927</v>
       </c>
       <c r="B937" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.3">
@@ -13134,7 +13134,7 @@
         <v>930</v>
       </c>
       <c r="B940" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.3">
@@ -13155,7 +13155,7 @@
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
-        <v>933</v>
+        <v>760</v>
       </c>
       <c r="B943" t="s">
         <v>6</v>
@@ -13163,7 +13163,7 @@
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
-        <v>761</v>
+        <v>933</v>
       </c>
       <c r="B944" t="s">
         <v>6</v>
@@ -13174,7 +13174,7 @@
         <v>934</v>
       </c>
       <c r="B945" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.3">
@@ -13198,7 +13198,7 @@
         <v>937</v>
       </c>
       <c r="B948" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.3">
@@ -13206,7 +13206,7 @@
         <v>938</v>
       </c>
       <c r="B949" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.3">
@@ -13222,7 +13222,7 @@
         <v>940</v>
       </c>
       <c r="B951" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.3">
@@ -13238,7 +13238,7 @@
         <v>942</v>
       </c>
       <c r="B953" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.3">
@@ -13246,7 +13246,7 @@
         <v>943</v>
       </c>
       <c r="B954" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.3">
@@ -13262,7 +13262,7 @@
         <v>945</v>
       </c>
       <c r="B956" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.3">
@@ -13294,7 +13294,7 @@
         <v>949</v>
       </c>
       <c r="B960" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.3">
@@ -13302,7 +13302,7 @@
         <v>950</v>
       </c>
       <c r="B961" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.3">
@@ -13318,7 +13318,7 @@
         <v>952</v>
       </c>
       <c r="B963" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.3">
@@ -13326,7 +13326,7 @@
         <v>953</v>
       </c>
       <c r="B964" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.3">
@@ -13382,7 +13382,7 @@
         <v>960</v>
       </c>
       <c r="B971" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.3">
@@ -13398,7 +13398,7 @@
         <v>962</v>
       </c>
       <c r="B973" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.3">
@@ -13414,7 +13414,7 @@
         <v>964</v>
       </c>
       <c r="B975" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.3">
@@ -13422,7 +13422,7 @@
         <v>965</v>
       </c>
       <c r="B976" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.3">
@@ -13454,7 +13454,7 @@
         <v>969</v>
       </c>
       <c r="B980" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.3">
@@ -13467,15 +13467,15 @@
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A982" t="s">
-        <v>971</v>
+        <v>335</v>
       </c>
       <c r="B982" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A983" t="s">
-        <v>335</v>
+        <v>971</v>
       </c>
       <c r="B983" t="s">
         <v>3</v>
@@ -13502,7 +13502,7 @@
         <v>974</v>
       </c>
       <c r="B986" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.3">
@@ -13510,7 +13510,7 @@
         <v>975</v>
       </c>
       <c r="B987" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.3">
@@ -13518,7 +13518,7 @@
         <v>976</v>
       </c>
       <c r="B988" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.3">
@@ -13534,7 +13534,7 @@
         <v>978</v>
       </c>
       <c r="B990" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.3">
@@ -13558,7 +13558,7 @@
         <v>981</v>
       </c>
       <c r="B993" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.3">
@@ -13566,7 +13566,7 @@
         <v>982</v>
       </c>
       <c r="B994" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.3">
@@ -13574,7 +13574,7 @@
         <v>983</v>
       </c>
       <c r="B995" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.3">
@@ -13582,7 +13582,7 @@
         <v>984</v>
       </c>
       <c r="B996" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.3">
@@ -13590,7 +13590,7 @@
         <v>985</v>
       </c>
       <c r="B997" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.3">
@@ -13598,7 +13598,7 @@
         <v>986</v>
       </c>
       <c r="B998" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.3">
@@ -13606,7 +13606,7 @@
         <v>987</v>
       </c>
       <c r="B999" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
@@ -13622,23 +13622,23 @@
         <v>989</v>
       </c>
       <c r="B1001" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1002" t="s">
-        <v>990</v>
+        <v>505</v>
       </c>
       <c r="B1002" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1003" t="s">
-        <v>506</v>
+        <v>990</v>
       </c>
       <c r="B1003" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
@@ -13654,7 +13654,7 @@
         <v>992</v>
       </c>
       <c r="B1005" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
@@ -13662,7 +13662,7 @@
         <v>993</v>
       </c>
       <c r="B1006" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
@@ -13670,7 +13670,7 @@
         <v>994</v>
       </c>
       <c r="B1007" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
@@ -13678,7 +13678,7 @@
         <v>995</v>
       </c>
       <c r="B1008" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
@@ -13718,7 +13718,7 @@
         <v>1000</v>
       </c>
       <c r="B1013" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
@@ -13726,7 +13726,7 @@
         <v>1001</v>
       </c>
       <c r="B1014" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
@@ -13742,7 +13742,7 @@
         <v>1003</v>
       </c>
       <c r="B1016" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
@@ -13758,7 +13758,7 @@
         <v>1005</v>
       </c>
       <c r="B1018" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
@@ -13806,7 +13806,7 @@
         <v>1011</v>
       </c>
       <c r="B1024" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
@@ -13838,7 +13838,7 @@
         <v>1015</v>
       </c>
       <c r="B1028" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.3">
@@ -13854,7 +13854,7 @@
         <v>1017</v>
       </c>
       <c r="B1030" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.3">
@@ -13862,7 +13862,7 @@
         <v>1018</v>
       </c>
       <c r="B1031" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1032" spans="1:2" x14ac:dyDescent="0.3">
@@ -13870,7 +13870,7 @@
         <v>1019</v>
       </c>
       <c r="B1032" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1033" spans="1:2" x14ac:dyDescent="0.3">
@@ -13878,7 +13878,7 @@
         <v>1020</v>
       </c>
       <c r="B1033" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1034" spans="1:2" x14ac:dyDescent="0.3">
@@ -13886,7 +13886,7 @@
         <v>1021</v>
       </c>
       <c r="B1034" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1035" spans="1:2" x14ac:dyDescent="0.3">
@@ -13902,7 +13902,7 @@
         <v>1023</v>
       </c>
       <c r="B1036" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1037" spans="1:2" x14ac:dyDescent="0.3">
@@ -13915,34 +13915,34 @@
     </row>
     <row r="1038" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1038" t="s">
-        <v>1025</v>
+        <v>508</v>
       </c>
       <c r="B1038" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1039" t="s">
-        <v>509</v>
+        <v>1025</v>
       </c>
       <c r="B1039" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1040" t="s">
-        <v>1026</v>
+        <v>395</v>
       </c>
       <c r="B1040" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1041" t="s">
-        <v>395</v>
+        <v>1026</v>
       </c>
       <c r="B1041" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.3">
@@ -14006,7 +14006,7 @@
         <v>1034</v>
       </c>
       <c r="B1049" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1050" spans="1:2" x14ac:dyDescent="0.3">
@@ -14014,7 +14014,7 @@
         <v>1035</v>
       </c>
       <c r="B1050" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1051" spans="1:2" x14ac:dyDescent="0.3">
@@ -14030,7 +14030,7 @@
         <v>1037</v>
       </c>
       <c r="B1052" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.3">
@@ -14038,7 +14038,7 @@
         <v>1038</v>
       </c>
       <c r="B1053" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.3">
@@ -14046,7 +14046,7 @@
         <v>1039</v>
       </c>
       <c r="B1054" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.3">
@@ -14054,7 +14054,7 @@
         <v>1040</v>
       </c>
       <c r="B1055" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1056" spans="1:2" x14ac:dyDescent="0.3">
@@ -14118,7 +14118,7 @@
         <v>1048</v>
       </c>
       <c r="B1063" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1064" spans="1:2" x14ac:dyDescent="0.3">
@@ -14134,7 +14134,7 @@
         <v>1050</v>
       </c>
       <c r="B1065" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.3">
@@ -14150,7 +14150,7 @@
         <v>1052</v>
       </c>
       <c r="B1067" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.3">
@@ -14158,7 +14158,7 @@
         <v>1053</v>
       </c>
       <c r="B1068" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.3">
@@ -14166,7 +14166,7 @@
         <v>1054</v>
       </c>
       <c r="B1069" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.3">
@@ -14174,7 +14174,7 @@
         <v>1055</v>
       </c>
       <c r="B1070" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.3">
@@ -14182,7 +14182,7 @@
         <v>1056</v>
       </c>
       <c r="B1071" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.3">
@@ -14190,7 +14190,7 @@
         <v>1057</v>
       </c>
       <c r="B1072" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.3">
@@ -14246,7 +14246,7 @@
         <v>1064</v>
       </c>
       <c r="B1079" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1080" spans="1:2" x14ac:dyDescent="0.3">
@@ -14254,7 +14254,7 @@
         <v>1065</v>
       </c>
       <c r="B1080" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1081" spans="1:2" x14ac:dyDescent="0.3">
@@ -14302,7 +14302,7 @@
         <v>1071</v>
       </c>
       <c r="B1086" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1087" spans="1:2" x14ac:dyDescent="0.3">
@@ -14334,7 +14334,7 @@
         <v>1075</v>
       </c>
       <c r="B1090" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.3">
@@ -14342,7 +14342,7 @@
         <v>1076</v>
       </c>
       <c r="B1091" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1092" spans="1:2" x14ac:dyDescent="0.3">
@@ -14366,7 +14366,7 @@
         <v>1079</v>
       </c>
       <c r="B1094" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1095" spans="1:2" x14ac:dyDescent="0.3">
@@ -14374,7 +14374,7 @@
         <v>1080</v>
       </c>
       <c r="B1095" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1096" spans="1:2" x14ac:dyDescent="0.3">
@@ -14382,7 +14382,7 @@
         <v>1081</v>
       </c>
       <c r="B1096" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1097" spans="1:2" x14ac:dyDescent="0.3">
@@ -14446,7 +14446,7 @@
         <v>1089</v>
       </c>
       <c r="B1104" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1105" spans="1:2" x14ac:dyDescent="0.3">
@@ -14454,7 +14454,7 @@
         <v>1090</v>
       </c>
       <c r="B1105" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1106" spans="1:2" x14ac:dyDescent="0.3">
@@ -14462,7 +14462,7 @@
         <v>1091</v>
       </c>
       <c r="B1106" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1107" spans="1:2" x14ac:dyDescent="0.3">
@@ -14470,7 +14470,7 @@
         <v>1092</v>
       </c>
       <c r="B1107" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1108" spans="1:2" x14ac:dyDescent="0.3">
@@ -14502,7 +14502,7 @@
         <v>1096</v>
       </c>
       <c r="B1111" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1112" spans="1:2" x14ac:dyDescent="0.3">
@@ -14510,7 +14510,7 @@
         <v>1097</v>
       </c>
       <c r="B1112" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1113" spans="1:2" x14ac:dyDescent="0.3">
@@ -14534,7 +14534,7 @@
         <v>1100</v>
       </c>
       <c r="B1115" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1116" spans="1:2" x14ac:dyDescent="0.3">
@@ -14542,7 +14542,7 @@
         <v>1101</v>
       </c>
       <c r="B1116" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1117" spans="1:2" x14ac:dyDescent="0.3">
@@ -14566,7 +14566,7 @@
         <v>1104</v>
       </c>
       <c r="B1119" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1120" spans="1:2" x14ac:dyDescent="0.3">
@@ -14574,7 +14574,7 @@
         <v>1105</v>
       </c>
       <c r="B1120" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1121" spans="1:2" x14ac:dyDescent="0.3">
@@ -14582,7 +14582,7 @@
         <v>1106</v>
       </c>
       <c r="B1121" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1122" spans="1:2" x14ac:dyDescent="0.3">
@@ -14590,7 +14590,7 @@
         <v>1107</v>
       </c>
       <c r="B1122" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1123" spans="1:2" x14ac:dyDescent="0.3">
@@ -14614,7 +14614,7 @@
         <v>1110</v>
       </c>
       <c r="B1125" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1126" spans="1:2" x14ac:dyDescent="0.3">
@@ -14622,7 +14622,7 @@
         <v>1111</v>
       </c>
       <c r="B1126" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1127" spans="1:2" x14ac:dyDescent="0.3">
@@ -14662,7 +14662,7 @@
         <v>1116</v>
       </c>
       <c r="B1131" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.3">
@@ -14670,7 +14670,7 @@
         <v>1117</v>
       </c>
       <c r="B1132" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.3">
@@ -14678,7 +14678,7 @@
         <v>1118</v>
       </c>
       <c r="B1133" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.3">
@@ -14694,7 +14694,7 @@
         <v>1120</v>
       </c>
       <c r="B1135" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.3">
@@ -14710,7 +14710,7 @@
         <v>1122</v>
       </c>
       <c r="B1137" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.3">
@@ -14726,7 +14726,7 @@
         <v>1124</v>
       </c>
       <c r="B1139" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.3">
@@ -14758,7 +14758,7 @@
         <v>1128</v>
       </c>
       <c r="B1143" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.3">
@@ -14766,7 +14766,7 @@
         <v>1129</v>
       </c>
       <c r="B1144" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1145" spans="1:2" x14ac:dyDescent="0.3">
@@ -14790,7 +14790,7 @@
         <v>1132</v>
       </c>
       <c r="B1147" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.3">
@@ -14798,7 +14798,7 @@
         <v>1133</v>
       </c>
       <c r="B1148" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.3">
@@ -14814,7 +14814,7 @@
         <v>1135</v>
       </c>
       <c r="B1150" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.3">
@@ -14846,7 +14846,7 @@
         <v>1139</v>
       </c>
       <c r="B1154" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.3">
@@ -14878,7 +14878,7 @@
         <v>1143</v>
       </c>
       <c r="B1158" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.3">
@@ -14886,7 +14886,7 @@
         <v>1144</v>
       </c>
       <c r="B1159" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.3">
@@ -14910,7 +14910,7 @@
         <v>1147</v>
       </c>
       <c r="B1162" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.3">
@@ -14926,7 +14926,7 @@
         <v>1149</v>
       </c>
       <c r="B1164" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.3">
@@ -14934,7 +14934,7 @@
         <v>1150</v>
       </c>
       <c r="B1165" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.3">
@@ -14942,23 +14942,23 @@
         <v>1151</v>
       </c>
       <c r="B1166" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
-        <v>1152</v>
+        <v>937</v>
       </c>
       <c r="B1167" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
-        <v>938</v>
+        <v>1152</v>
       </c>
       <c r="B1168" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.3">
@@ -15014,7 +15014,7 @@
         <v>1159</v>
       </c>
       <c r="B1175" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.3">
@@ -15038,7 +15038,7 @@
         <v>1162</v>
       </c>
       <c r="B1178" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.3">
@@ -15046,12 +15046,12 @@
         <v>1163</v>
       </c>
       <c r="B1179" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
-        <v>1164</v>
+        <v>451</v>
       </c>
       <c r="B1180" t="s">
         <v>6</v>
@@ -15059,10 +15059,10 @@
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
-        <v>451</v>
+        <v>1164</v>
       </c>
       <c r="B1181" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.3">
@@ -15070,7 +15070,7 @@
         <v>1165</v>
       </c>
       <c r="B1182" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.3">
@@ -15078,7 +15078,7 @@
         <v>1166</v>
       </c>
       <c r="B1183" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.3">
@@ -15094,7 +15094,7 @@
         <v>1168</v>
       </c>
       <c r="B1185" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1186" spans="1:2" x14ac:dyDescent="0.3">
@@ -15102,7 +15102,7 @@
         <v>1169</v>
       </c>
       <c r="B1186" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.3">
@@ -15134,7 +15134,7 @@
         <v>1173</v>
       </c>
       <c r="B1190" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.3">
@@ -15150,7 +15150,7 @@
         <v>1175</v>
       </c>
       <c r="B1192" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.3">
@@ -15174,7 +15174,7 @@
         <v>1178</v>
       </c>
       <c r="B1195" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.3">
@@ -15182,7 +15182,7 @@
         <v>1179</v>
       </c>
       <c r="B1196" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.3">
@@ -15198,7 +15198,7 @@
         <v>1181</v>
       </c>
       <c r="B1198" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.3">
@@ -15214,7 +15214,7 @@
         <v>1183</v>
       </c>
       <c r="B1200" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.3">
@@ -15286,7 +15286,7 @@
         <v>1192</v>
       </c>
       <c r="B1209" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.3">
@@ -15294,7 +15294,7 @@
         <v>1193</v>
       </c>
       <c r="B1210" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.3">
@@ -15310,7 +15310,7 @@
         <v>1195</v>
       </c>
       <c r="B1212" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.3">
@@ -15318,7 +15318,7 @@
         <v>1196</v>
       </c>
       <c r="B1213" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.3">
@@ -15326,7 +15326,7 @@
         <v>1197</v>
       </c>
       <c r="B1214" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.3">
@@ -15334,7 +15334,7 @@
         <v>1198</v>
       </c>
       <c r="B1215" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1216" spans="1:2" x14ac:dyDescent="0.3">
@@ -15342,7 +15342,7 @@
         <v>1199</v>
       </c>
       <c r="B1216" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1217" spans="1:2" x14ac:dyDescent="0.3">
@@ -15350,7 +15350,7 @@
         <v>1200</v>
       </c>
       <c r="B1217" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.3">
@@ -15358,7 +15358,7 @@
         <v>1201</v>
       </c>
       <c r="B1218" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1219" spans="1:2" x14ac:dyDescent="0.3">
@@ -15366,7 +15366,7 @@
         <v>1202</v>
       </c>
       <c r="B1219" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.3">
@@ -15398,7 +15398,7 @@
         <v>1206</v>
       </c>
       <c r="B1223" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1224" spans="1:2" x14ac:dyDescent="0.3">
@@ -15406,7 +15406,7 @@
         <v>1207</v>
       </c>
       <c r="B1224" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1225" spans="1:2" x14ac:dyDescent="0.3">
@@ -15470,23 +15470,23 @@
         <v>1215</v>
       </c>
       <c r="B1232" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1233" t="s">
-        <v>1216</v>
+        <v>335</v>
       </c>
       <c r="B1233" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1234" t="s">
-        <v>335</v>
+        <v>1216</v>
       </c>
       <c r="B1234" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1235" spans="1:2" x14ac:dyDescent="0.3">
@@ -15510,7 +15510,7 @@
         <v>1219</v>
       </c>
       <c r="B1237" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1238" spans="1:2" x14ac:dyDescent="0.3">
@@ -15518,7 +15518,7 @@
         <v>1220</v>
       </c>
       <c r="B1238" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1239" spans="1:2" x14ac:dyDescent="0.3">
@@ -15526,7 +15526,7 @@
         <v>1221</v>
       </c>
       <c r="B1239" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1240" spans="1:2" x14ac:dyDescent="0.3">
@@ -15534,7 +15534,7 @@
         <v>1222</v>
       </c>
       <c r="B1240" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1241" spans="1:2" x14ac:dyDescent="0.3">
@@ -15542,7 +15542,7 @@
         <v>1223</v>
       </c>
       <c r="B1241" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1242" spans="1:2" x14ac:dyDescent="0.3">
@@ -15566,7 +15566,7 @@
         <v>1226</v>
       </c>
       <c r="B1244" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1245" spans="1:2" x14ac:dyDescent="0.3">
@@ -15574,7 +15574,7 @@
         <v>1227</v>
       </c>
       <c r="B1245" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1246" spans="1:2" x14ac:dyDescent="0.3">
@@ -15614,7 +15614,7 @@
         <v>1232</v>
       </c>
       <c r="B1250" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1251" spans="1:2" x14ac:dyDescent="0.3">
@@ -15622,7 +15622,7 @@
         <v>1233</v>
       </c>
       <c r="B1251" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1252" spans="1:2" x14ac:dyDescent="0.3">
@@ -15662,7 +15662,7 @@
         <v>1238</v>
       </c>
       <c r="B1256" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.3">
@@ -15670,7 +15670,7 @@
         <v>1239</v>
       </c>
       <c r="B1257" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.3">
@@ -15678,7 +15678,7 @@
         <v>1240</v>
       </c>
       <c r="B1258" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1259" spans="1:2" x14ac:dyDescent="0.3">
@@ -15686,7 +15686,7 @@
         <v>1241</v>
       </c>
       <c r="B1259" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1260" spans="1:2" x14ac:dyDescent="0.3">
@@ -15710,7 +15710,7 @@
         <v>1244</v>
       </c>
       <c r="B1262" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1263" spans="1:2" x14ac:dyDescent="0.3">
@@ -15734,7 +15734,7 @@
         <v>1247</v>
       </c>
       <c r="B1265" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.3">
@@ -15750,7 +15750,7 @@
         <v>1249</v>
       </c>
       <c r="B1267" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.3">
@@ -15758,7 +15758,7 @@
         <v>1250</v>
       </c>
       <c r="B1268" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.3">
@@ -15798,7 +15798,7 @@
         <v>1255</v>
       </c>
       <c r="B1273" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1274" spans="1:2" x14ac:dyDescent="0.3">
@@ -15806,7 +15806,7 @@
         <v>1256</v>
       </c>
       <c r="B1274" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1275" spans="1:2" x14ac:dyDescent="0.3">
@@ -15822,7 +15822,7 @@
         <v>1258</v>
       </c>
       <c r="B1276" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.3">
@@ -15830,7 +15830,7 @@
         <v>1259</v>
       </c>
       <c r="B1277" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1278" spans="1:2" x14ac:dyDescent="0.3">
@@ -15838,7 +15838,7 @@
         <v>1260</v>
       </c>
       <c r="B1278" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1279" spans="1:2" x14ac:dyDescent="0.3">
@@ -15846,7 +15846,7 @@
         <v>1261</v>
       </c>
       <c r="B1279" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1280" spans="1:2" x14ac:dyDescent="0.3">
@@ -15854,7 +15854,7 @@
         <v>1262</v>
       </c>
       <c r="B1280" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1281" spans="1:2" x14ac:dyDescent="0.3">
@@ -15862,20 +15862,20 @@
         <v>1263</v>
       </c>
       <c r="B1281" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1282" t="s">
-        <v>1264</v>
+        <v>90</v>
       </c>
       <c r="B1282" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1283" t="s">
-        <v>90</v>
+        <v>1264</v>
       </c>
       <c r="B1283" t="s">
         <v>6</v>
@@ -15894,7 +15894,7 @@
         <v>1266</v>
       </c>
       <c r="B1285" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1286" spans="1:2" x14ac:dyDescent="0.3">
@@ -15902,7 +15902,7 @@
         <v>1267</v>
       </c>
       <c r="B1286" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1287" spans="1:2" x14ac:dyDescent="0.3">
@@ -15918,7 +15918,7 @@
         <v>1269</v>
       </c>
       <c r="B1288" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1289" spans="1:2" x14ac:dyDescent="0.3">
@@ -15926,7 +15926,7 @@
         <v>1270</v>
       </c>
       <c r="B1289" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1290" spans="1:2" x14ac:dyDescent="0.3">
@@ -15934,7 +15934,7 @@
         <v>1271</v>
       </c>
       <c r="B1290" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1291" spans="1:2" x14ac:dyDescent="0.3">
@@ -15942,7 +15942,7 @@
         <v>1272</v>
       </c>
       <c r="B1291" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1292" spans="1:2" x14ac:dyDescent="0.3">
@@ -15950,7 +15950,7 @@
         <v>1273</v>
       </c>
       <c r="B1292" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1293" spans="1:2" x14ac:dyDescent="0.3">
@@ -15958,7 +15958,7 @@
         <v>1274</v>
       </c>
       <c r="B1293" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1294" spans="1:2" x14ac:dyDescent="0.3">
@@ -15974,7 +15974,7 @@
         <v>1276</v>
       </c>
       <c r="B1295" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1296" spans="1:2" x14ac:dyDescent="0.3">
@@ -15982,7 +15982,7 @@
         <v>1277</v>
       </c>
       <c r="B1296" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1297" spans="1:2" x14ac:dyDescent="0.3">
@@ -15998,7 +15998,7 @@
         <v>1279</v>
       </c>
       <c r="B1298" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.3">
@@ -16038,7 +16038,7 @@
         <v>1284</v>
       </c>
       <c r="B1303" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1304" spans="1:2" x14ac:dyDescent="0.3">
@@ -16054,7 +16054,7 @@
         <v>1286</v>
       </c>
       <c r="B1305" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1306" spans="1:2" x14ac:dyDescent="0.3">
@@ -16118,7 +16118,7 @@
         <v>1294</v>
       </c>
       <c r="B1313" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1314" spans="1:2" x14ac:dyDescent="0.3">
@@ -16126,7 +16126,7 @@
         <v>1295</v>
       </c>
       <c r="B1314" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1315" spans="1:2" x14ac:dyDescent="0.3">
@@ -16134,7 +16134,7 @@
         <v>1296</v>
       </c>
       <c r="B1315" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1316" spans="1:2" x14ac:dyDescent="0.3">
@@ -16150,7 +16150,7 @@
         <v>1298</v>
       </c>
       <c r="B1317" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1318" spans="1:2" x14ac:dyDescent="0.3">
@@ -16158,7 +16158,7 @@
         <v>1299</v>
       </c>
       <c r="B1318" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1319" spans="1:2" x14ac:dyDescent="0.3">
@@ -16166,7 +16166,7 @@
         <v>1300</v>
       </c>
       <c r="B1319" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1320" spans="1:2" x14ac:dyDescent="0.3">
@@ -16174,7 +16174,7 @@
         <v>1301</v>
       </c>
       <c r="B1320" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1321" spans="1:2" x14ac:dyDescent="0.3">
@@ -16182,7 +16182,7 @@
         <v>1302</v>
       </c>
       <c r="B1321" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1322" spans="1:2" x14ac:dyDescent="0.3">
@@ -16190,7 +16190,7 @@
         <v>1303</v>
       </c>
       <c r="B1322" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1323" spans="1:2" x14ac:dyDescent="0.3">
@@ -16214,7 +16214,7 @@
         <v>1306</v>
       </c>
       <c r="B1325" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1326" spans="1:2" x14ac:dyDescent="0.3">
@@ -16238,7 +16238,7 @@
         <v>1309</v>
       </c>
       <c r="B1328" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.3">
@@ -16246,7 +16246,7 @@
         <v>1310</v>
       </c>
       <c r="B1329" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.3">
@@ -16254,7 +16254,7 @@
         <v>1311</v>
       </c>
       <c r="B1330" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.3">
@@ -16262,7 +16262,7 @@
         <v>1312</v>
       </c>
       <c r="B1331" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.3">
@@ -16275,18 +16275,18 @@
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1333" t="s">
-        <v>1314</v>
+        <v>549</v>
       </c>
       <c r="B1333" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1334" t="s">
-        <v>550</v>
+        <v>1314</v>
       </c>
       <c r="B1334" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1335" spans="1:2" x14ac:dyDescent="0.3">
@@ -16366,7 +16366,7 @@
         <v>1324</v>
       </c>
       <c r="B1344" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.3">
@@ -16374,7 +16374,7 @@
         <v>1325</v>
       </c>
       <c r="B1345" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.3">
@@ -16390,20 +16390,20 @@
         <v>1327</v>
       </c>
       <c r="B1347" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1348" t="s">
-        <v>1328</v>
+        <v>1044</v>
       </c>
       <c r="B1348" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1349" t="s">
-        <v>1045</v>
+        <v>1328</v>
       </c>
       <c r="B1349" t="s">
         <v>3</v>
@@ -16459,18 +16459,18 @@
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1356" t="s">
-        <v>1335</v>
+        <v>654</v>
       </c>
       <c r="B1356" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
-        <v>655</v>
+        <v>1335</v>
       </c>
       <c r="B1357" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.3">
@@ -16502,7 +16502,7 @@
         <v>1339</v>
       </c>
       <c r="B1361" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1362" spans="1:2" x14ac:dyDescent="0.3">
@@ -16526,7 +16526,7 @@
         <v>1342</v>
       </c>
       <c r="B1364" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.3">
@@ -16534,7 +16534,7 @@
         <v>1343</v>
       </c>
       <c r="B1365" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.3">
@@ -16542,7 +16542,7 @@
         <v>1344</v>
       </c>
       <c r="B1366" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.3">
@@ -16590,7 +16590,7 @@
         <v>1350</v>
       </c>
       <c r="B1372" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1373" spans="1:2" x14ac:dyDescent="0.3">
@@ -16606,7 +16606,7 @@
         <v>1352</v>
       </c>
       <c r="B1374" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1375" spans="1:2" x14ac:dyDescent="0.3">
@@ -16614,7 +16614,7 @@
         <v>1353</v>
       </c>
       <c r="B1375" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1376" spans="1:2" x14ac:dyDescent="0.3">
@@ -16630,7 +16630,7 @@
         <v>1355</v>
       </c>
       <c r="B1377" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1378" spans="1:2" x14ac:dyDescent="0.3">
@@ -16646,7 +16646,7 @@
         <v>1357</v>
       </c>
       <c r="B1379" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.3">
@@ -16662,7 +16662,7 @@
         <v>1359</v>
       </c>
       <c r="B1381" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1382" spans="1:2" x14ac:dyDescent="0.3">
@@ -16670,7 +16670,7 @@
         <v>1360</v>
       </c>
       <c r="B1382" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.3">
@@ -16686,7 +16686,7 @@
         <v>1362</v>
       </c>
       <c r="B1384" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1385" spans="1:2" x14ac:dyDescent="0.3">
@@ -16694,7 +16694,7 @@
         <v>1363</v>
       </c>
       <c r="B1385" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.3">
@@ -16710,7 +16710,7 @@
         <v>1365</v>
       </c>
       <c r="B1387" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1388" spans="1:2" x14ac:dyDescent="0.3">
@@ -16734,7 +16734,7 @@
         <v>1368</v>
       </c>
       <c r="B1390" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1391" spans="1:2" x14ac:dyDescent="0.3">
@@ -16742,7 +16742,7 @@
         <v>1369</v>
       </c>
       <c r="B1391" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1392" spans="1:2" x14ac:dyDescent="0.3">
@@ -16750,7 +16750,7 @@
         <v>1370</v>
       </c>
       <c r="B1392" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.3">
@@ -16758,7 +16758,7 @@
         <v>1371</v>
       </c>
       <c r="B1393" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1394" spans="1:2" x14ac:dyDescent="0.3">
@@ -16766,7 +16766,7 @@
         <v>1372</v>
       </c>
       <c r="B1394" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1395" spans="1:2" x14ac:dyDescent="0.3">
@@ -16774,7 +16774,7 @@
         <v>1373</v>
       </c>
       <c r="B1395" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.3">
@@ -16782,7 +16782,7 @@
         <v>1374</v>
       </c>
       <c r="B1396" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1397" spans="1:2" x14ac:dyDescent="0.3">
@@ -16790,7 +16790,7 @@
         <v>1375</v>
       </c>
       <c r="B1397" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.3">
@@ -16806,7 +16806,7 @@
         <v>1377</v>
       </c>
       <c r="B1399" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.3">
@@ -16814,7 +16814,7 @@
         <v>1378</v>
       </c>
       <c r="B1400" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.3">
@@ -16854,7 +16854,7 @@
         <v>1383</v>
       </c>
       <c r="B1405" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1406" spans="1:2" x14ac:dyDescent="0.3">
@@ -16862,7 +16862,7 @@
         <v>1384</v>
       </c>
       <c r="B1406" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.3">
@@ -16870,7 +16870,7 @@
         <v>1385</v>
       </c>
       <c r="B1407" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.3">
@@ -16886,7 +16886,7 @@
         <v>1387</v>
       </c>
       <c r="B1409" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1410" spans="1:2" x14ac:dyDescent="0.3">
@@ -16942,7 +16942,7 @@
         <v>1394</v>
       </c>
       <c r="B1416" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.3">
@@ -16950,7 +16950,7 @@
         <v>1395</v>
       </c>
       <c r="B1417" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.3">
@@ -16958,7 +16958,7 @@
         <v>1396</v>
       </c>
       <c r="B1418" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.3">
@@ -16966,23 +16966,23 @@
         <v>1397</v>
       </c>
       <c r="B1419" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1420" t="s">
-        <v>1398</v>
+        <v>23</v>
       </c>
       <c r="B1420" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1421" t="s">
-        <v>23</v>
+        <v>1398</v>
       </c>
       <c r="B1421" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.3">
@@ -16998,7 +16998,7 @@
         <v>1400</v>
       </c>
       <c r="B1423" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1424" spans="1:2" x14ac:dyDescent="0.3">
@@ -17022,7 +17022,7 @@
         <v>1403</v>
       </c>
       <c r="B1426" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1427" spans="1:2" x14ac:dyDescent="0.3">
@@ -17030,7 +17030,7 @@
         <v>1404</v>
       </c>
       <c r="B1427" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1428" spans="1:2" x14ac:dyDescent="0.3">
@@ -17038,7 +17038,7 @@
         <v>1405</v>
       </c>
       <c r="B1428" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1429" spans="1:2" x14ac:dyDescent="0.3">
@@ -17046,7 +17046,7 @@
         <v>1406</v>
       </c>
       <c r="B1429" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1430" spans="1:2" x14ac:dyDescent="0.3">
@@ -17054,7 +17054,7 @@
         <v>1407</v>
       </c>
       <c r="B1430" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1431" spans="1:2" x14ac:dyDescent="0.3">
@@ -17078,7 +17078,7 @@
         <v>1410</v>
       </c>
       <c r="B1433" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1434" spans="1:2" x14ac:dyDescent="0.3">
@@ -17102,7 +17102,7 @@
         <v>1413</v>
       </c>
       <c r="B1436" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1437" spans="1:2" x14ac:dyDescent="0.3">
@@ -17110,7 +17110,7 @@
         <v>1414</v>
       </c>
       <c r="B1437" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1438" spans="1:2" x14ac:dyDescent="0.3">
@@ -17118,7 +17118,7 @@
         <v>1415</v>
       </c>
       <c r="B1438" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1439" spans="1:2" x14ac:dyDescent="0.3">
@@ -17142,7 +17142,7 @@
         <v>1418</v>
       </c>
       <c r="B1441" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1442" spans="1:2" x14ac:dyDescent="0.3">
@@ -17150,7 +17150,7 @@
         <v>1419</v>
       </c>
       <c r="B1442" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1443" spans="1:2" x14ac:dyDescent="0.3">
@@ -17179,7 +17179,7 @@
     </row>
     <row r="1446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1446" t="s">
-        <v>1423</v>
+        <v>516</v>
       </c>
       <c r="B1446" t="s">
         <v>3</v>
@@ -17187,10 +17187,10 @@
     </row>
     <row r="1447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1447" t="s">
-        <v>517</v>
+        <v>1423</v>
       </c>
       <c r="B1447" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1448" spans="1:2" x14ac:dyDescent="0.3">
@@ -17206,7 +17206,7 @@
         <v>1425</v>
       </c>
       <c r="B1449" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1450" spans="1:2" x14ac:dyDescent="0.3">
@@ -17222,12 +17222,12 @@
         <v>1427</v>
       </c>
       <c r="B1451" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1452" t="s">
-        <v>1428</v>
+        <v>1022</v>
       </c>
       <c r="B1452" t="s">
         <v>6</v>
@@ -17235,10 +17235,10 @@
     </row>
     <row r="1453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1453" t="s">
-        <v>1023</v>
+        <v>1428</v>
       </c>
       <c r="B1453" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1454" spans="1:2" x14ac:dyDescent="0.3">
@@ -17246,7 +17246,7 @@
         <v>1429</v>
       </c>
       <c r="B1454" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1455" spans="1:2" x14ac:dyDescent="0.3">
@@ -17254,7 +17254,7 @@
         <v>1430</v>
       </c>
       <c r="B1455" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1456" spans="1:2" x14ac:dyDescent="0.3">
@@ -17294,7 +17294,7 @@
         <v>1435</v>
       </c>
       <c r="B1460" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1461" spans="1:2" x14ac:dyDescent="0.3">
@@ -17310,23 +17310,23 @@
         <v>1437</v>
       </c>
       <c r="B1462" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1463" t="s">
-        <v>1438</v>
+        <v>1305</v>
       </c>
       <c r="B1463" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1464" t="s">
-        <v>1306</v>
+        <v>1438</v>
       </c>
       <c r="B1464" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1465" spans="1:2" x14ac:dyDescent="0.3">
@@ -17350,7 +17350,7 @@
         <v>1441</v>
       </c>
       <c r="B1467" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1468" spans="1:2" x14ac:dyDescent="0.3">
@@ -17358,7 +17358,7 @@
         <v>1442</v>
       </c>
       <c r="B1468" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1469" spans="1:2" x14ac:dyDescent="0.3">
@@ -17374,7 +17374,7 @@
         <v>1444</v>
       </c>
       <c r="B1470" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1471" spans="1:2" x14ac:dyDescent="0.3">
@@ -17382,7 +17382,7 @@
         <v>1445</v>
       </c>
       <c r="B1471" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1472" spans="1:2" x14ac:dyDescent="0.3">
@@ -17398,7 +17398,7 @@
         <v>1447</v>
       </c>
       <c r="B1473" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1474" spans="1:2" x14ac:dyDescent="0.3">
@@ -17406,7 +17406,7 @@
         <v>1448</v>
       </c>
       <c r="B1474" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1475" spans="1:2" x14ac:dyDescent="0.3">
@@ -17414,7 +17414,7 @@
         <v>1449</v>
       </c>
       <c r="B1475" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1476" spans="1:2" x14ac:dyDescent="0.3">
@@ -17430,7 +17430,7 @@
         <v>1451</v>
       </c>
       <c r="B1477" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1478" spans="1:2" x14ac:dyDescent="0.3">
@@ -17478,7 +17478,7 @@
         <v>1457</v>
       </c>
       <c r="B1483" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1484" spans="1:2" x14ac:dyDescent="0.3">
@@ -17494,7 +17494,7 @@
         <v>1459</v>
       </c>
       <c r="B1485" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1486" spans="1:2" x14ac:dyDescent="0.3">
@@ -17534,7 +17534,7 @@
         <v>1464</v>
       </c>
       <c r="B1490" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1491" spans="1:2" x14ac:dyDescent="0.3">
@@ -17542,23 +17542,23 @@
         <v>1465</v>
       </c>
       <c r="B1491" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1492" t="s">
-        <v>1466</v>
+        <v>523</v>
       </c>
       <c r="B1492" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1493" t="s">
-        <v>524</v>
+        <v>1466</v>
       </c>
       <c r="B1493" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1494" spans="1:2" x14ac:dyDescent="0.3">
@@ -17598,7 +17598,7 @@
         <v>1471</v>
       </c>
       <c r="B1498" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1499" spans="1:2" x14ac:dyDescent="0.3">
@@ -17606,7 +17606,7 @@
         <v>1472</v>
       </c>
       <c r="B1499" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1500" spans="1:2" x14ac:dyDescent="0.3">
@@ -17638,7 +17638,7 @@
         <v>1476</v>
       </c>
       <c r="B1503" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.3">
@@ -17654,7 +17654,7 @@
         <v>1478</v>
       </c>
       <c r="B1505" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.3">
@@ -17678,7 +17678,7 @@
         <v>1481</v>
       </c>
       <c r="B1508" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1509" spans="1:2" x14ac:dyDescent="0.3">
@@ -17686,7 +17686,7 @@
         <v>1482</v>
       </c>
       <c r="B1509" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1510" spans="1:2" x14ac:dyDescent="0.3">
@@ -17694,7 +17694,7 @@
         <v>1483</v>
       </c>
       <c r="B1510" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.3">
@@ -17702,7 +17702,7 @@
         <v>1484</v>
       </c>
       <c r="B1511" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.3">
@@ -17734,7 +17734,7 @@
         <v>1488</v>
       </c>
       <c r="B1515" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1516" spans="1:2" x14ac:dyDescent="0.3">
@@ -17742,7 +17742,7 @@
         <v>1489</v>
       </c>
       <c r="B1516" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1517" spans="1:2" x14ac:dyDescent="0.3">
@@ -17750,7 +17750,7 @@
         <v>1490</v>
       </c>
       <c r="B1517" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1518" spans="1:2" x14ac:dyDescent="0.3">
@@ -17779,7 +17779,7 @@
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1521" t="s">
-        <v>1494</v>
+        <v>90</v>
       </c>
       <c r="B1521" t="s">
         <v>6</v>
@@ -17787,10 +17787,10 @@
     </row>
     <row r="1522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1522" t="s">
-        <v>90</v>
+        <v>1494</v>
       </c>
       <c r="B1522" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.3">
@@ -17838,7 +17838,7 @@
         <v>1500</v>
       </c>
       <c r="B1528" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1529" spans="1:2" x14ac:dyDescent="0.3">
@@ -17846,7 +17846,7 @@
         <v>1501</v>
       </c>
       <c r="B1529" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1530" spans="1:2" x14ac:dyDescent="0.3">
@@ -17854,12 +17854,12 @@
         <v>1502</v>
       </c>
       <c r="B1530" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1531" t="s">
-        <v>1503</v>
+        <v>1034</v>
       </c>
       <c r="B1531" t="s">
         <v>6</v>
@@ -17867,7 +17867,7 @@
     </row>
     <row r="1532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1532" t="s">
-        <v>1035</v>
+        <v>1503</v>
       </c>
       <c r="B1532" t="s">
         <v>6</v>
@@ -17878,7 +17878,7 @@
         <v>1504</v>
       </c>
       <c r="B1533" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1534" spans="1:2" x14ac:dyDescent="0.3">
@@ -17910,7 +17910,7 @@
         <v>1508</v>
       </c>
       <c r="B1537" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1538" spans="1:2" x14ac:dyDescent="0.3">
@@ -17918,7 +17918,7 @@
         <v>1509</v>
       </c>
       <c r="B1538" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.3">
@@ -17926,7 +17926,7 @@
         <v>1510</v>
       </c>
       <c r="B1539" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.3">
@@ -17942,7 +17942,7 @@
         <v>1512</v>
       </c>
       <c r="B1541" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.3">
@@ -17966,7 +17966,7 @@
         <v>1515</v>
       </c>
       <c r="B1544" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.3">
@@ -17974,7 +17974,7 @@
         <v>1516</v>
       </c>
       <c r="B1545" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.3">
@@ -17990,12 +17990,12 @@
         <v>1518</v>
       </c>
       <c r="B1547" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1548" t="s">
-        <v>1519</v>
+        <v>817</v>
       </c>
       <c r="B1548" t="s">
         <v>6</v>
@@ -18003,7 +18003,7 @@
     </row>
     <row r="1549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1549" t="s">
-        <v>818</v>
+        <v>1519</v>
       </c>
       <c r="B1549" t="s">
         <v>6</v>
@@ -18014,7 +18014,7 @@
         <v>1520</v>
       </c>
       <c r="B1550" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.3">
@@ -18038,7 +18038,7 @@
         <v>1523</v>
       </c>
       <c r="B1553" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1554" spans="1:2" x14ac:dyDescent="0.3">
@@ -18054,7 +18054,7 @@
         <v>1525</v>
       </c>
       <c r="B1555" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.3">
@@ -18070,7 +18070,7 @@
         <v>1527</v>
       </c>
       <c r="B1557" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1558" spans="1:2" x14ac:dyDescent="0.3">
@@ -18078,20 +18078,20 @@
         <v>1528</v>
       </c>
       <c r="B1558" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1559" t="s">
-        <v>1529</v>
+        <v>437</v>
       </c>
       <c r="B1559" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1560" t="s">
-        <v>437</v>
+        <v>1529</v>
       </c>
       <c r="B1560" t="s">
         <v>6</v>
@@ -18102,7 +18102,7 @@
         <v>1530</v>
       </c>
       <c r="B1561" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1562" spans="1:2" x14ac:dyDescent="0.3">
@@ -18110,7 +18110,7 @@
         <v>1531</v>
       </c>
       <c r="B1562" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.3">
@@ -18118,7 +18118,7 @@
         <v>1532</v>
       </c>
       <c r="B1563" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1564" spans="1:2" x14ac:dyDescent="0.3">
@@ -18134,12 +18134,12 @@
         <v>1534</v>
       </c>
       <c r="B1565" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1566" t="s">
-        <v>1535</v>
+        <v>1444</v>
       </c>
       <c r="B1566" t="s">
         <v>6</v>
@@ -18147,7 +18147,7 @@
     </row>
     <row r="1567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1567" t="s">
-        <v>1445</v>
+        <v>1535</v>
       </c>
       <c r="B1567" t="s">
         <v>6</v>
@@ -18158,7 +18158,7 @@
         <v>1536</v>
       </c>
       <c r="B1568" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.3">
@@ -18174,7 +18174,7 @@
         <v>1538</v>
       </c>
       <c r="B1570" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1571" spans="1:2" x14ac:dyDescent="0.3">
@@ -18182,7 +18182,7 @@
         <v>1539</v>
       </c>
       <c r="B1571" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1572" spans="1:2" x14ac:dyDescent="0.3">
@@ -18195,18 +18195,18 @@
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1573" t="s">
-        <v>1541</v>
+        <v>933</v>
       </c>
       <c r="B1573" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1574" t="s">
-        <v>934</v>
+        <v>1541</v>
       </c>
       <c r="B1574" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1575" spans="1:2" x14ac:dyDescent="0.3">
@@ -18214,7 +18214,7 @@
         <v>1542</v>
       </c>
       <c r="B1575" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1576" spans="1:2" x14ac:dyDescent="0.3">
@@ -18222,7 +18222,7 @@
         <v>1543</v>
       </c>
       <c r="B1576" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1577" spans="1:2" x14ac:dyDescent="0.3">
@@ -18238,7 +18238,7 @@
         <v>1545</v>
       </c>
       <c r="B1578" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1579" spans="1:2" x14ac:dyDescent="0.3">
@@ -18246,7 +18246,7 @@
         <v>1546</v>
       </c>
       <c r="B1579" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1580" spans="1:2" x14ac:dyDescent="0.3">
@@ -18254,7 +18254,7 @@
         <v>1547</v>
       </c>
       <c r="B1580" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1581" spans="1:2" x14ac:dyDescent="0.3">
@@ -18270,7 +18270,7 @@
         <v>1549</v>
       </c>
       <c r="B1582" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1583" spans="1:2" x14ac:dyDescent="0.3">
@@ -18318,7 +18318,7 @@
         <v>1555</v>
       </c>
       <c r="B1588" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1589" spans="1:2" x14ac:dyDescent="0.3">
@@ -18326,7 +18326,7 @@
         <v>1556</v>
       </c>
       <c r="B1589" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1590" spans="1:2" x14ac:dyDescent="0.3">
@@ -18358,7 +18358,7 @@
         <v>1560</v>
       </c>
       <c r="B1593" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1594" spans="1:2" x14ac:dyDescent="0.3">
@@ -18374,7 +18374,7 @@
         <v>1562</v>
       </c>
       <c r="B1595" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1596" spans="1:2" x14ac:dyDescent="0.3">
@@ -18430,7 +18430,7 @@
         <v>1569</v>
       </c>
       <c r="B1602" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.3">
@@ -18438,7 +18438,7 @@
         <v>1570</v>
       </c>
       <c r="B1603" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.3">
@@ -18462,7 +18462,7 @@
         <v>1573</v>
       </c>
       <c r="B1606" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.3">
@@ -18486,7 +18486,7 @@
         <v>1576</v>
       </c>
       <c r="B1609" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1610" spans="1:2" x14ac:dyDescent="0.3">
@@ -18507,7 +18507,7 @@
     </row>
     <row r="1612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1612" t="s">
-        <v>1579</v>
+        <v>1475</v>
       </c>
       <c r="B1612" t="s">
         <v>3</v>
@@ -18515,7 +18515,7 @@
     </row>
     <row r="1613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1613" t="s">
-        <v>1476</v>
+        <v>1579</v>
       </c>
       <c r="B1613" t="s">
         <v>3</v>
@@ -18542,7 +18542,7 @@
         <v>1582</v>
       </c>
       <c r="B1616" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1617" spans="1:2" x14ac:dyDescent="0.3">
@@ -18550,7 +18550,7 @@
         <v>1583</v>
       </c>
       <c r="B1617" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1618" spans="1:2" x14ac:dyDescent="0.3">
@@ -18590,7 +18590,7 @@
         <v>1588</v>
       </c>
       <c r="B1622" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1623" spans="1:2" x14ac:dyDescent="0.3">
@@ -18622,7 +18622,7 @@
         <v>1592</v>
       </c>
       <c r="B1626" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1627" spans="1:2" x14ac:dyDescent="0.3">
@@ -18630,7 +18630,7 @@
         <v>1593</v>
       </c>
       <c r="B1627" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1628" spans="1:2" x14ac:dyDescent="0.3">
@@ -18638,7 +18638,7 @@
         <v>1594</v>
       </c>
       <c r="B1628" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1629" spans="1:2" x14ac:dyDescent="0.3">
@@ -18699,15 +18699,15 @@
     </row>
     <row r="1636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1636" t="s">
-        <v>1602</v>
+        <v>919</v>
       </c>
       <c r="B1636" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1637" t="s">
-        <v>920</v>
+        <v>1602</v>
       </c>
       <c r="B1637" t="s">
         <v>6</v>
@@ -18718,7 +18718,7 @@
         <v>1603</v>
       </c>
       <c r="B1638" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1639" spans="1:2" x14ac:dyDescent="0.3">
@@ -18726,7 +18726,7 @@
         <v>1604</v>
       </c>
       <c r="B1639" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.3">
@@ -18742,7 +18742,7 @@
         <v>1606</v>
       </c>
       <c r="B1641" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1642" spans="1:2" x14ac:dyDescent="0.3">
@@ -18758,7 +18758,7 @@
         <v>1608</v>
       </c>
       <c r="B1643" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1644" spans="1:2" x14ac:dyDescent="0.3">
@@ -18782,7 +18782,7 @@
         <v>1611</v>
       </c>
       <c r="B1646" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.3">
@@ -18814,7 +18814,7 @@
         <v>1615</v>
       </c>
       <c r="B1650" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1651" spans="1:2" x14ac:dyDescent="0.3">
@@ -18846,7 +18846,7 @@
         <v>1619</v>
       </c>
       <c r="B1654" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1655" spans="1:2" x14ac:dyDescent="0.3">
@@ -18878,7 +18878,7 @@
         <v>1623</v>
       </c>
       <c r="B1658" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.3">
@@ -18894,7 +18894,7 @@
         <v>1625</v>
       </c>
       <c r="B1660" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1661" spans="1:2" x14ac:dyDescent="0.3">
@@ -18907,7 +18907,7 @@
     </row>
     <row r="1662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1662" t="s">
-        <v>1627</v>
+        <v>335</v>
       </c>
       <c r="B1662" t="s">
         <v>3</v>
@@ -18915,7 +18915,7 @@
     </row>
     <row r="1663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1663" t="s">
-        <v>335</v>
+        <v>1627</v>
       </c>
       <c r="B1663" t="s">
         <v>3</v>
@@ -18950,7 +18950,7 @@
         <v>1631</v>
       </c>
       <c r="B1667" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1668" spans="1:2" x14ac:dyDescent="0.3">
@@ -18958,7 +18958,7 @@
         <v>1632</v>
       </c>
       <c r="B1668" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1669" spans="1:2" x14ac:dyDescent="0.3">
@@ -18990,7 +18990,7 @@
         <v>1636</v>
       </c>
       <c r="B1672" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1673" spans="1:2" x14ac:dyDescent="0.3">
@@ -18998,7 +18998,7 @@
         <v>1637</v>
       </c>
       <c r="B1673" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1674" spans="1:2" x14ac:dyDescent="0.3">
@@ -19006,7 +19006,7 @@
         <v>1638</v>
       </c>
       <c r="B1674" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1675" spans="1:2" x14ac:dyDescent="0.3">
@@ -19022,7 +19022,7 @@
         <v>1640</v>
       </c>
       <c r="B1676" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1677" spans="1:2" x14ac:dyDescent="0.3">
@@ -19062,7 +19062,7 @@
         <v>1645</v>
       </c>
       <c r="B1681" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1682" spans="1:2" x14ac:dyDescent="0.3">
@@ -19070,7 +19070,7 @@
         <v>1646</v>
       </c>
       <c r="B1682" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1683" spans="1:2" x14ac:dyDescent="0.3">
@@ -19086,7 +19086,7 @@
         <v>1648</v>
       </c>
       <c r="B1684" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1685" spans="1:2" x14ac:dyDescent="0.3">
@@ -19102,7 +19102,7 @@
         <v>1650</v>
       </c>
       <c r="B1686" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1687" spans="1:2" x14ac:dyDescent="0.3">
@@ -19134,7 +19134,7 @@
         <v>1654</v>
       </c>
       <c r="B1690" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1691" spans="1:2" x14ac:dyDescent="0.3">
@@ -19142,7 +19142,7 @@
         <v>1655</v>
       </c>
       <c r="B1691" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1692" spans="1:2" x14ac:dyDescent="0.3">
@@ -19158,7 +19158,7 @@
         <v>1657</v>
       </c>
       <c r="B1693" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1694" spans="1:2" x14ac:dyDescent="0.3">
@@ -19182,7 +19182,7 @@
         <v>1660</v>
       </c>
       <c r="B1696" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1697" spans="1:2" x14ac:dyDescent="0.3">
@@ -19206,7 +19206,7 @@
         <v>1663</v>
       </c>
       <c r="B1699" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1700" spans="1:2" x14ac:dyDescent="0.3">
@@ -19214,7 +19214,7 @@
         <v>1664</v>
       </c>
       <c r="B1700" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1701" spans="1:2" x14ac:dyDescent="0.3">
@@ -19222,7 +19222,7 @@
         <v>1665</v>
       </c>
       <c r="B1701" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1702" spans="1:2" x14ac:dyDescent="0.3">
@@ -19238,7 +19238,7 @@
         <v>1667</v>
       </c>
       <c r="B1703" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1704" spans="1:2" x14ac:dyDescent="0.3">
@@ -19302,7 +19302,7 @@
         <v>1675</v>
       </c>
       <c r="B1711" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1712" spans="1:2" x14ac:dyDescent="0.3">
@@ -19326,7 +19326,7 @@
         <v>1678</v>
       </c>
       <c r="B1714" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1715" spans="1:2" x14ac:dyDescent="0.3">
@@ -19339,7 +19339,7 @@
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1716" t="s">
-        <v>1680</v>
+        <v>335</v>
       </c>
       <c r="B1716" t="s">
         <v>3</v>
@@ -19347,7 +19347,7 @@
     </row>
     <row r="1717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1717" t="s">
-        <v>335</v>
+        <v>1680</v>
       </c>
       <c r="B1717" t="s">
         <v>3</v>
@@ -19358,7 +19358,7 @@
         <v>1681</v>
       </c>
       <c r="B1718" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1719" spans="1:2" x14ac:dyDescent="0.3">
@@ -19366,7 +19366,7 @@
         <v>1682</v>
       </c>
       <c r="B1719" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1720" spans="1:2" x14ac:dyDescent="0.3">
@@ -19406,7 +19406,7 @@
         <v>1687</v>
       </c>
       <c r="B1724" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.3">
@@ -19414,7 +19414,7 @@
         <v>1688</v>
       </c>
       <c r="B1725" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1726" spans="1:2" x14ac:dyDescent="0.3">
@@ -19430,7 +19430,7 @@
         <v>1690</v>
       </c>
       <c r="B1727" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1728" spans="1:2" x14ac:dyDescent="0.3">
@@ -19446,7 +19446,7 @@
         <v>1692</v>
       </c>
       <c r="B1729" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1730" spans="1:2" x14ac:dyDescent="0.3">
@@ -19470,7 +19470,7 @@
         <v>1695</v>
       </c>
       <c r="B1732" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1733" spans="1:2" x14ac:dyDescent="0.3">
@@ -19491,7 +19491,7 @@
     </row>
     <row r="1735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1735" t="s">
-        <v>1698</v>
+        <v>1654</v>
       </c>
       <c r="B1735" t="s">
         <v>6</v>
@@ -19499,7 +19499,7 @@
     </row>
     <row r="1736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1736" t="s">
-        <v>1655</v>
+        <v>1698</v>
       </c>
       <c r="B1736" t="s">
         <v>6</v>
@@ -19510,7 +19510,7 @@
         <v>1699</v>
       </c>
       <c r="B1737" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1738" spans="1:2" x14ac:dyDescent="0.3">
@@ -19550,7 +19550,7 @@
         <v>1704</v>
       </c>
       <c r="B1742" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1743" spans="1:2" x14ac:dyDescent="0.3">
@@ -19558,7 +19558,7 @@
         <v>1705</v>
       </c>
       <c r="B1743" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1744" spans="1:2" x14ac:dyDescent="0.3">
@@ -19566,7 +19566,7 @@
         <v>1706</v>
       </c>
       <c r="B1744" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1745" spans="1:2" x14ac:dyDescent="0.3">
@@ -19574,7 +19574,7 @@
         <v>1707</v>
       </c>
       <c r="B1745" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1746" spans="1:2" x14ac:dyDescent="0.3">
@@ -19582,7 +19582,7 @@
         <v>1708</v>
       </c>
       <c r="B1746" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1747" spans="1:2" x14ac:dyDescent="0.3">
@@ -19590,7 +19590,7 @@
         <v>1709</v>
       </c>
       <c r="B1747" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1748" spans="1:2" x14ac:dyDescent="0.3">
@@ -19630,20 +19630,20 @@
         <v>1714</v>
       </c>
       <c r="B1752" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1753" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="B1753" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1754" t="s">
-        <v>1708</v>
+        <v>1715</v>
       </c>
       <c r="B1754" t="s">
         <v>3</v>
@@ -19654,7 +19654,7 @@
         <v>1716</v>
       </c>
       <c r="B1755" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1756" spans="1:2" x14ac:dyDescent="0.3">
@@ -19670,7 +19670,7 @@
         <v>1718</v>
       </c>
       <c r="B1757" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1758" spans="1:2" x14ac:dyDescent="0.3">
@@ -19726,7 +19726,7 @@
         <v>1725</v>
       </c>
       <c r="B1764" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1765" spans="1:2" x14ac:dyDescent="0.3">
@@ -19734,7 +19734,7 @@
         <v>1726</v>
       </c>
       <c r="B1765" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1766" spans="1:2" x14ac:dyDescent="0.3">
@@ -19758,12 +19758,12 @@
         <v>1729</v>
       </c>
       <c r="B1768" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1769" t="s">
-        <v>1730</v>
+        <v>246</v>
       </c>
       <c r="B1769" t="s">
         <v>6</v>
@@ -19771,10 +19771,10 @@
     </row>
     <row r="1770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1770" t="s">
-        <v>246</v>
+        <v>1730</v>
       </c>
       <c r="B1770" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1771" spans="1:2" x14ac:dyDescent="0.3">
@@ -19782,7 +19782,7 @@
         <v>1731</v>
       </c>
       <c r="B1771" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1772" spans="1:2" x14ac:dyDescent="0.3">
@@ -19798,7 +19798,7 @@
         <v>1733</v>
       </c>
       <c r="B1773" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1774" spans="1:2" x14ac:dyDescent="0.3">
@@ -19806,7 +19806,7 @@
         <v>1734</v>
       </c>
       <c r="B1774" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1775" spans="1:2" x14ac:dyDescent="0.3">
@@ -19814,7 +19814,7 @@
         <v>1735</v>
       </c>
       <c r="B1775" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1776" spans="1:2" x14ac:dyDescent="0.3">
@@ -19846,14 +19846,6 @@
         <v>1739</v>
       </c>
       <c r="B1779" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1780" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1780" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B1780" t="s">
         <v>3</v>
       </c>
     </row>
